--- a/results/GAIA__TESS_confirmed__matches__unique_planets.xlsx
+++ b/results/GAIA__TESS_confirmed__matches__unique_planets.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -32,13 +32,22 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -68,11 +77,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,7 +554,7 @@
           <t>Orbit Semi-Major Axis [au]</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>Planet Radius [Earth Radius]</t>
         </is>
@@ -551,7 +564,7 @@
           <t>Planet Radius [Jupiter Radius]</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>Planet Mass [Earth Mass]</t>
         </is>
@@ -561,7 +574,7 @@
           <t>Planet Mass [Jupiter Mass]</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="2" t="inlineStr">
         <is>
           <t>Planet Mass*sin(i) [Earth Mass]</t>
         </is>
@@ -716,7 +729,7 @@
           <t>Host_name</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AS1" s="2" t="inlineStr">
         <is>
           <t>HZ_Detection_Limit</t>
         </is>
@@ -767,13 +780,14 @@
       <c r="I2" t="n">
         <v>3.455</v>
       </c>
-      <c r="L2" t="n">
+      <c r="J2" s="3" t="n"/>
+      <c r="L2" s="3" t="n">
         <v>372.6554125</v>
       </c>
       <c r="M2" t="n">
         <v>1.1725</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2" s="3" t="n">
         <v>242.71583</v>
       </c>
       <c r="O2" t="n">
@@ -855,7 +869,7 @@
           <t>eps Eri</t>
         </is>
       </c>
-      <c r="AS2" t="n">
+      <c r="AS2" s="3" t="n">
         <v>0.2915671770063158</v>
       </c>
       <c r="AT2" t="n">
@@ -902,7 +916,9 @@
       <c r="I3" t="n">
         <v>0.243</v>
       </c>
-      <c r="N3" t="n">
+      <c r="J3" s="3" t="n"/>
+      <c r="L3" s="3" t="n"/>
+      <c r="N3" s="3" t="n">
         <v>1.83</v>
       </c>
       <c r="O3" t="n">
@@ -953,7 +969,7 @@
           <t>tau Cet</t>
         </is>
       </c>
-      <c r="AS3" t="n">
+      <c r="AS3" s="3" t="n">
         <v>0.3573654978875611</v>
       </c>
       <c r="AT3" t="n">
@@ -1000,7 +1016,9 @@
       <c r="I4" t="n">
         <v>1.334</v>
       </c>
-      <c r="N4" t="n">
+      <c r="J4" s="3" t="n"/>
+      <c r="L4" s="3" t="n"/>
+      <c r="N4" s="3" t="n">
         <v>3.93</v>
       </c>
       <c r="O4" t="n">
@@ -1051,7 +1069,7 @@
           <t>tau Cet</t>
         </is>
       </c>
-      <c r="AS4" t="n">
+      <c r="AS4" s="3" t="n">
         <v>0.3573654978875611</v>
       </c>
       <c r="AT4" t="n">
@@ -1098,7 +1116,9 @@
       <c r="I5" t="n">
         <v>0.538</v>
       </c>
-      <c r="N5" t="n">
+      <c r="J5" s="3" t="n"/>
+      <c r="L5" s="3" t="n"/>
+      <c r="N5" s="3" t="n">
         <v>3.93</v>
       </c>
       <c r="O5" t="n">
@@ -1149,7 +1169,7 @@
           <t>tau Cet</t>
         </is>
       </c>
-      <c r="AS5" t="n">
+      <c r="AS5" s="3" t="n">
         <v>0.3573654978875611</v>
       </c>
       <c r="AT5" t="n">
@@ -1196,7 +1216,9 @@
       <c r="I6" t="n">
         <v>0.133</v>
       </c>
-      <c r="N6" t="n">
+      <c r="J6" s="3" t="n"/>
+      <c r="L6" s="3" t="n"/>
+      <c r="N6" s="3" t="n">
         <v>1.75</v>
       </c>
       <c r="O6" t="n">
@@ -1247,7 +1269,7 @@
           <t>tau Cet</t>
         </is>
       </c>
-      <c r="AS6" t="n">
+      <c r="AS6" s="3" t="n">
         <v>0.3573654978875611</v>
       </c>
       <c r="AT6" t="n">
@@ -1294,12 +1316,14 @@
       <c r="I7" t="n">
         <v>19.975</v>
       </c>
-      <c r="L7" t="n">
+      <c r="J7" s="3" t="n"/>
+      <c r="L7" s="3" t="n">
         <v>1519.222375</v>
       </c>
       <c r="M7" t="n">
         <v>4.779999999999999</v>
       </c>
+      <c r="N7" s="3" t="n"/>
       <c r="R7" t="n">
         <v>1519.222375</v>
       </c>
@@ -1379,7 +1403,7 @@
           <t>eps Ind A</t>
         </is>
       </c>
-      <c r="AS7" t="n">
+      <c r="AS7" s="3" t="n">
         <v>0.3846692630478289</v>
       </c>
       <c r="AT7" t="n">
@@ -1426,7 +1450,9 @@
       <c r="I8" t="n">
         <v>1.3541</v>
       </c>
-      <c r="N8" t="n">
+      <c r="J8" s="3" t="n"/>
+      <c r="L8" s="3" t="n"/>
+      <c r="N8" s="3" t="n">
         <v>5.82</v>
       </c>
       <c r="O8" t="n">
@@ -1502,7 +1528,7 @@
           <t>HD 20794</t>
         </is>
       </c>
-      <c r="AS8" t="n">
+      <c r="AS8" s="3" t="n">
         <v>0.5142615755725379</v>
       </c>
       <c r="AT8" t="n">
@@ -1549,7 +1575,9 @@
       <c r="I9" t="n">
         <v>0.509</v>
       </c>
-      <c r="N9" t="n">
+      <c r="J9" s="3" t="n"/>
+      <c r="L9" s="3" t="n"/>
+      <c r="N9" s="3" t="n">
         <v>4.77</v>
       </c>
       <c r="O9" t="n">
@@ -1605,7 +1633,7 @@
           <t>HD 20794</t>
         </is>
       </c>
-      <c r="AS9" t="n">
+      <c r="AS9" s="3" t="n">
         <v>0.5142615755725379</v>
       </c>
       <c r="AT9" t="n">
@@ -1652,7 +1680,9 @@
       <c r="I10" t="n">
         <v>0.3588</v>
       </c>
-      <c r="N10" t="n">
+      <c r="J10" s="3" t="n"/>
+      <c r="L10" s="3" t="n"/>
+      <c r="N10" s="3" t="n">
         <v>3.766666666666667</v>
       </c>
       <c r="O10" t="n">
@@ -1743,7 +1773,7 @@
           <t>HD 20794</t>
         </is>
       </c>
-      <c r="AS10" t="n">
+      <c r="AS10" s="3" t="n">
         <v>0.5142615755725379</v>
       </c>
       <c r="AT10" t="n">
@@ -1790,7 +1820,9 @@
       <c r="I11" t="n">
         <v>0.1244666666666667</v>
       </c>
-      <c r="N11" t="n">
+      <c r="J11" s="3" t="n"/>
+      <c r="L11" s="3" t="n"/>
+      <c r="N11" s="3" t="n">
         <v>2.556666666666667</v>
       </c>
       <c r="O11" t="n">
@@ -1881,7 +1913,7 @@
           <t>HD 20794</t>
         </is>
       </c>
-      <c r="AS11" t="n">
+      <c r="AS11" s="3" t="n">
         <v>0.5142615755725379</v>
       </c>
       <c r="AT11" t="n">
@@ -1928,7 +1960,9 @@
       <c r="I12" t="n">
         <v>0.2163</v>
       </c>
-      <c r="N12" t="n">
+      <c r="J12" s="3" t="n"/>
+      <c r="L12" s="3" t="n"/>
+      <c r="N12" s="3" t="n">
         <v>17.15695</v>
       </c>
       <c r="O12" t="n">
@@ -2010,7 +2044,7 @@
           <t>61 Vir</t>
         </is>
       </c>
-      <c r="AS12" t="n">
+      <c r="AS12" s="3" t="n">
         <v>0.7300820152495111</v>
       </c>
       <c r="AT12" t="n">
@@ -2057,7 +2091,9 @@
       <c r="I13" t="n">
         <v>0.0498805</v>
       </c>
-      <c r="N13" t="n">
+      <c r="J13" s="3" t="n"/>
+      <c r="L13" s="3" t="n"/>
+      <c r="N13" s="3" t="n">
         <v>5.10852</v>
       </c>
       <c r="O13" t="n">
@@ -2139,7 +2175,7 @@
           <t>61 Vir</t>
         </is>
       </c>
-      <c r="AS13" t="n">
+      <c r="AS13" s="3" t="n">
         <v>0.7300820152495111</v>
       </c>
       <c r="AT13" t="n">
@@ -2186,7 +2222,9 @@
       <c r="I14" t="n">
         <v>0.476</v>
       </c>
-      <c r="N14" t="n">
+      <c r="J14" s="3" t="n"/>
+      <c r="L14" s="3" t="n"/>
+      <c r="N14" s="3" t="n">
         <v>22.9</v>
       </c>
       <c r="O14" t="n">
@@ -2268,7 +2306,7 @@
           <t>61 Vir</t>
         </is>
       </c>
-      <c r="AS14" t="n">
+      <c r="AS14" s="3" t="n">
         <v>0.7300820152495111</v>
       </c>
       <c r="AT14" t="n">
@@ -2315,7 +2353,9 @@
       <c r="I15" t="n">
         <v>0.3217333333333334</v>
       </c>
-      <c r="N15" t="n">
+      <c r="J15" s="3" t="n"/>
+      <c r="L15" s="3" t="n"/>
+      <c r="N15" s="3" t="n">
         <v>17.61135333333333</v>
       </c>
       <c r="O15" t="n">
@@ -2401,7 +2441,7 @@
           <t>HD 192310</t>
         </is>
       </c>
-      <c r="AS15" t="n">
+      <c r="AS15" s="3" t="n">
         <v>0.7586331989631944</v>
       </c>
       <c r="AT15" t="n">
@@ -2448,7 +2488,9 @@
       <c r="I16" t="n">
         <v>1.18</v>
       </c>
-      <c r="N16" t="n">
+      <c r="J16" s="3" t="n"/>
+      <c r="L16" s="3" t="n"/>
+      <c r="N16" s="3" t="n">
         <v>24</v>
       </c>
       <c r="O16" t="n">
@@ -2531,7 +2573,7 @@
           <t>HD 192310</t>
         </is>
       </c>
-      <c r="AS16" t="n">
+      <c r="AS16" s="3" t="n">
         <v>0.7586331989631944</v>
       </c>
       <c r="AT16" t="n">
@@ -2578,7 +2620,9 @@
       <c r="I17" t="n">
         <v>0.46</v>
       </c>
-      <c r="N17" t="n">
+      <c r="J17" s="3" t="n"/>
+      <c r="L17" s="3" t="n"/>
+      <c r="N17" s="3" t="n">
         <v>16</v>
       </c>
       <c r="O17" t="n">
@@ -2646,7 +2690,7 @@
           <t>HD 102365</t>
         </is>
       </c>
-      <c r="AS17" t="n">
+      <c r="AS17" s="3" t="n">
         <v>0.7950835287355834</v>
       </c>
       <c r="AT17" t="n">
@@ -2693,7 +2737,9 @@
       <c r="I18" t="n">
         <v>0.2922999999999999</v>
       </c>
-      <c r="N18" t="n">
+      <c r="J18" s="3" t="n"/>
+      <c r="L18" s="3" t="n"/>
+      <c r="N18" s="3" t="n">
         <v>70.178212</v>
       </c>
       <c r="O18" t="n">
@@ -2775,7 +2821,7 @@
           <t>HD 3651</t>
         </is>
       </c>
-      <c r="AS18" t="n">
+      <c r="AS18" s="3" t="n">
         <v>0.9605036139810498</v>
       </c>
       <c r="AT18" t="n">
@@ -2822,7 +2868,9 @@
       <c r="I19" t="n">
         <v>0.1238</v>
       </c>
-      <c r="N19" t="n">
+      <c r="J19" s="3" t="n"/>
+      <c r="L19" s="3" t="n"/>
+      <c r="N19" s="3" t="n">
         <v>13.63484</v>
       </c>
       <c r="O19" t="n">
@@ -2890,7 +2938,7 @@
           <t>HD 141004</t>
         </is>
       </c>
-      <c r="AS19" t="n">
+      <c r="AS19" s="3" t="n">
         <v>0.9792117014799863</v>
       </c>
       <c r="AT19" t="n">
@@ -2937,7 +2985,9 @@
       <c r="I20" t="n">
         <v>0.08799999999999999</v>
       </c>
-      <c r="N20" t="n">
+      <c r="J20" s="3" t="n"/>
+      <c r="L20" s="3" t="n"/>
+      <c r="N20" s="3" t="n">
         <v>30.82936</v>
       </c>
       <c r="O20" t="n">
@@ -2988,7 +3038,7 @@
           <t>HD 115404 A</t>
         </is>
       </c>
-      <c r="AS20" t="n">
+      <c r="AS20" s="3" t="n">
         <v>0.9911167599001823</v>
       </c>
       <c r="AT20" t="n">
@@ -3035,12 +3085,14 @@
       <c r="I21" t="n">
         <v>11.364</v>
       </c>
-      <c r="L21" t="n">
+      <c r="J21" s="3" t="n"/>
+      <c r="L21" s="3" t="n">
         <v>3279.67133</v>
       </c>
       <c r="M21" t="n">
         <v>10.319</v>
       </c>
+      <c r="N21" s="3" t="n"/>
       <c r="R21" t="n">
         <v>3279.67133</v>
       </c>
@@ -3086,7 +3138,7 @@
           <t>HD 115404 A</t>
         </is>
       </c>
-      <c r="AS21" t="n">
+      <c r="AS21" s="3" t="n">
         <v>0.9911167599001823</v>
       </c>
       <c r="AT21" t="n">
@@ -3133,7 +3185,9 @@
       <c r="I22" t="n">
         <v>0.1123333333333333</v>
       </c>
-      <c r="N22" t="n">
+      <c r="J22" s="3" t="n"/>
+      <c r="L22" s="3" t="n"/>
+      <c r="N22" s="3" t="n">
         <v>1310.5006</v>
       </c>
       <c r="O22" t="n">
@@ -3204,7 +3258,7 @@
           <t>GJ 86</t>
         </is>
       </c>
-      <c r="AS22" t="n">
+      <c r="AS22" s="3" t="n">
         <v>0.9971207000975294</v>
       </c>
       <c r="AT22" t="n">
@@ -3251,7 +3305,9 @@
       <c r="I23" t="n">
         <v>0.6375</v>
       </c>
-      <c r="N23" t="n">
+      <c r="J23" s="3" t="n"/>
+      <c r="L23" s="3" t="n"/>
+      <c r="N23" s="3" t="n">
         <v>16.0899</v>
       </c>
       <c r="O23" t="n">
@@ -3328,7 +3384,7 @@
           <t>HD 69830</t>
         </is>
       </c>
-      <c r="AS23" t="n">
+      <c r="AS23" s="3" t="n">
         <v>1.057958687357421</v>
       </c>
       <c r="AT23" t="n">
@@ -3375,7 +3431,9 @@
       <c r="I24" t="n">
         <v>0.07894999999999999</v>
       </c>
-      <c r="N24" t="n">
+      <c r="J24" s="3" t="n"/>
+      <c r="L24" s="3" t="n"/>
+      <c r="N24" s="3" t="n">
         <v>10.23293</v>
       </c>
       <c r="O24" t="n">
@@ -3452,7 +3510,7 @@
           <t>HD 69830</t>
         </is>
       </c>
-      <c r="AS24" t="n">
+      <c r="AS24" s="3" t="n">
         <v>1.057958687357421</v>
       </c>
       <c r="AT24" t="n">
@@ -3499,7 +3557,9 @@
       <c r="I25" t="n">
         <v>0.1871</v>
       </c>
-      <c r="N25" t="n">
+      <c r="J25" s="3" t="n"/>
+      <c r="L25" s="3" t="n"/>
+      <c r="N25" s="3" t="n">
         <v>10.82634</v>
       </c>
       <c r="O25" t="n">
@@ -3576,7 +3636,7 @@
           <t>HD 69830</t>
         </is>
       </c>
-      <c r="AS25" t="n">
+      <c r="AS25" s="3" t="n">
         <v>1.057958687357421</v>
       </c>
       <c r="AT25" t="n">
@@ -3623,19 +3683,19 @@
       <c r="I26" t="n">
         <v>0.01964363636363637</v>
       </c>
-      <c r="J26" t="n">
+      <c r="J26" s="3" t="n">
         <v>1.980555555555556</v>
       </c>
       <c r="K26" t="n">
         <v>0.1765555555555555</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L26" s="3" t="n">
         <v>8.152407</v>
       </c>
       <c r="M26" t="n">
         <v>0.025601</v>
       </c>
-      <c r="N26" t="n">
+      <c r="N26" s="3" t="n">
         <v>9.7367475</v>
       </c>
       <c r="O26" t="n">
@@ -3735,7 +3795,7 @@
           <t>55 Cnc</t>
         </is>
       </c>
-      <c r="AS26" t="n">
+      <c r="AS26" s="3" t="n">
         <v>1.058179580845991</v>
       </c>
       <c r="AT26" t="n">
@@ -3782,13 +3842,14 @@
       <c r="I27" t="n">
         <v>5.596299999999999</v>
       </c>
-      <c r="L27" t="n">
+      <c r="J27" s="3" t="n"/>
+      <c r="L27" s="3" t="n">
         <v>1229.6315</v>
       </c>
       <c r="M27" t="n">
         <v>3.869</v>
       </c>
-      <c r="N27" t="n">
+      <c r="N27" s="3" t="n">
         <v>1113.8473375</v>
       </c>
       <c r="O27" t="n">
@@ -3876,7 +3937,7 @@
           <t>55 Cnc</t>
         </is>
       </c>
-      <c r="AS27" t="n">
+      <c r="AS27" s="3" t="n">
         <v>1.058179580845991</v>
       </c>
       <c r="AT27" t="n">
@@ -3923,13 +3984,14 @@
       <c r="I28" t="n">
         <v>0.23927825</v>
       </c>
-      <c r="L28" t="n">
+      <c r="J28" s="3" t="n"/>
+      <c r="L28" s="3" t="n">
         <v>55.58615</v>
       </c>
       <c r="M28" t="n">
         <v>0.1749</v>
       </c>
-      <c r="N28" t="n">
+      <c r="N28" s="3" t="n">
         <v>55.51812833333333</v>
       </c>
       <c r="O28" t="n">
@@ -4009,7 +4071,7 @@
           <t>55 Cnc</t>
         </is>
       </c>
-      <c r="AS28" t="n">
+      <c r="AS28" s="3" t="n">
         <v>1.058179580845991</v>
       </c>
       <c r="AT28" t="n">
@@ -4056,13 +4118,14 @@
       <c r="I29" t="n">
         <v>0.11403475</v>
       </c>
-      <c r="L29" t="n">
+      <c r="J29" s="3" t="n"/>
+      <c r="L29" s="3" t="n">
         <v>261.7315</v>
       </c>
       <c r="M29" t="n">
         <v>0.8235333333333333</v>
       </c>
-      <c r="N29" t="n">
+      <c r="N29" s="3" t="n">
         <v>263.5308677777778</v>
       </c>
       <c r="O29" t="n">
@@ -4153,7 +4216,7 @@
           <t>55 Cnc</t>
         </is>
       </c>
-      <c r="AS29" t="n">
+      <c r="AS29" s="3" t="n">
         <v>1.058179580845991</v>
       </c>
       <c r="AT29" t="n">
@@ -4200,13 +4263,14 @@
       <c r="I30" t="n">
         <v>0.7785857142857144</v>
       </c>
-      <c r="L30" t="n">
+      <c r="J30" s="3" t="n"/>
+      <c r="L30" s="3" t="n">
         <v>45.90855</v>
       </c>
       <c r="M30" t="n">
         <v>0.14445</v>
       </c>
-      <c r="N30" t="n">
+      <c r="N30" s="3" t="n">
         <v>47.984338</v>
       </c>
       <c r="O30" t="n">
@@ -4286,7 +4350,7 @@
           <t>55 Cnc</t>
         </is>
       </c>
-      <c r="AS30" t="n">
+      <c r="AS30" s="3" t="n">
         <v>1.058179580845991</v>
       </c>
       <c r="AT30" t="n">
@@ -4333,13 +4397,14 @@
       <c r="I31" t="n">
         <v>1.5364</v>
       </c>
-      <c r="L31" t="n">
+      <c r="J31" s="3" t="n"/>
+      <c r="L31" s="3" t="n">
         <v>1366.66215</v>
       </c>
       <c r="M31" t="n">
         <v>4.3</v>
       </c>
-      <c r="N31" t="n">
+      <c r="N31" s="3" t="n">
         <v>552.569436</v>
       </c>
       <c r="O31" t="n">
@@ -4424,7 +4489,7 @@
           <t>HD 160691</t>
         </is>
       </c>
-      <c r="AS31" t="n">
+      <c r="AS31" s="3" t="n">
         <v>1.135121402573385</v>
       </c>
       <c r="AT31" t="n">
@@ -4471,7 +4536,9 @@
       <c r="I32" t="n">
         <v>0.09126666666666666</v>
       </c>
-      <c r="N32" t="n">
+      <c r="J32" s="3" t="n"/>
+      <c r="L32" s="3" t="n"/>
+      <c r="N32" s="3" t="n">
         <v>11.5749</v>
       </c>
       <c r="O32" t="n">
@@ -4559,7 +4626,7 @@
           <t>HD 160691</t>
         </is>
       </c>
-      <c r="AS32" t="n">
+      <c r="AS32" s="3" t="n">
         <v>1.135121402573385</v>
       </c>
       <c r="AT32" t="n">
@@ -4606,13 +4673,14 @@
       <c r="I33" t="n">
         <v>0.9275</v>
       </c>
-      <c r="L33" t="n">
+      <c r="J33" s="3" t="n"/>
+      <c r="L33" s="3" t="n">
         <v>2224.79885</v>
       </c>
       <c r="M33" t="n">
         <v>7</v>
       </c>
-      <c r="N33" t="n">
+      <c r="N33" s="3" t="n">
         <v>159.21025</v>
       </c>
       <c r="O33" t="n">
@@ -4697,7 +4765,7 @@
           <t>HD 160691</t>
         </is>
       </c>
-      <c r="AS33" t="n">
+      <c r="AS33" s="3" t="n">
         <v>1.135121402573385</v>
       </c>
       <c r="AT33" t="n">
@@ -4744,13 +4812,14 @@
       <c r="I34" t="n">
         <v>4.982666666666667</v>
       </c>
-      <c r="L34" t="n">
+      <c r="J34" s="3" t="n"/>
+      <c r="L34" s="3" t="n">
         <v>1398.44499</v>
       </c>
       <c r="M34" t="n">
         <v>4.4</v>
       </c>
-      <c r="N34" t="n">
+      <c r="N34" s="3" t="n">
         <v>777.273</v>
       </c>
       <c r="O34" t="n">
@@ -4835,7 +4904,7 @@
           <t>HD 160691</t>
         </is>
       </c>
-      <c r="AS34" t="n">
+      <c r="AS34" s="3" t="n">
         <v>1.135121402573385</v>
       </c>
       <c r="AT34" t="n">
@@ -4882,7 +4951,9 @@
       <c r="I35" t="n">
         <v>1.32</v>
       </c>
-      <c r="N35" t="n">
+      <c r="J35" s="3" t="n"/>
+      <c r="L35" s="3" t="n"/>
+      <c r="N35" s="3" t="n">
         <v>385</v>
       </c>
       <c r="O35" t="n">
@@ -4956,7 +5027,7 @@
           <t>HD 147513</t>
         </is>
       </c>
-      <c r="AS35" t="n">
+      <c r="AS35" s="3" t="n">
         <v>1.156401682102603</v>
       </c>
       <c r="AT35" t="n">
@@ -5003,12 +5074,14 @@
       <c r="I36" t="n">
         <v>10.8</v>
       </c>
-      <c r="L36" t="n">
+      <c r="J36" s="3" t="n"/>
+      <c r="L36" s="3" t="n">
         <v>1649.52943</v>
       </c>
       <c r="M36" t="n">
         <v>5.19</v>
       </c>
+      <c r="N36" s="3" t="n"/>
       <c r="R36" t="n">
         <v>1649.52943</v>
       </c>
@@ -5076,7 +5149,7 @@
           <t>HD 222237</t>
         </is>
       </c>
-      <c r="AS36" t="n">
+      <c r="AS36" s="3" t="n">
         <v>1.166831915167785</v>
       </c>
       <c r="AT36" t="n">
@@ -5123,13 +5196,14 @@
       <c r="I37" t="n">
         <v>0.4764166666666667</v>
       </c>
-      <c r="L37" t="n">
+      <c r="J37" s="3" t="n"/>
+      <c r="L37" s="3" t="n">
         <v>2380.45</v>
       </c>
       <c r="M37" t="n">
         <v>7.49</v>
       </c>
-      <c r="N37" t="n">
+      <c r="N37" s="3" t="n">
         <v>2302.722651999999</v>
       </c>
       <c r="O37" t="n">
@@ -5206,7 +5280,7 @@
           <t>70 Vir</t>
         </is>
       </c>
-      <c r="AS37" t="n">
+      <c r="AS37" s="3" t="n">
         <v>1.194686586706649</v>
       </c>
       <c r="AT37" t="n">
@@ -5253,13 +5327,14 @@
       <c r="I38" t="n">
         <v>4.0925</v>
       </c>
-      <c r="L38" t="n">
+      <c r="J38" s="3" t="n"/>
+      <c r="L38" s="3" t="n">
         <v>572.09113</v>
       </c>
       <c r="M38" t="n">
         <v>1.8</v>
       </c>
-      <c r="N38" t="n">
+      <c r="N38" s="3" t="n">
         <v>470.7889542857142</v>
       </c>
       <c r="O38" t="n">
@@ -5347,7 +5422,7 @@
           <t>HD 190360</t>
         </is>
       </c>
-      <c r="AS38" t="n">
+      <c r="AS38" s="3" t="n">
         <v>1.219220840875941</v>
       </c>
       <c r="AT38" t="n">
@@ -5394,7 +5469,9 @@
       <c r="I39" t="n">
         <v>0.1292666666666666</v>
       </c>
-      <c r="N39" t="n">
+      <c r="J39" s="3" t="n"/>
+      <c r="L39" s="3" t="n"/>
+      <c r="N39" s="3" t="n">
         <v>19.729605</v>
       </c>
       <c r="O39" t="n">
@@ -5479,7 +5556,7 @@
           <t>HD 190360</t>
         </is>
       </c>
-      <c r="AS39" t="n">
+      <c r="AS39" s="3" t="n">
         <v>1.219220840875941</v>
       </c>
       <c r="AT39" t="n">
@@ -5526,19 +5603,19 @@
       <c r="I40" t="n">
         <v>0.09556666666666667</v>
       </c>
-      <c r="J40" t="n">
+      <c r="J40" s="3" t="n">
         <v>1.562666666666667</v>
       </c>
       <c r="K40" t="n">
         <v>0.1393333333333333</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L40" s="3" t="n">
         <v>4.67</v>
       </c>
       <c r="M40" t="n">
         <v>0.014695</v>
       </c>
-      <c r="N40" t="n">
+      <c r="N40" s="3" t="n">
         <v>4.715</v>
       </c>
       <c r="O40" t="n">
@@ -5641,7 +5718,7 @@
           <t>HD 136352</t>
         </is>
       </c>
-      <c r="AS40" t="n">
+      <c r="AS40" s="3" t="n">
         <v>1.244933048070707</v>
       </c>
       <c r="AT40" t="n">
@@ -5688,19 +5765,19 @@
       <c r="I41" t="n">
         <v>0.1705333333333333</v>
       </c>
-      <c r="J41" t="n">
+      <c r="J41" s="3" t="n">
         <v>2.743</v>
       </c>
       <c r="K41" t="n">
         <v>0.2446666666666667</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L41" s="3" t="n">
         <v>11.265</v>
       </c>
       <c r="M41" t="n">
         <v>0.03544</v>
       </c>
-      <c r="N41" t="n">
+      <c r="N41" s="3" t="n">
         <v>11.04</v>
       </c>
       <c r="O41" t="n">
@@ -5803,7 +5880,7 @@
           <t>HD 136352</t>
         </is>
       </c>
-      <c r="AS41" t="n">
+      <c r="AS41" s="3" t="n">
         <v>1.244933048070707</v>
       </c>
       <c r="AT41" t="n">
@@ -5850,19 +5927,19 @@
       <c r="I42" t="n">
         <v>0.4221</v>
       </c>
-      <c r="J42" t="n">
+      <c r="J42" s="3" t="n">
         <v>2.0915</v>
       </c>
       <c r="K42" t="n">
         <v>0.187</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L42" s="3" t="n">
         <v>8.82</v>
       </c>
       <c r="M42" t="n">
         <v>0.02775</v>
       </c>
-      <c r="N42" t="n">
+      <c r="N42" s="3" t="n">
         <v>9.539999999999999</v>
       </c>
       <c r="O42" t="n">
@@ -5959,7 +6036,7 @@
           <t>HD 136352</t>
         </is>
       </c>
-      <c r="AS42" t="n">
+      <c r="AS42" s="3" t="n">
         <v>1.244933048070707</v>
       </c>
       <c r="AT42" t="n">
@@ -6006,7 +6083,9 @@
       <c r="I43" t="n">
         <v>0.60345</v>
       </c>
-      <c r="N43" t="n">
+      <c r="J43" s="3" t="n"/>
+      <c r="L43" s="3" t="n"/>
+      <c r="N43" s="3" t="n">
         <v>7.1</v>
       </c>
       <c r="O43" t="n">
@@ -6094,7 +6173,7 @@
           <t>HD 40307</t>
         </is>
       </c>
-      <c r="AS43" t="n">
+      <c r="AS43" s="3" t="n">
         <v>1.24668800610056</v>
       </c>
       <c r="AT43" t="n">
@@ -6141,7 +6220,9 @@
       <c r="I44" t="n">
         <v>0.08074333333333333</v>
       </c>
-      <c r="N44" t="n">
+      <c r="J44" s="3" t="n"/>
+      <c r="L44" s="3" t="n"/>
+      <c r="N44" s="3" t="n">
         <v>6.543333333333333</v>
       </c>
       <c r="O44" t="n">
@@ -6229,7 +6310,7 @@
           <t>HD 40307</t>
         </is>
       </c>
-      <c r="AS44" t="n">
+      <c r="AS44" s="3" t="n">
         <v>1.24668800610056</v>
       </c>
       <c r="AT44" t="n">
@@ -6276,7 +6357,9 @@
       <c r="I45" t="n">
         <v>0.04727466666666667</v>
       </c>
-      <c r="N45" t="n">
+      <c r="J45" s="3" t="n"/>
+      <c r="L45" s="3" t="n"/>
+      <c r="N45" s="3" t="n">
         <v>3.936666666666667</v>
       </c>
       <c r="O45" t="n">
@@ -6364,7 +6447,7 @@
           <t>HD 40307</t>
         </is>
       </c>
-      <c r="AS45" t="n">
+      <c r="AS45" s="3" t="n">
         <v>1.24668800610056</v>
       </c>
       <c r="AT45" t="n">
@@ -6411,7 +6494,9 @@
       <c r="I46" t="n">
         <v>0.2482</v>
       </c>
-      <c r="N46" t="n">
+      <c r="J46" s="3" t="n"/>
+      <c r="L46" s="3" t="n"/>
+      <c r="N46" s="3" t="n">
         <v>4.676666666666667</v>
       </c>
       <c r="O46" t="n">
@@ -6499,7 +6584,7 @@
           <t>HD 40307</t>
         </is>
       </c>
-      <c r="AS46" t="n">
+      <c r="AS46" s="3" t="n">
         <v>1.24668800610056</v>
       </c>
       <c r="AT46" t="n">
@@ -6546,7 +6631,9 @@
       <c r="I47" t="n">
         <v>0.13339</v>
       </c>
-      <c r="N47" t="n">
+      <c r="J47" s="3" t="n"/>
+      <c r="L47" s="3" t="n"/>
+      <c r="N47" s="3" t="n">
         <v>9.246666666666668</v>
       </c>
       <c r="O47" t="n">
@@ -6634,7 +6721,7 @@
           <t>HD 40307</t>
         </is>
       </c>
-      <c r="AS47" t="n">
+      <c r="AS47" s="3" t="n">
         <v>1.24668800610056</v>
       </c>
       <c r="AT47" t="n">
@@ -6681,13 +6768,14 @@
       <c r="I48" t="n">
         <v>0.0522625</v>
       </c>
-      <c r="L48" t="n">
+      <c r="J48" s="3" t="n"/>
+      <c r="L48" s="3" t="n">
         <v>146.2018</v>
       </c>
       <c r="M48" t="n">
         <v>0.46</v>
       </c>
-      <c r="N48" t="n">
+      <c r="N48" s="3" t="n">
         <v>147.724596</v>
       </c>
       <c r="O48" t="n">
@@ -6776,7 +6864,7 @@
           <t>51 Peg</t>
         </is>
       </c>
-      <c r="AS48" t="n">
+      <c r="AS48" s="3" t="n">
         <v>1.265311512960077</v>
       </c>
       <c r="AT48" t="n">
@@ -6823,12 +6911,14 @@
       <c r="I49" t="n">
         <v>9.6105</v>
       </c>
-      <c r="L49" t="n">
+      <c r="J49" s="3" t="n"/>
+      <c r="L49" s="3" t="n">
         <v>1284.66242</v>
       </c>
       <c r="M49" t="n">
         <v>4.042</v>
       </c>
+      <c r="N49" s="3" t="n"/>
       <c r="R49" t="n">
         <v>1284.66242</v>
       </c>
@@ -6885,7 +6975,7 @@
           <t>HD 140901</t>
         </is>
       </c>
-      <c r="AS49" t="n">
+      <c r="AS49" s="3" t="n">
         <v>1.345367352334858</v>
       </c>
       <c r="AT49" t="n">
@@ -6932,7 +7022,9 @@
       <c r="I50" t="n">
         <v>0.08500000000000001</v>
       </c>
-      <c r="N50" t="n">
+      <c r="J50" s="3" t="n"/>
+      <c r="L50" s="3" t="n"/>
+      <c r="N50" s="3" t="n">
         <v>15.57359</v>
       </c>
       <c r="O50" t="n">
@@ -6983,7 +7075,7 @@
           <t>HD 140901</t>
         </is>
       </c>
-      <c r="AS50" t="n">
+      <c r="AS50" s="3" t="n">
         <v>1.345367352334858</v>
       </c>
       <c r="AT50" t="n">
@@ -7030,7 +7122,9 @@
       <c r="I51" t="n">
         <v>0.092</v>
       </c>
-      <c r="N51" t="n">
+      <c r="J51" s="3" t="n"/>
+      <c r="L51" s="3" t="n"/>
+      <c r="N51" s="3" t="n">
         <v>15.98</v>
       </c>
       <c r="O51" t="n">
@@ -7115,7 +7209,7 @@
           <t>HD 190007</t>
         </is>
       </c>
-      <c r="AS51" t="n">
+      <c r="AS51" s="3" t="n">
         <v>1.345624188533958</v>
       </c>
       <c r="AT51" t="n">
@@ -7162,12 +7256,14 @@
       <c r="I52" t="n">
         <v>0.046</v>
       </c>
-      <c r="J52" t="n">
+      <c r="J52" s="3" t="n">
         <v>0.921</v>
       </c>
       <c r="K52" t="n">
         <v>0.082</v>
       </c>
+      <c r="L52" s="3" t="n"/>
+      <c r="N52" s="3" t="n"/>
       <c r="V52" t="n">
         <v>75.62</v>
       </c>
@@ -7233,7 +7329,7 @@
           <t>HIP 56998</t>
         </is>
       </c>
-      <c r="AS52" t="n">
+      <c r="AS52" s="3" t="n">
         <v>1.422947157415711</v>
       </c>
       <c r="AT52" t="n">
@@ -7280,12 +7376,14 @@
       <c r="I53" t="n">
         <v>0.0573</v>
       </c>
-      <c r="J53" t="n">
+      <c r="J53" s="3" t="n">
         <v>0.973</v>
       </c>
       <c r="K53" t="n">
         <v>0.08649999999999999</v>
       </c>
+      <c r="L53" s="3" t="n"/>
+      <c r="N53" s="3" t="n"/>
       <c r="V53" t="n">
         <v>48.96</v>
       </c>
@@ -7351,7 +7449,7 @@
           <t>HIP 56998</t>
         </is>
       </c>
-      <c r="AS53" t="n">
+      <c r="AS53" s="3" t="n">
         <v>1.422947157415711</v>
       </c>
       <c r="AT53" t="n">
@@ -7395,12 +7493,14 @@
       <c r="I54" t="n">
         <v>43.5</v>
       </c>
-      <c r="L54" t="n">
+      <c r="J54" s="3" t="n"/>
+      <c r="L54" s="3" t="n">
         <v>1271.3</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
+      <c r="N54" s="3" t="n"/>
       <c r="R54" t="n">
         <v>1271.3</v>
       </c>
@@ -7471,7 +7571,7 @@
           <t>GJ 504</t>
         </is>
       </c>
-      <c r="AS54" t="n">
+      <c r="AS54" s="3" t="n">
         <v>1.457061351516381</v>
       </c>
       <c r="AT54" t="n">
@@ -7518,7 +7618,9 @@
       <c r="I55" t="n">
         <v>0.49</v>
       </c>
-      <c r="N55" t="n">
+      <c r="J55" s="3" t="n"/>
+      <c r="L55" s="3" t="n"/>
+      <c r="N55" s="3" t="n">
         <v>1071.04</v>
       </c>
       <c r="O55" t="n">
@@ -7600,7 +7702,7 @@
           <t>GJ 3021</t>
         </is>
       </c>
-      <c r="AS55" t="n">
+      <c r="AS55" s="3" t="n">
         <v>1.475850900497226</v>
       </c>
       <c r="AT55" t="n">
@@ -7647,7 +7749,9 @@
       <c r="I56" t="n">
         <v>0.246</v>
       </c>
-      <c r="N56" t="n">
+      <c r="J56" s="3" t="n"/>
+      <c r="L56" s="3" t="n"/>
+      <c r="N56" s="3" t="n">
         <v>15.1</v>
       </c>
       <c r="O56" t="n">
@@ -7698,7 +7802,7 @@
           <t>HD 177565</t>
         </is>
       </c>
-      <c r="AS56" t="n">
+      <c r="AS56" s="3" t="n">
         <v>1.483369532004417</v>
       </c>
       <c r="AT56" t="n">
@@ -7745,7 +7849,9 @@
       <c r="I57" t="n">
         <v>0.134</v>
       </c>
-      <c r="N57" t="n">
+      <c r="J57" s="3" t="n"/>
+      <c r="L57" s="3" t="n"/>
+      <c r="N57" s="3" t="n">
         <v>6.6</v>
       </c>
       <c r="O57" t="n">
@@ -7821,7 +7927,7 @@
           <t>HD 154088</t>
         </is>
       </c>
-      <c r="AS57" t="n">
+      <c r="AS57" s="3" t="n">
         <v>1.513970560776934</v>
       </c>
       <c r="AT57" t="n">
@@ -7868,13 +7974,14 @@
       <c r="I58" t="n">
         <v>1.74675</v>
       </c>
-      <c r="L58" t="n">
+      <c r="J58" s="3" t="n"/>
+      <c r="L58" s="3" t="n">
         <v>1204.25787</v>
       </c>
       <c r="M58" t="n">
         <v>3.789</v>
       </c>
-      <c r="N58" t="n">
+      <c r="N58" s="3" t="n">
         <v>1018.618214</v>
       </c>
       <c r="O58" t="n">
@@ -7959,7 +8066,7 @@
           <t>HD 128311</t>
         </is>
       </c>
-      <c r="AS58" t="n">
+      <c r="AS58" s="3" t="n">
         <v>1.526415838940813</v>
       </c>
       <c r="AT58" t="n">
@@ -8006,7 +8113,9 @@
       <c r="I59" t="n">
         <v>1.0754</v>
       </c>
-      <c r="N59" t="n">
+      <c r="J59" s="3" t="n"/>
+      <c r="L59" s="3" t="n"/>
+      <c r="N59" s="3" t="n">
         <v>624.9930133333334</v>
       </c>
       <c r="O59" t="n">
@@ -8085,7 +8194,7 @@
           <t>HD 128311</t>
         </is>
       </c>
-      <c r="AS59" t="n">
+      <c r="AS59" s="3" t="n">
         <v>1.526415838940813</v>
       </c>
       <c r="AT59" t="n">
@@ -8132,7 +8241,9 @@
       <c r="I60" t="n">
         <v>0.111</v>
       </c>
-      <c r="N60" t="n">
+      <c r="J60" s="3" t="n"/>
+      <c r="L60" s="3" t="n"/>
+      <c r="N60" s="3" t="n">
         <v>8.5</v>
       </c>
       <c r="O60" t="n">
@@ -8208,7 +8319,7 @@
           <t>HD 189567</t>
         </is>
       </c>
-      <c r="AS60" t="n">
+      <c r="AS60" s="3" t="n">
         <v>1.53492575426983</v>
       </c>
       <c r="AT60" t="n">
@@ -8255,7 +8366,9 @@
       <c r="I61" t="n">
         <v>0.197</v>
       </c>
-      <c r="N61" t="n">
+      <c r="J61" s="3" t="n"/>
+      <c r="L61" s="3" t="n"/>
+      <c r="N61" s="3" t="n">
         <v>7</v>
       </c>
       <c r="O61" t="n">
@@ -8331,7 +8444,7 @@
           <t>HD 189567</t>
         </is>
       </c>
-      <c r="AS61" t="n">
+      <c r="AS61" s="3" t="n">
         <v>1.53492575426983</v>
       </c>
       <c r="AT61" t="n">
@@ -8378,13 +8491,14 @@
       <c r="I62" t="n">
         <v>3.266499999999999</v>
       </c>
-      <c r="L62" t="n">
+      <c r="J62" s="3" t="n"/>
+      <c r="L62" s="3" t="n">
         <v>4030.466625</v>
       </c>
       <c r="M62" t="n">
         <v>12.68125</v>
       </c>
-      <c r="N62" t="n">
+      <c r="N62" s="3" t="n">
         <v>3179.864881666667</v>
       </c>
       <c r="O62" t="n">
@@ -8469,7 +8583,7 @@
           <t>HD 39091</t>
         </is>
       </c>
-      <c r="AS62" t="n">
+      <c r="AS62" s="3" t="n">
         <v>1.616889990960014</v>
       </c>
       <c r="AT62" t="n">
@@ -8513,7 +8627,9 @@
       <c r="H63" t="n">
         <v>124.64</v>
       </c>
-      <c r="N63" t="n">
+      <c r="J63" s="3" t="n"/>
+      <c r="L63" s="3" t="n"/>
+      <c r="N63" s="3" t="n">
         <v>13.38</v>
       </c>
       <c r="O63" t="n">
@@ -8584,7 +8700,7 @@
           <t>HD 39091</t>
         </is>
       </c>
-      <c r="AS63" t="n">
+      <c r="AS63" s="3" t="n">
         <v>1.616889990960014</v>
       </c>
       <c r="AT63" t="n">
@@ -8631,19 +8747,19 @@
       <c r="I64" t="n">
         <v>0.06813666666666666</v>
       </c>
-      <c r="J64" t="n">
+      <c r="J64" s="3" t="n">
         <v>2.033333333333333</v>
       </c>
       <c r="K64" t="n">
         <v>0.1813333333333333</v>
       </c>
-      <c r="L64" t="n">
+      <c r="L64" s="3" t="n">
         <v>4.323333333333333</v>
       </c>
       <c r="M64" t="n">
         <v>0.01360333333333333</v>
       </c>
-      <c r="N64" t="n">
+      <c r="N64" s="3" t="n">
         <v>3.563055</v>
       </c>
       <c r="O64" t="n">
@@ -8737,7 +8853,7 @@
           <t>HD 39091</t>
         </is>
       </c>
-      <c r="AS64" t="n">
+      <c r="AS64" s="3" t="n">
         <v>1.616889990960014</v>
       </c>
       <c r="AT64" t="n">
@@ -8784,12 +8900,14 @@
       <c r="I65" t="n">
         <v>12.404</v>
       </c>
-      <c r="L65" t="n">
+      <c r="J65" s="3" t="n"/>
+      <c r="L65" s="3" t="n">
         <v>4003.68444</v>
       </c>
       <c r="M65" t="n">
         <v>12.597</v>
       </c>
+      <c r="N65" s="3" t="n"/>
       <c r="R65" t="n">
         <v>4003.68444</v>
       </c>
@@ -8835,7 +8953,7 @@
           <t>HD 149806</t>
         </is>
       </c>
-      <c r="AS65" t="n">
+      <c r="AS65" s="3" t="n">
         <v>1.651116389332407</v>
       </c>
       <c r="AT65" t="n">
@@ -8882,7 +9000,9 @@
       <c r="I66" t="n">
         <v>1.1182</v>
       </c>
-      <c r="N66" t="n">
+      <c r="J66" s="3" t="n"/>
+      <c r="L66" s="3" t="n"/>
+      <c r="N66" s="3" t="n">
         <v>402.107322</v>
       </c>
       <c r="O66" t="n">
@@ -8961,7 +9081,7 @@
           <t>HD 210277</t>
         </is>
       </c>
-      <c r="AS66" t="n">
+      <c r="AS66" s="3" t="n">
         <v>1.6525845116567</v>
       </c>
       <c r="AT66" t="n">
@@ -9005,18 +9125,19 @@
       <c r="I67" t="n">
         <v>773</v>
       </c>
-      <c r="J67" t="n">
+      <c r="J67" s="3" t="n">
         <v>11.777</v>
       </c>
       <c r="K67" t="n">
         <v>1.051</v>
       </c>
-      <c r="L67" t="n">
+      <c r="L67" s="3" t="n">
         <v>6991.57</v>
       </c>
       <c r="M67" t="n">
         <v>21.9987</v>
       </c>
+      <c r="N67" s="3" t="n"/>
       <c r="R67" t="n">
         <v>6991.57</v>
       </c>
@@ -9070,7 +9191,7 @@
           <t>HN Peg</t>
         </is>
       </c>
-      <c r="AS67" t="n">
+      <c r="AS67" s="3" t="n">
         <v>1.697410608495522</v>
       </c>
       <c r="AT67" t="n">
@@ -9112,7 +9233,9 @@
       <c r="I68" t="n">
         <v>0.091</v>
       </c>
-      <c r="N68" t="n">
+      <c r="J68" s="3" t="n"/>
+      <c r="L68" s="3" t="n"/>
+      <c r="N68" s="3" t="n">
         <v>11.44182</v>
       </c>
       <c r="O68" t="n">
@@ -9155,7 +9278,7 @@
           <t>GJ 3222</t>
         </is>
       </c>
-      <c r="AS68" t="n">
+      <c r="AS68" s="3" t="n">
         <v>1.69980665002833</v>
       </c>
       <c r="AT68" t="n">
@@ -9202,13 +9325,14 @@
       <c r="I69" t="n">
         <v>4.984999999999999</v>
       </c>
-      <c r="L69" t="n">
+      <c r="J69" s="3" t="n"/>
+      <c r="L69" s="3" t="n">
         <v>603.87397</v>
       </c>
       <c r="M69" t="n">
         <v>1.9</v>
       </c>
-      <c r="N69" t="n">
+      <c r="N69" s="3" t="n">
         <v>201.821525</v>
       </c>
       <c r="O69" t="n">
@@ -9287,7 +9411,7 @@
           <t>HD 114783</t>
         </is>
       </c>
-      <c r="AS69" t="n">
+      <c r="AS69" s="3" t="n">
         <v>1.752559583792876</v>
       </c>
       <c r="AT69" t="n">
@@ -9334,7 +9458,9 @@
       <c r="I70" t="n">
         <v>1.17325</v>
       </c>
-      <c r="N70" t="n">
+      <c r="J70" s="3" t="n"/>
+      <c r="L70" s="3" t="n"/>
+      <c r="N70" s="3" t="n">
         <v>331.086685</v>
       </c>
       <c r="O70" t="n">
@@ -9416,7 +9542,7 @@
           <t>HD 114783</t>
         </is>
       </c>
-      <c r="AS70" t="n">
+      <c r="AS70" s="3" t="n">
         <v>1.752559583792876</v>
       </c>
       <c r="AT70" t="n">
@@ -9463,19 +9589,19 @@
       <c r="I71" t="n">
         <v>0.03113666666666666</v>
       </c>
-      <c r="J71" t="n">
+      <c r="J71" s="3" t="n">
         <v>12.9752</v>
       </c>
       <c r="K71" t="n">
         <v>1.1579</v>
       </c>
-      <c r="L71" t="n">
+      <c r="L71" s="3" t="n">
         <v>362.4962744444445</v>
       </c>
       <c r="M71" t="n">
         <v>1.140555555555556</v>
       </c>
-      <c r="N71" t="n">
+      <c r="N71" s="3" t="n">
         <v>370.3766566666666</v>
       </c>
       <c r="O71" t="n">
@@ -9578,7 +9704,7 @@
           <t>HD 189733</t>
         </is>
       </c>
-      <c r="AS71" t="n">
+      <c r="AS71" s="3" t="n">
         <v>1.756279763925608</v>
       </c>
       <c r="AT71" t="n">
@@ -9625,7 +9751,9 @@
       <c r="I72" t="n">
         <v>0.075125</v>
       </c>
-      <c r="N72" t="n">
+      <c r="J72" s="3" t="n"/>
+      <c r="L72" s="3" t="n"/>
+      <c r="N72" s="3" t="n">
         <v>433.7475233333333</v>
       </c>
       <c r="O72" t="n">
@@ -9704,7 +9832,7 @@
           <t>HD 217107</t>
         </is>
       </c>
-      <c r="AS72" t="n">
+      <c r="AS72" s="3" t="n">
         <v>1.761070578430108</v>
       </c>
       <c r="AT72" t="n">
@@ -9751,7 +9879,9 @@
       <c r="I73" t="n">
         <v>5.209200000000001</v>
       </c>
-      <c r="N73" t="n">
+      <c r="J73" s="3" t="n"/>
+      <c r="L73" s="3" t="n"/>
+      <c r="N73" s="3" t="n">
         <v>1086.047471666667</v>
       </c>
       <c r="O73" t="n">
@@ -9830,7 +9960,7 @@
           <t>HD 217107</t>
         </is>
       </c>
-      <c r="AS73" t="n">
+      <c r="AS73" s="3" t="n">
         <v>1.761070578430108</v>
       </c>
       <c r="AT73" t="n">
@@ -9877,18 +10007,19 @@
       <c r="I74" t="n">
         <v>0.19235</v>
       </c>
-      <c r="J74" t="n">
+      <c r="J74" s="3" t="n">
         <v>2.866</v>
       </c>
       <c r="K74" t="n">
         <v>0.256</v>
       </c>
-      <c r="L74" t="n">
+      <c r="L74" s="3" t="n">
         <v>26.665</v>
       </c>
       <c r="M74" t="n">
         <v>0.083895</v>
       </c>
+      <c r="N74" s="3" t="n"/>
       <c r="R74" t="n">
         <v>26.665</v>
       </c>
@@ -9974,7 +10105,7 @@
           <t>GJ 143</t>
         </is>
       </c>
-      <c r="AS74" t="n">
+      <c r="AS74" s="3" t="n">
         <v>1.768355141422782</v>
       </c>
       <c r="AT74" t="n">
@@ -10021,18 +10152,19 @@
       <c r="I75" t="n">
         <v>0.06950000000000001</v>
       </c>
-      <c r="J75" t="n">
+      <c r="J75" s="3" t="n">
         <v>0.9464999999999999</v>
       </c>
       <c r="K75" t="n">
         <v>0.08449999999999999</v>
       </c>
-      <c r="L75" t="n">
+      <c r="L75" s="3" t="n">
         <v>3.7</v>
       </c>
       <c r="M75" t="n">
         <v>0.01164</v>
       </c>
+      <c r="N75" s="3" t="n"/>
       <c r="R75" t="n">
         <v>3.7</v>
       </c>
@@ -10115,7 +10247,7 @@
           <t>GJ 143</t>
         </is>
       </c>
-      <c r="AS75" t="n">
+      <c r="AS75" s="3" t="n">
         <v>1.768355141422782</v>
       </c>
       <c r="AT75" t="n">
@@ -10162,7 +10294,9 @@
       <c r="I76" t="n">
         <v>0.14</v>
       </c>
-      <c r="N76" t="n">
+      <c r="J76" s="3" t="n"/>
+      <c r="L76" s="3" t="n"/>
+      <c r="N76" s="3" t="n">
         <v>22.1</v>
       </c>
       <c r="O76" t="n">
@@ -10229,7 +10363,7 @@
           <t>HD 16417</t>
         </is>
       </c>
-      <c r="AS76" t="n">
+      <c r="AS76" s="3" t="n">
         <v>1.821561003738086</v>
       </c>
       <c r="AT76" t="n">
@@ -10276,7 +10410,9 @@
       <c r="I77" t="n">
         <v>2.1268</v>
       </c>
-      <c r="N77" t="n">
+      <c r="J77" s="3" t="n"/>
+      <c r="L77" s="3" t="n"/>
+      <c r="N77" s="3" t="n">
         <v>109.174854</v>
       </c>
       <c r="O77" t="n">
@@ -10367,7 +10503,7 @@
           <t>HD 164922</t>
         </is>
       </c>
-      <c r="AS77" t="n">
+      <c r="AS77" s="3" t="n">
         <v>1.822564961213416</v>
       </c>
       <c r="AT77" t="n">
@@ -10414,7 +10550,9 @@
       <c r="I78" t="n">
         <v>0.2292</v>
       </c>
-      <c r="N78" t="n">
+      <c r="J78" s="3" t="n"/>
+      <c r="L78" s="3" t="n"/>
+      <c r="N78" s="3" t="n">
         <v>10.52012</v>
       </c>
       <c r="O78" t="n">
@@ -10482,7 +10620,7 @@
           <t>HD 164922</t>
         </is>
       </c>
-      <c r="AS78" t="n">
+      <c r="AS78" s="3" t="n">
         <v>1.822564961213416</v>
       </c>
       <c r="AT78" t="n">
@@ -10529,7 +10667,9 @@
       <c r="I79" t="n">
         <v>0.10265</v>
       </c>
-      <c r="N79" t="n">
+      <c r="J79" s="3" t="n"/>
+      <c r="L79" s="3" t="n"/>
+      <c r="N79" s="3" t="n">
         <v>4.36782</v>
       </c>
       <c r="O79" t="n">
@@ -10609,7 +10749,7 @@
           <t>HD 164922</t>
         </is>
       </c>
-      <c r="AS79" t="n">
+      <c r="AS79" s="3" t="n">
         <v>1.822564961213416</v>
       </c>
       <c r="AT79" t="n">
@@ -10656,7 +10796,9 @@
       <c r="I80" t="n">
         <v>0.3390666666666667</v>
       </c>
-      <c r="N80" t="n">
+      <c r="J80" s="3" t="n"/>
+      <c r="L80" s="3" t="n"/>
+      <c r="N80" s="3" t="n">
         <v>13.41135333333333</v>
       </c>
       <c r="O80" t="n">
@@ -10747,7 +10889,7 @@
           <t>HD 164922</t>
         </is>
       </c>
-      <c r="AS80" t="n">
+      <c r="AS80" s="3" t="n">
         <v>1.822564961213416</v>
       </c>
       <c r="AT80" t="n">
@@ -10794,7 +10936,9 @@
       <c r="I81" t="n">
         <v>0.15079</v>
       </c>
-      <c r="N81" t="n">
+      <c r="J81" s="3" t="n"/>
+      <c r="L81" s="3" t="n"/>
+      <c r="N81" s="3" t="n">
         <v>216.59597375</v>
       </c>
       <c r="O81" t="n">
@@ -10879,7 +11023,7 @@
           <t>HD 192263</t>
         </is>
       </c>
-      <c r="AS81" t="n">
+      <c r="AS81" s="3" t="n">
         <v>1.823424975811029</v>
       </c>
       <c r="AT81" t="n">
@@ -10926,7 +11070,9 @@
       <c r="I82" t="n">
         <v>0.1175</v>
       </c>
-      <c r="N82" t="n">
+      <c r="J82" s="3" t="n"/>
+      <c r="L82" s="3" t="n"/>
+      <c r="N82" s="3" t="n">
         <v>14.9695</v>
       </c>
       <c r="O82" t="n">
@@ -11003,7 +11149,7 @@
           <t>HD 4308</t>
         </is>
       </c>
-      <c r="AS82" t="n">
+      <c r="AS82" s="3" t="n">
         <v>1.830100718028429</v>
       </c>
       <c r="AT82" t="n">
@@ -11050,13 +11196,14 @@
       <c r="I83" t="n">
         <v>0.9183333333333333</v>
       </c>
-      <c r="L83" t="n">
+      <c r="J83" s="3" t="n"/>
+      <c r="L83" s="3" t="n">
         <v>1970.53612</v>
       </c>
       <c r="M83" t="n">
         <v>6.2</v>
       </c>
-      <c r="N83" t="n">
+      <c r="N83" s="3" t="n">
         <v>708.76</v>
       </c>
       <c r="O83" t="n">
@@ -11124,7 +11271,7 @@
           <t>HR 810</t>
         </is>
       </c>
-      <c r="AS83" t="n">
+      <c r="AS83" s="3" t="n">
         <v>1.869032517936651</v>
       </c>
       <c r="AT83" t="n">
@@ -11171,13 +11318,14 @@
       <c r="I84" t="n">
         <v>6.32875</v>
       </c>
-      <c r="L84" t="n">
+      <c r="J84" s="3" t="n"/>
+      <c r="L84" s="3" t="n">
         <v>3208.47777</v>
       </c>
       <c r="M84" t="n">
         <v>10.095</v>
       </c>
-      <c r="N84" t="n">
+      <c r="N84" s="3" t="n">
         <v>3628.505713333333</v>
       </c>
       <c r="O84" t="n">
@@ -11259,7 +11407,7 @@
           <t>HD 219077</t>
         </is>
       </c>
-      <c r="AS84" t="n">
+      <c r="AS84" s="3" t="n">
         <v>1.873855062372564</v>
       </c>
       <c r="AT84" t="n">
@@ -11306,12 +11454,14 @@
       <c r="I85" t="n">
         <v>17.53</v>
       </c>
-      <c r="L85" t="n">
+      <c r="J85" s="3" t="n"/>
+      <c r="L85" s="3" t="n">
         <v>3177.64841</v>
       </c>
       <c r="M85" t="n">
         <v>9.997999999999999</v>
       </c>
+      <c r="N85" s="3" t="n"/>
       <c r="R85" t="n">
         <v>3177.64841</v>
       </c>
@@ -11357,7 +11507,7 @@
           <t>HD 18143</t>
         </is>
       </c>
-      <c r="AS85" t="n">
+      <c r="AS85" s="3" t="n">
         <v>1.874345774234808</v>
       </c>
       <c r="AT85" t="n">
@@ -11404,7 +11554,9 @@
       <c r="I86" t="n">
         <v>0.08799999999999999</v>
       </c>
-      <c r="N86" t="n">
+      <c r="J86" s="3" t="n"/>
+      <c r="L86" s="3" t="n"/>
+      <c r="N86" s="3" t="n">
         <v>10.80617</v>
       </c>
       <c r="O86" t="n">
@@ -11455,7 +11607,7 @@
           <t>HD 18143</t>
         </is>
       </c>
-      <c r="AS86" t="n">
+      <c r="AS86" s="3" t="n">
         <v>1.874345774234808</v>
       </c>
       <c r="AT86" t="n">
@@ -11502,7 +11654,9 @@
       <c r="I87" t="n">
         <v>0.975</v>
       </c>
-      <c r="N87" t="n">
+      <c r="J87" s="3" t="n"/>
+      <c r="L87" s="3" t="n"/>
+      <c r="N87" s="3" t="n">
         <v>100.11</v>
       </c>
       <c r="O87" t="n">
@@ -11584,7 +11738,7 @@
           <t>HD 113538</t>
         </is>
       </c>
-      <c r="AS87" t="n">
+      <c r="AS87" s="3" t="n">
         <v>1.876454413653537</v>
       </c>
       <c r="AT87" t="n">
@@ -11631,7 +11785,9 @@
       <c r="I88" t="n">
         <v>2.435</v>
       </c>
-      <c r="N88" t="n">
+      <c r="J88" s="3" t="n"/>
+      <c r="L88" s="3" t="n"/>
+      <c r="N88" s="3" t="n">
         <v>260.61</v>
       </c>
       <c r="O88" t="n">
@@ -11713,7 +11869,7 @@
           <t>HD 113538</t>
         </is>
       </c>
-      <c r="AS88" t="n">
+      <c r="AS88" s="3" t="n">
         <v>1.876454413653537</v>
       </c>
       <c r="AT88" t="n">
@@ -11760,7 +11916,9 @@
       <c r="I89" t="n">
         <v>0.051</v>
       </c>
-      <c r="N89" t="n">
+      <c r="J89" s="3" t="n"/>
+      <c r="L89" s="3" t="n"/>
+      <c r="N89" s="3" t="n">
         <v>5.57</v>
       </c>
       <c r="O89" t="n">
@@ -11837,7 +11995,7 @@
           <t>HD 22496</t>
         </is>
       </c>
-      <c r="AS89" t="n">
+      <c r="AS89" s="3" t="n">
         <v>1.897488308356445</v>
       </c>
       <c r="AT89" t="n">
@@ -11884,7 +12042,9 @@
       <c r="I90" t="n">
         <v>0.26475</v>
       </c>
-      <c r="N90" t="n">
+      <c r="J90" s="3" t="n"/>
+      <c r="L90" s="3" t="n"/>
+      <c r="N90" s="3" t="n">
         <v>59.1142425</v>
       </c>
       <c r="O90" t="n">
@@ -11966,7 +12126,7 @@
           <t>HD 104067</t>
         </is>
       </c>
-      <c r="AS90" t="n">
+      <c r="AS90" s="3" t="n">
         <v>1.909890670031086</v>
       </c>
       <c r="AT90" t="n">
@@ -12013,7 +12173,9 @@
       <c r="I91" t="n">
         <v>0.1058</v>
       </c>
-      <c r="N91" t="n">
+      <c r="J91" s="3" t="n"/>
+      <c r="L91" s="3" t="n"/>
+      <c r="N91" s="3" t="n">
         <v>13.2</v>
       </c>
       <c r="O91" t="n">
@@ -12087,7 +12249,7 @@
           <t>HD 104067</t>
         </is>
       </c>
-      <c r="AS91" t="n">
+      <c r="AS91" s="3" t="n">
         <v>1.909890670031086</v>
       </c>
       <c r="AT91" t="n">
@@ -12134,7 +12296,9 @@
       <c r="I92" t="n">
         <v>0.1119</v>
       </c>
-      <c r="N92" t="n">
+      <c r="J92" s="3" t="n"/>
+      <c r="L92" s="3" t="n"/>
+      <c r="N92" s="3" t="n">
         <v>6.322895</v>
       </c>
       <c r="O92" t="n">
@@ -12207,7 +12371,7 @@
           <t>HD 1461</t>
         </is>
       </c>
-      <c r="AS92" t="n">
+      <c r="AS92" s="3" t="n">
         <v>1.93407999694592</v>
       </c>
       <c r="AT92" t="n">
@@ -12254,7 +12418,9 @@
       <c r="I93" t="n">
         <v>0.06347933333333333</v>
       </c>
-      <c r="N93" t="n">
+      <c r="J93" s="3" t="n"/>
+      <c r="L93" s="3" t="n"/>
+      <c r="N93" s="3" t="n">
         <v>7.1877075</v>
       </c>
       <c r="O93" t="n">
@@ -12336,7 +12502,7 @@
           <t>HD 1461</t>
         </is>
       </c>
-      <c r="AS93" t="n">
+      <c r="AS93" s="3" t="n">
         <v>1.93407999694592</v>
       </c>
       <c r="AT93" t="n">
@@ -12383,13 +12549,14 @@
       <c r="I94" t="n">
         <v>2.3135</v>
       </c>
-      <c r="L94" t="n">
+      <c r="J94" s="3" t="n"/>
+      <c r="L94" s="3" t="n">
         <v>467.20776</v>
       </c>
       <c r="M94" t="n">
         <v>1.47</v>
       </c>
-      <c r="N94" t="n">
+      <c r="N94" s="3" t="n">
         <v>411.8230575</v>
       </c>
       <c r="O94" t="n">
@@ -12471,7 +12638,7 @@
           <t>HD 30562</t>
         </is>
       </c>
-      <c r="AS94" t="n">
+      <c r="AS94" s="3" t="n">
         <v>1.937855632910306</v>
       </c>
       <c r="AT94" t="n">
@@ -12518,19 +12685,19 @@
       <c r="I95" t="n">
         <v>0.08080000000000001</v>
       </c>
-      <c r="J95" t="n">
+      <c r="J95" s="3" t="n">
         <v>2.2984</v>
       </c>
       <c r="K95" t="n">
         <v>0.205</v>
       </c>
-      <c r="L95" t="n">
+      <c r="L95" s="3" t="n">
         <v>8.1481575</v>
       </c>
       <c r="M95" t="n">
         <v>0.0256975</v>
       </c>
-      <c r="N95" t="n">
+      <c r="N95" s="3" t="n">
         <v>8.043397499999999</v>
       </c>
       <c r="O95" t="n">
@@ -12630,7 +12797,7 @@
           <t>HD 97658</t>
         </is>
       </c>
-      <c r="AS95" t="n">
+      <c r="AS95" s="3" t="n">
         <v>1.953747416139957</v>
       </c>
       <c r="AT95" t="n">
@@ -12677,7 +12844,9 @@
       <c r="I96" t="n">
         <v>0.10975</v>
       </c>
-      <c r="N96" t="n">
+      <c r="J96" s="3" t="n"/>
+      <c r="L96" s="3" t="n"/>
+      <c r="N96" s="3" t="n">
         <v>9.871649999999999</v>
       </c>
       <c r="O96" t="n">
@@ -12759,7 +12928,7 @@
           <t>HD 45184</t>
         </is>
       </c>
-      <c r="AS96" t="n">
+      <c r="AS96" s="3" t="n">
         <v>1.958503786782426</v>
       </c>
       <c r="AT96" t="n">
@@ -12806,7 +12975,9 @@
       <c r="I97" t="n">
         <v>0.06425</v>
       </c>
-      <c r="N97" t="n">
+      <c r="J97" s="3" t="n"/>
+      <c r="L97" s="3" t="n"/>
+      <c r="N97" s="3" t="n">
         <v>12.054285</v>
       </c>
       <c r="O97" t="n">
@@ -12888,7 +13059,7 @@
           <t>HD 45184</t>
         </is>
       </c>
-      <c r="AS97" t="n">
+      <c r="AS97" s="3" t="n">
         <v>1.958503786782426</v>
       </c>
       <c r="AT97" t="n">
@@ -12935,7 +13106,9 @@
       <c r="I98" t="n">
         <v>0.143</v>
       </c>
-      <c r="N98" t="n">
+      <c r="J98" s="3" t="n"/>
+      <c r="L98" s="3" t="n"/>
+      <c r="N98" s="3" t="n">
         <v>13</v>
       </c>
       <c r="O98" t="n">
@@ -12994,7 +13167,7 @@
           <t>HD 211970</t>
         </is>
       </c>
-      <c r="AS98" t="n">
+      <c r="AS98" s="3" t="n">
         <v>1.959713638100389</v>
       </c>
       <c r="AT98" t="n">
@@ -13041,13 +13214,14 @@
       <c r="I99" t="n">
         <v>2.4576</v>
       </c>
-      <c r="L99" t="n">
+      <c r="J99" s="3" t="n"/>
+      <c r="L99" s="3" t="n">
         <v>1284.026765</v>
       </c>
       <c r="M99" t="n">
         <v>4.04</v>
       </c>
-      <c r="N99" t="n">
+      <c r="N99" s="3" t="n">
         <v>665.2967599999999</v>
       </c>
       <c r="O99" t="n">
@@ -13132,7 +13306,7 @@
           <t>HD 216437</t>
         </is>
       </c>
-      <c r="AS99" t="n">
+      <c r="AS99" s="3" t="n">
         <v>1.969230665433148</v>
       </c>
       <c r="AT99" t="n">
@@ -13179,7 +13353,9 @@
       <c r="I100" t="n">
         <v>0.25045</v>
       </c>
-      <c r="N100" t="n">
+      <c r="J100" s="3" t="n"/>
+      <c r="L100" s="3" t="n"/>
+      <c r="N100" s="3" t="n">
         <v>14.885715</v>
       </c>
       <c r="O100" t="n">
@@ -13253,7 +13429,7 @@
           <t>HD 90156</t>
         </is>
       </c>
-      <c r="AS100" t="n">
+      <c r="AS100" s="3" t="n">
         <v>1.987398611533797</v>
       </c>
       <c r="AT100" t="n">
@@ -13300,7 +13476,9 @@
       <c r="I101" t="n">
         <v>6.21</v>
       </c>
-      <c r="N101" t="n">
+      <c r="J101" s="3" t="n"/>
+      <c r="L101" s="3" t="n"/>
+      <c r="N101" s="3" t="n">
         <v>278.58478</v>
       </c>
       <c r="O101" t="n">
@@ -13379,7 +13557,7 @@
           <t>HD 134987</t>
         </is>
       </c>
-      <c r="AS101" t="n">
+      <c r="AS101" s="3" t="n">
         <v>2.003207219792867</v>
       </c>
       <c r="AT101" t="n">
@@ -13426,7 +13604,9 @@
       <c r="I102" t="n">
         <v>0.8155999999999999</v>
       </c>
-      <c r="N102" t="n">
+      <c r="J102" s="3" t="n"/>
+      <c r="L102" s="3" t="n"/>
+      <c r="N102" s="3" t="n">
         <v>513.164506</v>
       </c>
       <c r="O102" t="n">
@@ -13508,7 +13688,7 @@
           <t>HD 134987</t>
         </is>
       </c>
-      <c r="AS102" t="n">
+      <c r="AS102" s="3" t="n">
         <v>2.003207219792867</v>
       </c>
       <c r="AT102" t="n">
@@ -13547,18 +13727,19 @@
       <c r="I103" t="n">
         <v>1100</v>
       </c>
-      <c r="J103" t="n">
+      <c r="J103" s="3" t="n">
         <v>14.011</v>
       </c>
       <c r="K103" t="n">
         <v>1.25</v>
       </c>
-      <c r="L103" t="n">
+      <c r="L103" s="3" t="n">
         <v>1906.98</v>
       </c>
       <c r="M103" t="n">
         <v>6</v>
       </c>
+      <c r="N103" s="3" t="n"/>
       <c r="R103" t="n">
         <v>1906.98</v>
       </c>
@@ -13601,7 +13782,7 @@
           <t>Ross 458</t>
         </is>
       </c>
-      <c r="AS103" t="n">
+      <c r="AS103" s="3" t="n">
         <v>2.011230310678714</v>
       </c>
       <c r="AT103" t="n">
@@ -13648,7 +13829,9 @@
       <c r="I104" t="n">
         <v>0.057638</v>
       </c>
-      <c r="N104" t="n">
+      <c r="J104" s="3" t="n"/>
+      <c r="L104" s="3" t="n"/>
+      <c r="N104" s="3" t="n">
         <v>1.819</v>
       </c>
       <c r="O104" t="n">
@@ -13727,7 +13910,7 @@
           <t>HD 215152</t>
         </is>
       </c>
-      <c r="AS104" t="n">
+      <c r="AS104" s="3" t="n">
         <v>2.021412692712057</v>
       </c>
       <c r="AT104" t="n">
@@ -13774,7 +13957,9 @@
       <c r="I105" t="n">
         <v>0.06739299999999999</v>
       </c>
-      <c r="N105" t="n">
+      <c r="J105" s="3" t="n"/>
+      <c r="L105" s="3" t="n"/>
+      <c r="N105" s="3" t="n">
         <v>1.72</v>
       </c>
       <c r="O105" t="n">
@@ -13853,7 +14038,7 @@
           <t>HD 215152</t>
         </is>
       </c>
-      <c r="AS105" t="n">
+      <c r="AS105" s="3" t="n">
         <v>2.021412692712057</v>
       </c>
       <c r="AT105" t="n">
@@ -13900,7 +14085,9 @@
       <c r="I106" t="n">
         <v>0.15417</v>
       </c>
-      <c r="N106" t="n">
+      <c r="J106" s="3" t="n"/>
+      <c r="L106" s="3" t="n"/>
+      <c r="N106" s="3" t="n">
         <v>2.877</v>
       </c>
       <c r="O106" t="n">
@@ -13979,7 +14166,7 @@
           <t>HD 215152</t>
         </is>
       </c>
-      <c r="AS106" t="n">
+      <c r="AS106" s="3" t="n">
         <v>2.021412692712057</v>
       </c>
       <c r="AT106" t="n">
@@ -14026,7 +14213,9 @@
       <c r="I107" t="n">
         <v>0.08799</v>
       </c>
-      <c r="N107" t="n">
+      <c r="J107" s="3" t="n"/>
+      <c r="L107" s="3" t="n"/>
+      <c r="N107" s="3" t="n">
         <v>2.801</v>
       </c>
       <c r="O107" t="n">
@@ -14105,7 +14294,7 @@
           <t>HD 215152</t>
         </is>
       </c>
-      <c r="AS107" t="n">
+      <c r="AS107" s="3" t="n">
         <v>2.021412692712057</v>
       </c>
       <c r="AT107" t="n">
@@ -14152,12 +14341,14 @@
       <c r="I108" t="n">
         <v>0.0503</v>
       </c>
-      <c r="J108" t="n">
+      <c r="J108" s="3" t="n">
         <v>1.073</v>
       </c>
       <c r="K108" t="n">
         <v>0.096</v>
       </c>
+      <c r="L108" s="3" t="n"/>
+      <c r="N108" s="3" t="n"/>
       <c r="U108" t="n">
         <v>0.16</v>
       </c>
@@ -14237,7 +14428,7 @@
           <t>HD 63433</t>
         </is>
       </c>
-      <c r="AS108" t="n">
+      <c r="AS108" s="3" t="n">
         <v>2.060089842471463</v>
       </c>
       <c r="AT108" t="n">
@@ -14284,18 +14475,19 @@
       <c r="I109" t="n">
         <v>0.1455333333333333</v>
       </c>
-      <c r="J109" t="n">
+      <c r="J109" s="3" t="n">
         <v>2.6112</v>
       </c>
       <c r="K109" t="n">
         <v>0.233</v>
       </c>
-      <c r="L109" t="n">
+      <c r="L109" s="3" t="n">
         <v>17.2</v>
       </c>
       <c r="M109" t="n">
         <v>0.05412</v>
       </c>
+      <c r="N109" s="3" t="n"/>
       <c r="R109" t="n">
         <v>17.2</v>
       </c>
@@ -14387,7 +14579,7 @@
           <t>HD 63433</t>
         </is>
       </c>
-      <c r="AS109" t="n">
+      <c r="AS109" s="3" t="n">
         <v>2.060089842471463</v>
       </c>
       <c r="AT109" t="n">
@@ -14434,18 +14626,19 @@
       <c r="I110" t="n">
         <v>0.07176666666666666</v>
       </c>
-      <c r="J110" t="n">
+      <c r="J110" s="3" t="n">
         <v>2.1785</v>
       </c>
       <c r="K110" t="n">
         <v>0.19425</v>
       </c>
-      <c r="L110" t="n">
+      <c r="L110" s="3" t="n">
         <v>37.3</v>
       </c>
       <c r="M110" t="n">
         <v>0.11736</v>
       </c>
+      <c r="N110" s="3" t="n"/>
       <c r="R110" t="n">
         <v>37.3</v>
       </c>
@@ -14537,7 +14730,7 @@
           <t>HD 63433</t>
         </is>
       </c>
-      <c r="AS110" t="n">
+      <c r="AS110" s="3" t="n">
         <v>2.060089842471463</v>
       </c>
       <c r="AT110" t="n">
@@ -14584,7 +14777,9 @@
       <c r="I111" t="n">
         <v>0.1784</v>
       </c>
-      <c r="N111" t="n">
+      <c r="J111" s="3" t="n"/>
+      <c r="L111" s="3" t="n"/>
+      <c r="N111" s="3" t="n">
         <v>5.63</v>
       </c>
       <c r="O111" t="n">
@@ -14664,7 +14859,7 @@
           <t>HD 134606</t>
         </is>
       </c>
-      <c r="AS111" t="n">
+      <c r="AS111" s="3" t="n">
         <v>2.063325144953548</v>
       </c>
       <c r="AT111" t="n">
@@ -14711,7 +14906,9 @@
       <c r="I112" t="n">
         <v>1.941</v>
       </c>
-      <c r="N112" t="n">
+      <c r="J112" s="3" t="n"/>
+      <c r="L112" s="3" t="n"/>
+      <c r="N112" s="3" t="n">
         <v>44.8</v>
       </c>
       <c r="O112" t="n">
@@ -14791,7 +14988,7 @@
           <t>HD 134606</t>
         </is>
       </c>
-      <c r="AS112" t="n">
+      <c r="AS112" s="3" t="n">
         <v>2.063325144953548</v>
       </c>
       <c r="AT112" t="n">
@@ -14838,7 +15035,9 @@
       <c r="I113" t="n">
         <v>0.3007</v>
       </c>
-      <c r="N113" t="n">
+      <c r="J113" s="3" t="n"/>
+      <c r="L113" s="3" t="n"/>
+      <c r="N113" s="3" t="n">
         <v>11.31</v>
       </c>
       <c r="O113" t="n">
@@ -14918,7 +15117,7 @@
           <t>HD 134606</t>
         </is>
       </c>
-      <c r="AS113" t="n">
+      <c r="AS113" s="3" t="n">
         <v>2.063325144953548</v>
       </c>
       <c r="AT113" t="n">
@@ -14965,7 +15164,9 @@
       <c r="I114" t="n">
         <v>0.1046</v>
       </c>
-      <c r="N114" t="n">
+      <c r="J114" s="3" t="n"/>
+      <c r="L114" s="3" t="n"/>
+      <c r="N114" s="3" t="n">
         <v>9.09</v>
       </c>
       <c r="O114" t="n">
@@ -15045,7 +15246,7 @@
           <t>HD 134606</t>
         </is>
       </c>
-      <c r="AS114" t="n">
+      <c r="AS114" s="3" t="n">
         <v>2.063325144953548</v>
       </c>
       <c r="AT114" t="n">
@@ -15092,7 +15293,9 @@
       <c r="I115" t="n">
         <v>0.0527</v>
       </c>
-      <c r="N115" t="n">
+      <c r="J115" s="3" t="n"/>
+      <c r="L115" s="3" t="n"/>
+      <c r="N115" s="3" t="n">
         <v>2.34</v>
       </c>
       <c r="O115" t="n">
@@ -15172,7 +15375,7 @@
           <t>HD 134606</t>
         </is>
       </c>
-      <c r="AS115" t="n">
+      <c r="AS115" s="3" t="n">
         <v>2.063325144953548</v>
       </c>
       <c r="AT115" t="n">
@@ -15219,7 +15422,9 @@
       <c r="I116" t="n">
         <v>2.3928</v>
       </c>
-      <c r="N116" t="n">
+      <c r="J116" s="3" t="n"/>
+      <c r="L116" s="3" t="n"/>
+      <c r="N116" s="3" t="n">
         <v>29.29</v>
       </c>
       <c r="O116" t="n">
@@ -15298,7 +15503,7 @@
           <t>HD 134060</t>
         </is>
       </c>
-      <c r="AS116" t="n">
+      <c r="AS116" s="3" t="n">
         <v>2.068664079562855</v>
       </c>
       <c r="AT116" t="n">
@@ -15345,7 +15550,9 @@
       <c r="I117" t="n">
         <v>0.0444</v>
       </c>
-      <c r="N117" t="n">
+      <c r="J117" s="3" t="n"/>
+      <c r="L117" s="3" t="n"/>
+      <c r="N117" s="3" t="n">
         <v>10.1</v>
       </c>
       <c r="O117" t="n">
@@ -15424,7 +15631,7 @@
           <t>HD 134060</t>
         </is>
       </c>
-      <c r="AS117" t="n">
+      <c r="AS117" s="3" t="n">
         <v>2.068664079562855</v>
       </c>
       <c r="AT117" t="n">
@@ -15458,12 +15665,14 @@
       <c r="H118" t="n">
         <v>15.33975325</v>
       </c>
-      <c r="J118" t="n">
+      <c r="J118" s="3" t="n">
         <v>1.8445</v>
       </c>
       <c r="K118" t="n">
         <v>0.1645</v>
       </c>
+      <c r="L118" s="3" t="n"/>
+      <c r="N118" s="3" t="n"/>
       <c r="V118" t="n">
         <v>14.25</v>
       </c>
@@ -15523,7 +15732,7 @@
           <t>TOI-2194</t>
         </is>
       </c>
-      <c r="AS118" t="n">
+      <c r="AS118" s="3" t="n">
         <v>2.086618763444284</v>
       </c>
       <c r="AT118" t="n">
@@ -15565,13 +15774,14 @@
       <c r="I119" t="n">
         <v>1.7974</v>
       </c>
-      <c r="L119" t="n">
+      <c r="J119" s="3" t="n"/>
+      <c r="L119" s="3" t="n">
         <v>1985.161565</v>
       </c>
       <c r="M119" t="n">
         <v>6.246</v>
       </c>
-      <c r="N119" t="n">
+      <c r="N119" s="3" t="n">
         <v>1552.0067975</v>
       </c>
       <c r="O119" t="n">
@@ -15653,7 +15863,7 @@
           <t>GJ 676 A</t>
         </is>
       </c>
-      <c r="AS119" t="n">
+      <c r="AS119" s="3" t="n">
         <v>2.09954354479015</v>
       </c>
       <c r="AT119" t="n">
@@ -15695,7 +15905,9 @@
       <c r="I120" t="n">
         <v>0.04015000000000001</v>
       </c>
-      <c r="N120" t="n">
+      <c r="J120" s="3" t="n"/>
+      <c r="L120" s="3" t="n"/>
+      <c r="N120" s="3" t="n">
         <v>4.204646666666667</v>
       </c>
       <c r="O120" t="n">
@@ -15759,7 +15971,7 @@
           <t>GJ 676 A</t>
         </is>
       </c>
-      <c r="AS120" t="n">
+      <c r="AS120" s="3" t="n">
         <v>2.09954354479015</v>
       </c>
       <c r="AT120" t="n">
@@ -15801,13 +16013,14 @@
       <c r="I121" t="n">
         <v>8.163</v>
       </c>
-      <c r="L121" t="n">
+      <c r="J121" s="3" t="n"/>
+      <c r="L121" s="3" t="n">
         <v>4288.14087</v>
       </c>
       <c r="M121" t="n">
         <v>13.492</v>
       </c>
-      <c r="N121" t="n">
+      <c r="N121" s="3" t="n">
         <v>2161.244</v>
       </c>
       <c r="O121" t="n">
@@ -15858,7 +16071,7 @@
           <t>GJ 676 A</t>
         </is>
       </c>
-      <c r="AS121" t="n">
+      <c r="AS121" s="3" t="n">
         <v>2.09954354479015</v>
       </c>
       <c r="AT121" t="n">
@@ -15900,7 +16113,9 @@
       <c r="I122" t="n">
         <v>0.184</v>
       </c>
-      <c r="N122" t="n">
+      <c r="J122" s="3" t="n"/>
+      <c r="L122" s="3" t="n"/>
+      <c r="N122" s="3" t="n">
         <v>8.758133333333333</v>
       </c>
       <c r="O122" t="n">
@@ -15964,7 +16179,7 @@
           <t>GJ 676 A</t>
         </is>
       </c>
-      <c r="AS122" t="n">
+      <c r="AS122" s="3" t="n">
         <v>2.09954354479015</v>
       </c>
       <c r="AT122" t="n">
@@ -16011,13 +16226,14 @@
       <c r="I123" t="n">
         <v>11.4276</v>
       </c>
-      <c r="L123" t="n">
+      <c r="J123" s="3" t="n"/>
+      <c r="L123" s="3" t="n">
         <v>6821.3921825</v>
       </c>
       <c r="M123" t="n">
         <v>21.4625</v>
       </c>
-      <c r="N123" t="n">
+      <c r="N123" s="3" t="n">
         <v>2356.173073333333</v>
       </c>
       <c r="O123" t="n">
@@ -16099,7 +16315,7 @@
           <t>HD 221420</t>
         </is>
       </c>
-      <c r="AS123" t="n">
+      <c r="AS123" s="3" t="n">
         <v>2.112057485173065</v>
       </c>
       <c r="AT123" t="n">
@@ -16146,7 +16362,9 @@
       <c r="I124" t="n">
         <v>3.228333333333333</v>
       </c>
-      <c r="N124" t="n">
+      <c r="J124" s="3" t="n"/>
+      <c r="L124" s="3" t="n"/>
+      <c r="N124" s="3" t="n">
         <v>194.4361525</v>
       </c>
       <c r="O124" t="n">
@@ -16223,7 +16441,7 @@
           <t>HD 11964</t>
         </is>
       </c>
-      <c r="AS124" t="n">
+      <c r="AS124" s="3" t="n">
         <v>2.158192253811975</v>
       </c>
       <c r="AT124" t="n">
@@ -16270,7 +16488,9 @@
       <c r="I125" t="n">
         <v>0.23025</v>
       </c>
-      <c r="N125" t="n">
+      <c r="J125" s="3" t="n"/>
+      <c r="L125" s="3" t="n"/>
+      <c r="N125" s="3" t="n">
         <v>24.67283</v>
       </c>
       <c r="O125" t="n">
@@ -16344,7 +16564,7 @@
           <t>HD 11964</t>
         </is>
       </c>
-      <c r="AS125" t="n">
+      <c r="AS125" s="3" t="n">
         <v>2.158192253811975</v>
       </c>
       <c r="AT125" t="n">
@@ -16391,7 +16611,9 @@
       <c r="I126" t="n">
         <v>0.07770000000000001</v>
       </c>
-      <c r="N126" t="n">
+      <c r="J126" s="3" t="n"/>
+      <c r="L126" s="3" t="n"/>
+      <c r="N126" s="3" t="n">
         <v>8.9</v>
       </c>
       <c r="O126" t="n">
@@ -16467,7 +16689,7 @@
           <t>HD 96700</t>
         </is>
       </c>
-      <c r="AS126" t="n">
+      <c r="AS126" s="3" t="n">
         <v>2.177070834659286</v>
       </c>
       <c r="AT126" t="n">
@@ -16514,7 +16736,9 @@
       <c r="I127" t="n">
         <v>0.141</v>
       </c>
-      <c r="N127" t="n">
+      <c r="J127" s="3" t="n"/>
+      <c r="L127" s="3" t="n"/>
+      <c r="N127" s="3" t="n">
         <v>3.5</v>
       </c>
       <c r="O127" t="n">
@@ -16590,7 +16814,7 @@
           <t>HD 96700</t>
         </is>
       </c>
-      <c r="AS127" t="n">
+      <c r="AS127" s="3" t="n">
         <v>2.177070834659286</v>
       </c>
       <c r="AT127" t="n">
@@ -16637,7 +16861,9 @@
       <c r="I128" t="n">
         <v>0.424</v>
       </c>
-      <c r="N128" t="n">
+      <c r="J128" s="3" t="n"/>
+      <c r="L128" s="3" t="n"/>
+      <c r="N128" s="3" t="n">
         <v>12.7</v>
       </c>
       <c r="O128" t="n">
@@ -16713,7 +16939,7 @@
           <t>HD 96700</t>
         </is>
       </c>
-      <c r="AS128" t="n">
+      <c r="AS128" s="3" t="n">
         <v>2.177070834659286</v>
       </c>
       <c r="AT128" t="n">
@@ -16760,7 +16986,9 @@
       <c r="I129" t="n">
         <v>0.5438499999999999</v>
       </c>
-      <c r="N129" t="n">
+      <c r="J129" s="3" t="n"/>
+      <c r="L129" s="3" t="n"/>
+      <c r="N129" s="3" t="n">
         <v>14.7961</v>
       </c>
       <c r="O129" t="n">
@@ -16845,7 +17073,7 @@
           <t>HD 42618</t>
         </is>
       </c>
-      <c r="AS129" t="n">
+      <c r="AS129" s="3" t="n">
         <v>2.189752639330482</v>
       </c>
       <c r="AT129" t="n">
@@ -16892,13 +17120,14 @@
       <c r="I130" t="n">
         <v>2.130166666666667</v>
       </c>
-      <c r="L130" t="n">
+      <c r="J130" s="3" t="n"/>
+      <c r="L130" s="3" t="n">
         <v>1988.49343</v>
       </c>
       <c r="M130" t="n">
         <v>6.2565</v>
       </c>
-      <c r="N130" t="n">
+      <c r="N130" s="3" t="n">
         <v>2014.565246</v>
       </c>
       <c r="O130" t="n">
@@ -16980,7 +17209,7 @@
           <t>HD 10697</t>
         </is>
       </c>
-      <c r="AS130" t="n">
+      <c r="AS130" s="3" t="n">
         <v>2.208995425808449</v>
       </c>
       <c r="AT130" t="n">
@@ -17027,7 +17256,9 @@
       <c r="I131" t="n">
         <v>0.103</v>
       </c>
-      <c r="N131" t="n">
+      <c r="J131" s="3" t="n"/>
+      <c r="L131" s="3" t="n"/>
+      <c r="N131" s="3" t="n">
         <v>6.3</v>
       </c>
       <c r="O131" t="n">
@@ -17103,7 +17334,7 @@
           <t>HD 39194</t>
         </is>
       </c>
-      <c r="AS131" t="n">
+      <c r="AS131" s="3" t="n">
         <v>2.212012587214905</v>
       </c>
       <c r="AT131" t="n">
@@ -17150,7 +17381,9 @@
       <c r="I132" t="n">
         <v>0.056</v>
       </c>
-      <c r="N132" t="n">
+      <c r="J132" s="3" t="n"/>
+      <c r="L132" s="3" t="n"/>
+      <c r="N132" s="3" t="n">
         <v>4</v>
       </c>
       <c r="O132" t="n">
@@ -17226,7 +17459,7 @@
           <t>HD 39194</t>
         </is>
       </c>
-      <c r="AS132" t="n">
+      <c r="AS132" s="3" t="n">
         <v>2.212012587214905</v>
       </c>
       <c r="AT132" t="n">
@@ -17273,7 +17506,9 @@
       <c r="I133" t="n">
         <v>0.185</v>
       </c>
-      <c r="N133" t="n">
+      <c r="J133" s="3" t="n"/>
+      <c r="L133" s="3" t="n"/>
+      <c r="N133" s="3" t="n">
         <v>4</v>
       </c>
       <c r="O133" t="n">
@@ -17349,7 +17584,7 @@
           <t>HD 39194</t>
         </is>
       </c>
-      <c r="AS133" t="n">
+      <c r="AS133" s="3" t="n">
         <v>2.212012587214905</v>
       </c>
       <c r="AT133" t="n">
@@ -17396,7 +17631,9 @@
       <c r="I134" t="n">
         <v>0.041</v>
       </c>
-      <c r="N134" t="n">
+      <c r="J134" s="3" t="n"/>
+      <c r="L134" s="3" t="n"/>
+      <c r="N134" s="3" t="n">
         <v>8.5</v>
       </c>
       <c r="O134" t="n">
@@ -17455,7 +17692,7 @@
           <t>HD 39855</t>
         </is>
       </c>
-      <c r="AS134" t="n">
+      <c r="AS134" s="3" t="n">
         <v>2.214352246546073</v>
       </c>
       <c r="AT134" t="n">
@@ -17502,18 +17739,19 @@
       <c r="I135" t="n">
         <v>0.0629</v>
       </c>
-      <c r="J135" t="n">
+      <c r="J135" s="3" t="n">
         <v>2.407</v>
       </c>
       <c r="K135" t="n">
         <v>0.215</v>
       </c>
-      <c r="L135" t="n">
+      <c r="L135" s="3" t="n">
         <v>6.1</v>
       </c>
       <c r="M135" t="n">
         <v>0.01919</v>
       </c>
+      <c r="N135" s="3" t="n"/>
       <c r="R135" t="n">
         <v>6.1</v>
       </c>
@@ -17599,7 +17837,7 @@
           <t>HD 207496</t>
         </is>
       </c>
-      <c r="AS135" t="n">
+      <c r="AS135" s="3" t="n">
         <v>2.231973848418512</v>
       </c>
       <c r="AT135" t="n">
@@ -17646,7 +17884,9 @@
       <c r="I136" t="n">
         <v>2.0225</v>
       </c>
-      <c r="N136" t="n">
+      <c r="J136" s="3" t="n"/>
+      <c r="L136" s="3" t="n"/>
+      <c r="N136" s="3" t="n">
         <v>297.16</v>
       </c>
       <c r="O136" t="n">
@@ -17728,7 +17968,7 @@
           <t>HD 10647</t>
         </is>
       </c>
-      <c r="AS136" t="n">
+      <c r="AS136" s="3" t="n">
         <v>2.237615112796343</v>
       </c>
       <c r="AT136" t="n">
@@ -17775,7 +18015,9 @@
       <c r="I137" t="n">
         <v>0.87</v>
       </c>
-      <c r="N137" t="n">
+      <c r="J137" s="3" t="n"/>
+      <c r="L137" s="3" t="n"/>
+      <c r="N137" s="3" t="n">
         <v>282.8687</v>
       </c>
       <c r="O137" t="n">
@@ -17854,7 +18096,7 @@
           <t>HD 128356</t>
         </is>
       </c>
-      <c r="AS137" t="n">
+      <c r="AS137" s="3" t="n">
         <v>2.296461112574854</v>
       </c>
       <c r="AT137" t="n">
@@ -17901,7 +18143,9 @@
       <c r="I138" t="n">
         <v>0.426</v>
       </c>
-      <c r="N138" t="n">
+      <c r="J138" s="3" t="n"/>
+      <c r="L138" s="3" t="n"/>
+      <c r="N138" s="3" t="n">
         <v>43.22466</v>
       </c>
       <c r="O138" t="n">
@@ -17952,7 +18196,7 @@
           <t>HD 199509</t>
         </is>
       </c>
-      <c r="AS138" t="n">
+      <c r="AS138" s="3" t="n">
         <v>2.323965969221767</v>
       </c>
       <c r="AT138" t="n">
@@ -17999,7 +18243,9 @@
       <c r="I139" t="n">
         <v>1.57</v>
       </c>
-      <c r="N139" t="n">
+      <c r="J139" s="3" t="n"/>
+      <c r="L139" s="3" t="n"/>
+      <c r="N139" s="3" t="n">
         <v>31.4968</v>
       </c>
       <c r="O139" t="n">
@@ -18067,7 +18313,7 @@
           <t>HD 156668</t>
         </is>
       </c>
-      <c r="AS139" t="n">
+      <c r="AS139" s="3" t="n">
         <v>2.339256280974456</v>
       </c>
       <c r="AT139" t="n">
@@ -18114,7 +18360,9 @@
       <c r="I140" t="n">
         <v>0.05012</v>
       </c>
-      <c r="N140" t="n">
+      <c r="J140" s="3" t="n"/>
+      <c r="L140" s="3" t="n"/>
+      <c r="N140" s="3" t="n">
         <v>4.440563333333333</v>
       </c>
       <c r="O140" t="n">
@@ -18194,7 +18442,7 @@
           <t>HD 156668</t>
         </is>
       </c>
-      <c r="AS140" t="n">
+      <c r="AS140" s="3" t="n">
         <v>2.339256280974456</v>
       </c>
       <c r="AT140" t="n">
@@ -18241,12 +18489,14 @@
       <c r="I141" t="n">
         <v>8.563333333333334</v>
       </c>
-      <c r="L141" t="n">
+      <c r="J141" s="3" t="n"/>
+      <c r="L141" s="3" t="n">
         <v>1349.393473333333</v>
       </c>
       <c r="M141" t="n">
         <v>4.245666666666668</v>
       </c>
+      <c r="N141" s="3" t="n"/>
       <c r="R141" t="n">
         <v>1349.393473333333</v>
       </c>
@@ -18326,7 +18576,7 @@
           <t>AF Lep</t>
         </is>
       </c>
-      <c r="AS141" t="n">
+      <c r="AS141" s="3" t="n">
         <v>2.341053990822453</v>
       </c>
       <c r="AT141" t="n">
@@ -18363,18 +18613,19 @@
       <c r="I142" t="n">
         <v>0.09265</v>
       </c>
-      <c r="J142" t="n">
+      <c r="J142" s="3" t="n">
         <v>1.722333333333333</v>
       </c>
       <c r="K142" t="n">
         <v>0.1536666666666666</v>
       </c>
-      <c r="L142" t="n">
+      <c r="L142" s="3" t="n">
         <v>3.765</v>
       </c>
       <c r="M142" t="n">
         <v>0.011845</v>
       </c>
+      <c r="N142" s="3" t="n"/>
       <c r="R142" t="n">
         <v>3.765</v>
       </c>
@@ -18463,7 +18714,7 @@
           <t>TOI-260</t>
         </is>
       </c>
-      <c r="AS142" t="n">
+      <c r="AS142" s="3" t="n">
         <v>2.343640475796769</v>
       </c>
       <c r="AT142" t="n">
@@ -18510,13 +18761,14 @@
       <c r="I143" t="n">
         <v>21.93333333333333</v>
       </c>
-      <c r="L143" t="n">
+      <c r="J143" s="3" t="n"/>
+      <c r="L143" s="3" t="n">
         <v>1052.01203</v>
       </c>
       <c r="M143" t="n">
         <v>3.31</v>
       </c>
-      <c r="N143" t="n">
+      <c r="N143" s="3" t="n">
         <v>1019.595246666667</v>
       </c>
       <c r="O143" t="n">
@@ -18598,7 +18850,7 @@
           <t>HR 5183</t>
         </is>
       </c>
-      <c r="AS143" t="n">
+      <c r="AS143" s="3" t="n">
         <v>2.351851827477822</v>
       </c>
       <c r="AT143" t="n">
@@ -18640,12 +18892,14 @@
       <c r="I144" t="n">
         <v>22.21</v>
       </c>
-      <c r="L144" t="n">
+      <c r="J144" s="3" t="n"/>
+      <c r="L144" s="3" t="n">
         <v>3135.69506</v>
       </c>
       <c r="M144" t="n">
         <v>9.866</v>
       </c>
+      <c r="N144" s="3" t="n"/>
       <c r="R144" t="n">
         <v>3135.69506</v>
       </c>
@@ -18691,7 +18945,7 @@
           <t>HD 12235</t>
         </is>
       </c>
-      <c r="AS144" t="n">
+      <c r="AS144" s="3" t="n">
         <v>2.362282037398919</v>
       </c>
       <c r="AT144" t="n">
@@ -18733,7 +18987,9 @@
       <c r="I145" t="n">
         <v>0.054</v>
       </c>
-      <c r="N145" t="n">
+      <c r="J145" s="3" t="n"/>
+      <c r="L145" s="3" t="n"/>
+      <c r="N145" s="3" t="n">
         <v>10.48834</v>
       </c>
       <c r="O145" t="n">
@@ -18784,7 +19040,7 @@
           <t>HD 12235</t>
         </is>
       </c>
-      <c r="AS145" t="n">
+      <c r="AS145" s="3" t="n">
         <v>2.362282037398919</v>
       </c>
       <c r="AT145" t="n">
@@ -18831,7 +19087,9 @@
       <c r="I146" t="n">
         <v>0.04936666666666667</v>
       </c>
-      <c r="N146" t="n">
+      <c r="J146" s="3" t="n"/>
+      <c r="L146" s="3" t="n"/>
+      <c r="N146" s="3" t="n">
         <v>146.041815</v>
       </c>
       <c r="O146" t="n">
@@ -18916,7 +19174,7 @@
           <t>HD 102195</t>
         </is>
       </c>
-      <c r="AS146" t="n">
+      <c r="AS146" s="3" t="n">
         <v>2.393772588155211</v>
       </c>
       <c r="AT146" t="n">
@@ -18963,7 +19221,9 @@
       <c r="I147" t="n">
         <v>0.477</v>
       </c>
-      <c r="N147" t="n">
+      <c r="J147" s="3" t="n"/>
+      <c r="L147" s="3" t="n"/>
+      <c r="N147" s="3" t="n">
         <v>117.59</v>
       </c>
       <c r="O147" t="n">
@@ -19039,7 +19299,7 @@
           <t>HD 93083</t>
         </is>
       </c>
-      <c r="AS147" t="n">
+      <c r="AS147" s="3" t="n">
         <v>2.406017358752038</v>
       </c>
       <c r="AT147" t="n">
@@ -19086,13 +19346,14 @@
       <c r="I148" t="n">
         <v>0.7416699999999999</v>
       </c>
-      <c r="L148" t="n">
+      <c r="J148" s="3" t="n"/>
+      <c r="L148" s="3" t="n">
         <v>622.603</v>
       </c>
       <c r="M148" t="n">
         <v>1.959</v>
       </c>
-      <c r="N148" t="n">
+      <c r="N148" s="3" t="n">
         <v>557.1907575</v>
       </c>
       <c r="O148" t="n">
@@ -19172,7 +19433,7 @@
           <t>HD 82943</t>
         </is>
       </c>
-      <c r="AS148" t="n">
+      <c r="AS148" s="3" t="n">
         <v>2.409462962276723</v>
       </c>
       <c r="AT148" t="n">
@@ -19219,13 +19480,14 @@
       <c r="I149" t="n">
         <v>1.176612</v>
       </c>
-      <c r="L149" t="n">
+      <c r="J149" s="3" t="n"/>
+      <c r="L149" s="3" t="n">
         <v>534.25</v>
       </c>
       <c r="M149" t="n">
         <v>1.681</v>
       </c>
-      <c r="N149" t="n">
+      <c r="N149" s="3" t="n">
         <v>526.6675299999999</v>
       </c>
       <c r="O149" t="n">
@@ -19305,7 +19567,7 @@
           <t>HD 82943</t>
         </is>
       </c>
-      <c r="AS149" t="n">
+      <c r="AS149" s="3" t="n">
         <v>2.409462962276723</v>
       </c>
       <c r="AT149" t="n">
@@ -19352,7 +19614,9 @@
       <c r="I150" t="n">
         <v>2.53</v>
       </c>
-      <c r="N150" t="n">
+      <c r="J150" s="3" t="n"/>
+      <c r="L150" s="3" t="n"/>
+      <c r="N150" s="3" t="n">
         <v>400.425</v>
       </c>
       <c r="O150" t="n">
@@ -19420,7 +19684,7 @@
           <t>HD 216435</t>
         </is>
       </c>
-      <c r="AS150" t="n">
+      <c r="AS150" s="3" t="n">
         <v>2.427520154674909</v>
       </c>
       <c r="AT150" t="n">
@@ -19467,12 +19731,14 @@
       <c r="I151" t="n">
         <v>13.183</v>
       </c>
-      <c r="L151" t="n">
+      <c r="J151" s="3" t="n"/>
+      <c r="L151" s="3" t="n">
         <v>1878.04806</v>
       </c>
       <c r="M151" t="n">
         <v>5.909</v>
       </c>
+      <c r="N151" s="3" t="n"/>
       <c r="R151" t="n">
         <v>1878.04806</v>
       </c>
@@ -19518,7 +19784,7 @@
           <t>HD 155918</t>
         </is>
       </c>
-      <c r="AS151" t="n">
+      <c r="AS151" s="3" t="n">
         <v>2.43909307416978</v>
       </c>
       <c r="AT151" t="n">
@@ -19565,7 +19831,9 @@
       <c r="I152" t="n">
         <v>0.03</v>
       </c>
-      <c r="N152" t="n">
+      <c r="J152" s="3" t="n"/>
+      <c r="L152" s="3" t="n"/>
+      <c r="N152" s="3" t="n">
         <v>7.62788</v>
       </c>
       <c r="O152" t="n">
@@ -19616,7 +19884,7 @@
           <t>HD 155918</t>
         </is>
       </c>
-      <c r="AS152" t="n">
+      <c r="AS152" s="3" t="n">
         <v>2.43909307416978</v>
       </c>
       <c r="AT152" t="n">
@@ -19663,13 +19931,14 @@
       <c r="I153" t="n">
         <v>3.2646</v>
       </c>
-      <c r="L153" t="n">
+      <c r="J153" s="3" t="n"/>
+      <c r="L153" s="3" t="n">
         <v>1239.53079</v>
       </c>
       <c r="M153" t="n">
         <v>3.9</v>
       </c>
-      <c r="N153" t="n">
+      <c r="N153" s="3" t="n">
         <v>621.2465199999999</v>
       </c>
       <c r="O153" t="n">
@@ -19751,7 +20020,7 @@
           <t>HD 70642</t>
         </is>
       </c>
-      <c r="AS153" t="n">
+      <c r="AS153" s="3" t="n">
         <v>2.442806705907453</v>
       </c>
       <c r="AT153" t="n">
@@ -19798,7 +20067,9 @@
       <c r="I154" t="n">
         <v>0.04026</v>
       </c>
-      <c r="N154" t="n">
+      <c r="J154" s="3" t="n"/>
+      <c r="L154" s="3" t="n"/>
+      <c r="N154" s="3" t="n">
         <v>74.30664</v>
       </c>
       <c r="O154" t="n">
@@ -19874,7 +20145,7 @@
           <t>HD 46375</t>
         </is>
       </c>
-      <c r="AS154" t="n">
+      <c r="AS154" s="3" t="n">
         <v>2.442931109537926</v>
       </c>
       <c r="AT154" t="n">
@@ -19921,18 +20192,19 @@
       <c r="I155" t="n">
         <v>0.58</v>
       </c>
-      <c r="J155" t="n">
+      <c r="J155" s="3" t="n">
         <v>2.49</v>
       </c>
       <c r="K155" t="n">
         <v>0.222</v>
       </c>
-      <c r="L155" t="n">
+      <c r="L155" s="3" t="n">
         <v>17.2</v>
       </c>
       <c r="M155" t="n">
         <v>0.05412</v>
       </c>
+      <c r="N155" s="3" t="n"/>
       <c r="R155" t="n">
         <v>17.2</v>
       </c>
@@ -20018,7 +20290,7 @@
           <t>HD 88986</t>
         </is>
       </c>
-      <c r="AS155" t="n">
+      <c r="AS155" s="3" t="n">
         <v>2.4535362299214</v>
       </c>
       <c r="AT155" t="n">
@@ -20065,7 +20337,9 @@
       <c r="I156" t="n">
         <v>0.23</v>
       </c>
-      <c r="N156" t="n">
+      <c r="J156" s="3" t="n"/>
+      <c r="L156" s="3" t="n"/>
+      <c r="N156" s="3" t="n">
         <v>16.14</v>
       </c>
       <c r="O156" t="n">
@@ -20138,7 +20412,7 @@
           <t>HD 164595</t>
         </is>
       </c>
-      <c r="AS156" t="n">
+      <c r="AS156" s="3" t="n">
         <v>2.464054086083536</v>
       </c>
       <c r="AT156" t="n">
@@ -20185,7 +20459,9 @@
       <c r="I157" t="n">
         <v>0.10519</v>
       </c>
-      <c r="N157" t="n">
+      <c r="J157" s="3" t="n"/>
+      <c r="L157" s="3" t="n"/>
+      <c r="N157" s="3" t="n">
         <v>11.2</v>
       </c>
       <c r="O157" t="n">
@@ -20261,7 +20537,7 @@
           <t>HD 13808</t>
         </is>
       </c>
-      <c r="AS157" t="n">
+      <c r="AS157" s="3" t="n">
         <v>2.481484018689617</v>
       </c>
       <c r="AT157" t="n">
@@ -20308,7 +20584,9 @@
       <c r="I158" t="n">
         <v>0.2554</v>
       </c>
-      <c r="N158" t="n">
+      <c r="J158" s="3" t="n"/>
+      <c r="L158" s="3" t="n"/>
+      <c r="N158" s="3" t="n">
         <v>9.960000000000001</v>
       </c>
       <c r="O158" t="n">
@@ -20384,7 +20662,7 @@
           <t>HD 13808</t>
         </is>
       </c>
-      <c r="AS158" t="n">
+      <c r="AS158" s="3" t="n">
         <v>2.481484018689617</v>
       </c>
       <c r="AT158" t="n">
@@ -20431,7 +20709,9 @@
       <c r="I159" t="n">
         <v>1.864</v>
       </c>
-      <c r="N159" t="n">
+      <c r="J159" s="3" t="n"/>
+      <c r="L159" s="3" t="n"/>
+      <c r="N159" s="3" t="n">
         <v>740.5439</v>
       </c>
       <c r="O159" t="n">
@@ -20502,7 +20782,7 @@
           <t>HD 98736</t>
         </is>
       </c>
-      <c r="AS159" t="n">
+      <c r="AS159" s="3" t="n">
         <v>2.485592691723572</v>
       </c>
       <c r="AT159" t="n">
@@ -20549,7 +20829,9 @@
       <c r="I160" t="n">
         <v>0.11878</v>
       </c>
-      <c r="N160" t="n">
+      <c r="J160" s="3" t="n"/>
+      <c r="L160" s="3" t="n"/>
+      <c r="N160" s="3" t="n">
         <v>9.18</v>
       </c>
       <c r="O160" t="n">
@@ -20637,7 +20919,7 @@
           <t>HD 176986</t>
         </is>
       </c>
-      <c r="AS160" t="n">
+      <c r="AS160" s="3" t="n">
         <v>2.5126894903437</v>
       </c>
       <c r="AT160" t="n">
@@ -20684,7 +20966,9 @@
       <c r="I161" t="n">
         <v>0.06296</v>
       </c>
-      <c r="N161" t="n">
+      <c r="J161" s="3" t="n"/>
+      <c r="L161" s="3" t="n"/>
+      <c r="N161" s="3" t="n">
         <v>5.74</v>
       </c>
       <c r="O161" t="n">
@@ -20772,7 +21056,7 @@
           <t>HD 176986</t>
         </is>
       </c>
-      <c r="AS161" t="n">
+      <c r="AS161" s="3" t="n">
         <v>2.5126894903437</v>
       </c>
       <c r="AT161" t="n">
@@ -20819,13 +21103,14 @@
       <c r="I162" t="n">
         <v>3.769</v>
       </c>
-      <c r="L162" t="n">
+      <c r="J162" s="3" t="n"/>
+      <c r="L162" s="3" t="n">
         <v>669.34663</v>
       </c>
       <c r="M162" t="n">
         <v>2.106</v>
       </c>
-      <c r="N162" t="n">
+      <c r="N162" s="3" t="n">
         <v>608.2513885714286</v>
       </c>
       <c r="O162" t="n">
@@ -20907,7 +21192,7 @@
           <t>HD 117207</t>
         </is>
       </c>
-      <c r="AS162" t="n">
+      <c r="AS162" s="3" t="n">
         <v>2.521563641161975</v>
       </c>
       <c r="AT162" t="n">
@@ -20954,13 +21239,14 @@
       <c r="I163" t="n">
         <v>18.025</v>
       </c>
-      <c r="L163" t="n">
+      <c r="J163" s="3" t="n"/>
+      <c r="L163" s="3" t="n">
         <v>6159.99127</v>
       </c>
       <c r="M163" t="n">
         <v>19.3815</v>
       </c>
-      <c r="N163" t="n">
+      <c r="N163" s="3" t="n">
         <v>6293.00246</v>
       </c>
       <c r="O163" t="n">
@@ -21030,7 +21316,7 @@
           <t>HD 111232</t>
         </is>
       </c>
-      <c r="AS163" t="n">
+      <c r="AS163" s="3" t="n">
         <v>2.522583188255181</v>
       </c>
       <c r="AT163" t="n">
@@ -21077,13 +21363,14 @@
       <c r="I164" t="n">
         <v>2.0078</v>
       </c>
-      <c r="L164" t="n">
+      <c r="J164" s="3" t="n"/>
+      <c r="L164" s="3" t="n">
         <v>2514.552413333333</v>
       </c>
       <c r="M164" t="n">
         <v>7.911666666666666</v>
       </c>
-      <c r="N164" t="n">
+      <c r="N164" s="3" t="n">
         <v>2204.445608</v>
       </c>
       <c r="O164" t="n">
@@ -21165,7 +21452,7 @@
           <t>HD 111232</t>
         </is>
       </c>
-      <c r="AS164" t="n">
+      <c r="AS164" s="3" t="n">
         <v>2.522583188255181</v>
       </c>
       <c r="AT164" t="n">
@@ -21212,7 +21499,9 @@
       <c r="I165" t="n">
         <v>2.555</v>
       </c>
-      <c r="N165" t="n">
+      <c r="J165" s="3" t="n"/>
+      <c r="L165" s="3" t="n"/>
+      <c r="N165" s="3" t="n">
         <v>78.82004999999999</v>
       </c>
       <c r="O165" t="n">
@@ -21286,7 +21575,7 @@
           <t>HD 204941</t>
         </is>
       </c>
-      <c r="AS165" t="n">
+      <c r="AS165" s="3" t="n">
         <v>2.530847448039305</v>
       </c>
       <c r="AT165" t="n">
@@ -21333,7 +21622,9 @@
       <c r="I166" t="n">
         <v>0.0478</v>
       </c>
-      <c r="N166" t="n">
+      <c r="J166" s="3" t="n"/>
+      <c r="L166" s="3" t="n"/>
+      <c r="N166" s="3" t="n">
         <v>145.9634275</v>
       </c>
       <c r="O166" t="n">
@@ -21415,7 +21706,7 @@
           <t>HD 75289</t>
         </is>
       </c>
-      <c r="AS166" t="n">
+      <c r="AS166" s="3" t="n">
         <v>2.531357181722931</v>
       </c>
       <c r="AT166" t="n">
@@ -21457,7 +21748,9 @@
       <c r="I167" t="n">
         <v>0.063</v>
       </c>
-      <c r="N167" t="n">
+      <c r="J167" s="3" t="n"/>
+      <c r="L167" s="3" t="n"/>
+      <c r="N167" s="3" t="n">
         <v>8.619999999999999</v>
       </c>
       <c r="O167" t="n">
@@ -21516,7 +21809,7 @@
           <t>HIP 54373</t>
         </is>
       </c>
-      <c r="AS167" t="n">
+      <c r="AS167" s="3" t="n">
         <v>2.540638293591672</v>
       </c>
       <c r="AT167" t="n">
@@ -21558,7 +21851,9 @@
       <c r="I168" t="n">
         <v>0.099</v>
       </c>
-      <c r="N168" t="n">
+      <c r="J168" s="3" t="n"/>
+      <c r="L168" s="3" t="n"/>
+      <c r="N168" s="3" t="n">
         <v>12.44</v>
       </c>
       <c r="O168" t="n">
@@ -21617,7 +21912,7 @@
           <t>HIP 54373</t>
         </is>
       </c>
-      <c r="AS168" t="n">
+      <c r="AS168" s="3" t="n">
         <v>2.540638293591672</v>
       </c>
       <c r="AT168" t="n">
@@ -21664,7 +21959,9 @@
       <c r="I169" t="n">
         <v>0.362</v>
       </c>
-      <c r="N169" t="n">
+      <c r="J169" s="3" t="n"/>
+      <c r="L169" s="3" t="n"/>
+      <c r="N169" s="3" t="n">
         <v>65.90000000000001</v>
       </c>
       <c r="O169" t="n">
@@ -21723,7 +22020,7 @@
           <t>HD 21411</t>
         </is>
       </c>
-      <c r="AS169" t="n">
+      <c r="AS169" s="3" t="n">
         <v>2.558508701158122</v>
       </c>
       <c r="AT169" t="n">
@@ -21770,7 +22067,9 @@
       <c r="I170" t="n">
         <v>0.301</v>
       </c>
-      <c r="N170" t="n">
+      <c r="J170" s="3" t="n"/>
+      <c r="L170" s="3" t="n"/>
+      <c r="N170" s="3" t="n">
         <v>87.39875000000001</v>
       </c>
       <c r="O170" t="n">
@@ -21849,7 +22148,7 @@
           <t>HD 101930</t>
         </is>
       </c>
-      <c r="AS170" t="n">
+      <c r="AS170" s="3" t="n">
         <v>2.560991133064951</v>
       </c>
       <c r="AT170" t="n">
@@ -21896,7 +22195,9 @@
       <c r="I171" t="n">
         <v>0.5033333333333333</v>
       </c>
-      <c r="N171" t="n">
+      <c r="J171" s="3" t="n"/>
+      <c r="L171" s="3" t="n"/>
+      <c r="N171" s="3" t="n">
         <v>357.4018283333333</v>
       </c>
       <c r="O171" t="n">
@@ -21976,7 +22277,7 @@
           <t>HD 52265</t>
         </is>
       </c>
-      <c r="AS171" t="n">
+      <c r="AS171" s="3" t="n">
         <v>2.58869261449837</v>
       </c>
       <c r="AT171" t="n">
@@ -22023,7 +22324,9 @@
       <c r="I172" t="n">
         <v>0.6882666666666667</v>
       </c>
-      <c r="N172" t="n">
+      <c r="J172" s="3" t="n"/>
+      <c r="L172" s="3" t="n"/>
+      <c r="N172" s="3" t="n">
         <v>64.41250666666667</v>
       </c>
       <c r="O172" t="n">
@@ -22097,7 +22400,7 @@
           <t>HD 218566</t>
         </is>
       </c>
-      <c r="AS172" t="n">
+      <c r="AS172" s="3" t="n">
         <v>2.591294218769586</v>
       </c>
       <c r="AT172" t="n">
@@ -22144,12 +22447,14 @@
       <c r="I173" t="n">
         <v>5.3</v>
       </c>
-      <c r="L173" t="n">
+      <c r="J173" s="3" t="n"/>
+      <c r="L173" s="3" t="n">
         <v>1716.2734</v>
       </c>
       <c r="M173" t="n">
         <v>5.4</v>
       </c>
+      <c r="N173" s="3" t="n"/>
       <c r="R173" t="n">
         <v>1716.2734</v>
       </c>
@@ -22206,7 +22511,7 @@
           <t>HD 75302</t>
         </is>
       </c>
-      <c r="AS173" t="n">
+      <c r="AS173" s="3" t="n">
         <v>2.591593376531063</v>
       </c>
       <c r="AT173" t="n">
@@ -22253,7 +22558,9 @@
       <c r="I174" t="n">
         <v>0.439</v>
       </c>
-      <c r="N174" t="n">
+      <c r="J174" s="3" t="n"/>
+      <c r="L174" s="3" t="n"/>
+      <c r="N174" s="3" t="n">
         <v>11.2</v>
       </c>
       <c r="O174" t="n">
@@ -22312,7 +22619,7 @@
           <t>HD 103949</t>
         </is>
       </c>
-      <c r="AS174" t="n">
+      <c r="AS174" s="3" t="n">
         <v>2.5967022841076</v>
       </c>
       <c r="AT174" t="n">
@@ -22359,7 +22666,9 @@
       <c r="I175" t="n">
         <v>0.2954666666666667</v>
       </c>
-      <c r="N175" t="n">
+      <c r="J175" s="3" t="n"/>
+      <c r="L175" s="3" t="n"/>
+      <c r="N175" s="3" t="n">
         <v>2474.621895</v>
       </c>
       <c r="O175" t="n">
@@ -22441,7 +22750,7 @@
           <t>HD 168443</t>
         </is>
       </c>
-      <c r="AS175" t="n">
+      <c r="AS175" s="3" t="n">
         <v>2.600304597043261</v>
       </c>
       <c r="AT175" t="n">
@@ -22488,13 +22797,14 @@
       <c r="I176" t="n">
         <v>2.87005</v>
       </c>
-      <c r="L176" t="n">
+      <c r="J176" s="3" t="n"/>
+      <c r="L176" s="3" t="n">
         <v>5500.33841</v>
       </c>
       <c r="M176" t="n">
         <v>17.306</v>
       </c>
-      <c r="N176" t="n">
+      <c r="N176" s="3" t="n">
         <v>5595.129301999999</v>
       </c>
       <c r="O176" t="n">
@@ -22576,7 +22886,7 @@
           <t>HD 168443</t>
         </is>
       </c>
-      <c r="AS176" t="n">
+      <c r="AS176" s="3" t="n">
         <v>2.600304597043261</v>
       </c>
       <c r="AT176" t="n">
@@ -22618,7 +22928,9 @@
       <c r="I177" t="n">
         <v>4.305</v>
       </c>
-      <c r="N177" t="n">
+      <c r="J177" s="3" t="n"/>
+      <c r="L177" s="3" t="n"/>
+      <c r="N177" s="3" t="n">
         <v>764.37465</v>
       </c>
       <c r="O177" t="n">
@@ -22694,7 +23006,7 @@
           <t>GJ 328</t>
         </is>
       </c>
-      <c r="AS177" t="n">
+      <c r="AS177" s="3" t="n">
         <v>2.606001336416506</v>
       </c>
       <c r="AT177" t="n">
@@ -22736,7 +23048,9 @@
       <c r="I178" t="n">
         <v>0.657</v>
       </c>
-      <c r="N178" t="n">
+      <c r="J178" s="3" t="n"/>
+      <c r="L178" s="3" t="n"/>
+      <c r="N178" s="3" t="n">
         <v>21.4</v>
       </c>
       <c r="O178" t="n">
@@ -22809,7 +23123,7 @@
           <t>GJ 328</t>
         </is>
       </c>
-      <c r="AS178" t="n">
+      <c r="AS178" s="3" t="n">
         <v>2.606001336416506</v>
       </c>
       <c r="AT178" t="n">
@@ -22851,12 +23165,14 @@
       <c r="I179" t="n">
         <v>6.925</v>
       </c>
-      <c r="L179" t="n">
+      <c r="J179" s="3" t="n"/>
+      <c r="L179" s="3" t="n">
         <v>6707.76853</v>
       </c>
       <c r="M179" t="n">
         <v>21.105</v>
       </c>
+      <c r="N179" s="3" t="n"/>
       <c r="R179" t="n">
         <v>6707.76853</v>
       </c>
@@ -22902,7 +23218,7 @@
           <t>HD 97037</t>
         </is>
       </c>
-      <c r="AS179" t="n">
+      <c r="AS179" s="3" t="n">
         <v>2.618862177064054</v>
       </c>
       <c r="AT179" t="n">
@@ -22949,7 +23265,9 @@
       <c r="I180" t="n">
         <v>1.69</v>
       </c>
-      <c r="N180" t="n">
+      <c r="J180" s="3" t="n"/>
+      <c r="L180" s="3" t="n"/>
+      <c r="N180" s="3" t="n">
         <v>378.2080999999999</v>
       </c>
       <c r="O180" t="n">
@@ -23023,7 +23341,7 @@
           <t>HD 114386</t>
         </is>
       </c>
-      <c r="AS180" t="n">
+      <c r="AS180" s="3" t="n">
         <v>2.629507907365292</v>
       </c>
       <c r="AT180" t="n">
@@ -23070,7 +23388,9 @@
       <c r="I181" t="n">
         <v>1.9194</v>
       </c>
-      <c r="N181" t="n">
+      <c r="J181" s="3" t="n"/>
+      <c r="L181" s="3" t="n"/>
+      <c r="N181" s="3" t="n">
         <v>221.393428</v>
       </c>
       <c r="O181" t="n">
@@ -23146,7 +23466,7 @@
           <t>HD 37124</t>
         </is>
       </c>
-      <c r="AS181" t="n">
+      <c r="AS181" s="3" t="n">
         <v>2.684568565218353</v>
       </c>
       <c r="AT181" t="n">
@@ -23193,7 +23513,9 @@
       <c r="I182" t="n">
         <v>2.9525</v>
       </c>
-      <c r="N182" t="n">
+      <c r="J182" s="3" t="n"/>
+      <c r="L182" s="3" t="n"/>
+      <c r="N182" s="3" t="n">
         <v>215.3254</v>
       </c>
       <c r="O182" t="n">
@@ -23269,7 +23591,7 @@
           <t>HD 37124</t>
         </is>
       </c>
-      <c r="AS182" t="n">
+      <c r="AS182" s="3" t="n">
         <v>2.684568565218353</v>
       </c>
       <c r="AT182" t="n">
@@ -23316,7 +23638,9 @@
       <c r="I183" t="n">
         <v>0.5295880000000001</v>
       </c>
-      <c r="N183" t="n">
+      <c r="J183" s="3" t="n"/>
+      <c r="L183" s="3" t="n"/>
+      <c r="N183" s="3" t="n">
         <v>217.326342</v>
       </c>
       <c r="O183" t="n">
@@ -23392,7 +23716,7 @@
           <t>HD 37124</t>
         </is>
       </c>
-      <c r="AS183" t="n">
+      <c r="AS183" s="3" t="n">
         <v>2.684568565218353</v>
       </c>
       <c r="AT183" t="n">
@@ -23434,7 +23758,9 @@
       <c r="I184" t="n">
         <v>0.053</v>
       </c>
-      <c r="N184" t="n">
+      <c r="J184" s="3" t="n"/>
+      <c r="L184" s="3" t="n"/>
+      <c r="N184" s="3" t="n">
         <v>10.2</v>
       </c>
       <c r="O184" t="n">
@@ -23499,7 +23825,7 @@
           <t>GJ 160.2</t>
         </is>
       </c>
-      <c r="AS184" t="n">
+      <c r="AS184" s="3" t="n">
         <v>2.701599016273371</v>
       </c>
       <c r="AT184" t="n">
@@ -23541,7 +23867,9 @@
       <c r="I185" t="n">
         <v>0.176</v>
       </c>
-      <c r="N185" t="n">
+      <c r="J185" s="3" t="n"/>
+      <c r="L185" s="3" t="n"/>
+      <c r="N185" s="3" t="n">
         <v>14.4</v>
       </c>
       <c r="O185" t="n">
@@ -23592,7 +23920,7 @@
           <t>HIP 4845</t>
         </is>
       </c>
-      <c r="AS185" t="n">
+      <c r="AS185" s="3" t="n">
         <v>2.714765705437829</v>
       </c>
       <c r="AT185" t="n">
@@ -23639,7 +23967,9 @@
       <c r="I186" t="n">
         <v>0.3613</v>
       </c>
-      <c r="N186" t="n">
+      <c r="J186" s="3" t="n"/>
+      <c r="L186" s="3" t="n"/>
+      <c r="N186" s="3" t="n">
         <v>81.5643</v>
       </c>
       <c r="O186" t="n">
@@ -23710,7 +24040,7 @@
           <t>HD 16141</t>
         </is>
       </c>
-      <c r="AS186" t="n">
+      <c r="AS186" s="3" t="n">
         <v>2.718145618930552</v>
       </c>
       <c r="AT186" t="n">
@@ -23757,13 +24087,14 @@
       <c r="I187" t="n">
         <v>2.966333333333333</v>
       </c>
-      <c r="L187" t="n">
+      <c r="J187" s="3" t="n"/>
+      <c r="L187" s="3" t="n">
         <v>1433.40612</v>
       </c>
       <c r="M187" t="n">
         <v>4.51</v>
       </c>
-      <c r="N187" t="n">
+      <c r="N187" s="3" t="n">
         <v>1442.324933333333</v>
       </c>
       <c r="O187" t="n">
@@ -23842,7 +24173,7 @@
           <t>HD 142022 A</t>
         </is>
       </c>
-      <c r="AS187" t="n">
+      <c r="AS187" s="3" t="n">
         <v>2.753692715762817</v>
       </c>
       <c r="AT187" t="n">
@@ -23889,7 +24220,9 @@
       <c r="I188" t="n">
         <v>9.379999999999999</v>
       </c>
-      <c r="N188" t="n">
+      <c r="J188" s="3" t="n"/>
+      <c r="L188" s="3" t="n"/>
+      <c r="N188" s="3" t="n">
         <v>1029.76696</v>
       </c>
       <c r="O188" t="n">
@@ -23971,7 +24304,7 @@
           <t>HD 92788</t>
         </is>
       </c>
-      <c r="AS188" t="n">
+      <c r="AS188" s="3" t="n">
         <v>2.761120563044734</v>
       </c>
       <c r="AT188" t="n">
@@ -24018,7 +24351,9 @@
       <c r="I189" t="n">
         <v>0.9583333333333331</v>
       </c>
-      <c r="N189" t="n">
+      <c r="J189" s="3" t="n"/>
+      <c r="L189" s="3" t="n"/>
+      <c r="N189" s="3" t="n">
         <v>1148.954515</v>
       </c>
       <c r="O189" t="n">
@@ -24103,7 +24438,7 @@
           <t>HD 92788</t>
         </is>
       </c>
-      <c r="AS189" t="n">
+      <c r="AS189" s="3" t="n">
         <v>2.761120563044734</v>
       </c>
       <c r="AT189" t="n">
@@ -24145,18 +24480,19 @@
       <c r="I190" t="n">
         <v>0.0793</v>
       </c>
-      <c r="J190" t="n">
+      <c r="J190" s="3" t="n">
         <v>2.2</v>
       </c>
       <c r="K190" t="n">
         <v>0.196</v>
       </c>
-      <c r="L190" t="n">
+      <c r="L190" s="3" t="n">
         <v>5.69</v>
       </c>
       <c r="M190" t="n">
         <v>0.0179</v>
       </c>
+      <c r="N190" s="3" t="n"/>
       <c r="R190" t="n">
         <v>5.69</v>
       </c>
@@ -24230,7 +24566,7 @@
           <t>HD 110067</t>
         </is>
       </c>
-      <c r="AS190" t="n">
+      <c r="AS190" s="3" t="n">
         <v>2.76374786632559</v>
       </c>
       <c r="AT190" t="n">
@@ -24272,18 +24608,19 @@
       <c r="I191" t="n">
         <v>0.1039</v>
       </c>
-      <c r="J191" t="n">
+      <c r="J191" s="3" t="n">
         <v>2.388</v>
       </c>
       <c r="K191" t="n">
         <v>0.213</v>
       </c>
-      <c r="L191" t="n">
+      <c r="L191" s="3" t="n">
         <v>6.3</v>
       </c>
       <c r="M191" t="n">
         <v>0.01982</v>
       </c>
+      <c r="N191" s="3" t="n"/>
       <c r="R191" t="n">
         <v>6.3</v>
       </c>
@@ -24357,7 +24694,7 @@
           <t>HD 110067</t>
         </is>
       </c>
-      <c r="AS191" t="n">
+      <c r="AS191" s="3" t="n">
         <v>2.76374786632559</v>
       </c>
       <c r="AT191" t="n">
@@ -24399,18 +24736,19 @@
       <c r="I192" t="n">
         <v>0.1362</v>
       </c>
-      <c r="J192" t="n">
+      <c r="J192" s="3" t="n">
         <v>2.852</v>
       </c>
       <c r="K192" t="n">
         <v>0.254</v>
       </c>
-      <c r="L192" t="n">
+      <c r="L192" s="3" t="n">
         <v>8.52</v>
       </c>
       <c r="M192" t="n">
         <v>0.02681</v>
       </c>
+      <c r="N192" s="3" t="n"/>
       <c r="R192" t="n">
         <v>8.52</v>
       </c>
@@ -24484,7 +24822,7 @@
           <t>HD 110067</t>
         </is>
       </c>
-      <c r="AS192" t="n">
+      <c r="AS192" s="3" t="n">
         <v>2.76374786632559</v>
       </c>
       <c r="AT192" t="n">
@@ -24526,18 +24864,19 @@
       <c r="I193" t="n">
         <v>0.2163</v>
       </c>
-      <c r="J193" t="n">
+      <c r="J193" s="3" t="n">
         <v>2.601</v>
       </c>
       <c r="K193" t="n">
         <v>0.232</v>
       </c>
-      <c r="L193" t="n">
+      <c r="L193" s="3" t="n">
         <v>5.04</v>
       </c>
       <c r="M193" t="n">
         <v>0.01586</v>
       </c>
+      <c r="N193" s="3" t="n"/>
       <c r="R193" t="n">
         <v>5.04</v>
       </c>
@@ -24611,7 +24950,7 @@
           <t>HD 110067</t>
         </is>
       </c>
-      <c r="AS193" t="n">
+      <c r="AS193" s="3" t="n">
         <v>2.76374786632559</v>
       </c>
       <c r="AT193" t="n">
@@ -24653,18 +24992,19 @@
       <c r="I194" t="n">
         <v>0.1785</v>
       </c>
-      <c r="J194" t="n">
+      <c r="J194" s="3" t="n">
         <v>1.94</v>
       </c>
       <c r="K194" t="n">
         <v>0.173</v>
       </c>
-      <c r="L194" t="n">
+      <c r="L194" s="3" t="n">
         <v>3.9</v>
       </c>
       <c r="M194" t="n">
         <v>0.01227</v>
       </c>
+      <c r="N194" s="3" t="n"/>
       <c r="R194" t="n">
         <v>3.9</v>
       </c>
@@ -24738,7 +25078,7 @@
           <t>HD 110067</t>
         </is>
       </c>
-      <c r="AS194" t="n">
+      <c r="AS194" s="3" t="n">
         <v>2.76374786632559</v>
       </c>
       <c r="AT194" t="n">
@@ -24780,18 +25120,19 @@
       <c r="I195" t="n">
         <v>0.2621</v>
       </c>
-      <c r="J195" t="n">
+      <c r="J195" s="3" t="n">
         <v>2.607</v>
       </c>
       <c r="K195" t="n">
         <v>0.233</v>
       </c>
-      <c r="L195" t="n">
+      <c r="L195" s="3" t="n">
         <v>8.4</v>
       </c>
       <c r="M195" t="n">
         <v>0.02643</v>
       </c>
+      <c r="N195" s="3" t="n"/>
       <c r="R195" t="n">
         <v>8.4</v>
       </c>
@@ -24865,7 +25206,7 @@
           <t>HD 110067</t>
         </is>
       </c>
-      <c r="AS195" t="n">
+      <c r="AS195" s="3" t="n">
         <v>2.76374786632559</v>
       </c>
       <c r="AT195" t="n">
@@ -24912,7 +25253,9 @@
       <c r="I196" t="n">
         <v>0.1372</v>
       </c>
-      <c r="N196" t="n">
+      <c r="J196" s="3" t="n"/>
+      <c r="L196" s="3" t="n"/>
+      <c r="N196" s="3" t="n">
         <v>1165.713747142857</v>
       </c>
       <c r="O196" t="n">
@@ -24997,7 +25340,7 @@
           <t>HD 195019</t>
         </is>
       </c>
-      <c r="AS196" t="n">
+      <c r="AS196" s="3" t="n">
         <v>2.771006070889901</v>
       </c>
       <c r="AT196" t="n">
@@ -25044,12 +25387,14 @@
       <c r="I197" t="n">
         <v>12.319</v>
       </c>
-      <c r="L197" t="n">
+      <c r="J197" s="3" t="n"/>
+      <c r="L197" s="3" t="n">
         <v>2988.54051</v>
       </c>
       <c r="M197" t="n">
         <v>9.403</v>
       </c>
+      <c r="N197" s="3" t="n"/>
       <c r="R197" t="n">
         <v>2988.54051</v>
       </c>
@@ -25095,7 +25440,7 @@
           <t>GJ 9714</t>
         </is>
       </c>
-      <c r="AS197" t="n">
+      <c r="AS197" s="3" t="n">
         <v>2.772617383699038</v>
       </c>
       <c r="AT197" t="n">
@@ -25142,7 +25487,9 @@
       <c r="I198" t="n">
         <v>2.0902</v>
       </c>
-      <c r="N198" t="n">
+      <c r="J198" s="3" t="n"/>
+      <c r="L198" s="3" t="n"/>
+      <c r="N198" s="3" t="n">
         <v>292.209478</v>
       </c>
       <c r="O198" t="n">
@@ -25224,7 +25571,7 @@
           <t>HD 114729</t>
         </is>
       </c>
-      <c r="AS198" t="n">
+      <c r="AS198" s="3" t="n">
         <v>2.778487605610855</v>
       </c>
       <c r="AT198" t="n">
@@ -25271,7 +25618,9 @@
       <c r="I199" t="n">
         <v>0.09059999999999999</v>
       </c>
-      <c r="N199" t="n">
+      <c r="J199" s="3" t="n"/>
+      <c r="L199" s="3" t="n"/>
+      <c r="N199" s="3" t="n">
         <v>346.36488</v>
       </c>
       <c r="O199" t="n">
@@ -25353,7 +25702,7 @@
           <t>HD 130322</t>
         </is>
       </c>
-      <c r="AS199" t="n">
+      <c r="AS199" s="3" t="n">
         <v>2.787759217005045</v>
       </c>
       <c r="AT199" t="n">
@@ -25395,7 +25744,9 @@
       <c r="I200" t="n">
         <v>0.435</v>
       </c>
-      <c r="N200" t="n">
+      <c r="J200" s="3" t="n"/>
+      <c r="L200" s="3" t="n"/>
+      <c r="N200" s="3" t="n">
         <v>53</v>
       </c>
       <c r="O200" t="n">
@@ -25474,7 +25825,7 @@
           <t>BD-06 1339</t>
         </is>
       </c>
-      <c r="AS200" t="n">
+      <c r="AS200" s="3" t="n">
         <v>2.791309540957308</v>
       </c>
       <c r="AT200" t="n">
@@ -25516,7 +25867,9 @@
       <c r="I201" t="n">
         <v>0.0428</v>
       </c>
-      <c r="N201" t="n">
+      <c r="J201" s="3" t="n"/>
+      <c r="L201" s="3" t="n"/>
+      <c r="N201" s="3" t="n">
         <v>8.5</v>
       </c>
       <c r="O201" t="n">
@@ -25595,7 +25948,7 @@
           <t>BD-06 1339</t>
         </is>
       </c>
-      <c r="AS201" t="n">
+      <c r="AS201" s="3" t="n">
         <v>2.791309540957308</v>
       </c>
       <c r="AT201" t="n">
@@ -25637,12 +25990,14 @@
       <c r="I202" t="n">
         <v>6.462</v>
       </c>
-      <c r="L202" t="n">
+      <c r="J202" s="3" t="n"/>
+      <c r="L202" s="3" t="n">
         <v>1748.05624</v>
       </c>
       <c r="M202" t="n">
         <v>5.5</v>
       </c>
+      <c r="N202" s="3" t="n"/>
       <c r="R202" t="n">
         <v>1748.05624</v>
       </c>
@@ -25688,7 +26043,7 @@
           <t>HD 80883</t>
         </is>
       </c>
-      <c r="AS202" t="n">
+      <c r="AS202" s="3" t="n">
         <v>2.829630953515235</v>
       </c>
       <c r="AT202" t="n">
@@ -25735,7 +26090,9 @@
       <c r="I203" t="n">
         <v>0.2586</v>
       </c>
-      <c r="N203" t="n">
+      <c r="J203" s="3" t="n"/>
+      <c r="L203" s="3" t="n"/>
+      <c r="N203" s="3" t="n">
         <v>17.37</v>
       </c>
       <c r="O203" t="n">
@@ -25814,7 +26171,7 @@
           <t>HD 21693</t>
         </is>
       </c>
-      <c r="AS203" t="n">
+      <c r="AS203" s="3" t="n">
         <v>2.834913741578717</v>
       </c>
       <c r="AT203" t="n">
@@ -25861,7 +26218,9 @@
       <c r="I204" t="n">
         <v>0.1455</v>
       </c>
-      <c r="N204" t="n">
+      <c r="J204" s="3" t="n"/>
+      <c r="L204" s="3" t="n"/>
+      <c r="N204" s="3" t="n">
         <v>8.23</v>
       </c>
       <c r="O204" t="n">
@@ -25940,7 +26299,7 @@
           <t>HD 21693</t>
         </is>
       </c>
-      <c r="AS204" t="n">
+      <c r="AS204" s="3" t="n">
         <v>2.834913741578717</v>
       </c>
       <c r="AT204" t="n">
@@ -25987,7 +26346,9 @@
       <c r="I205" t="n">
         <v>0.1004</v>
       </c>
-      <c r="N205" t="n">
+      <c r="J205" s="3" t="n"/>
+      <c r="L205" s="3" t="n"/>
+      <c r="N205" s="3" t="n">
         <v>5.33</v>
       </c>
       <c r="O205" t="n">
@@ -26066,7 +26427,7 @@
           <t>HD 20781</t>
         </is>
       </c>
-      <c r="AS205" t="n">
+      <c r="AS205" s="3" t="n">
         <v>2.838647333352556</v>
       </c>
       <c r="AT205" t="n">
@@ -26113,7 +26474,9 @@
       <c r="I206" t="n">
         <v>0.3374</v>
       </c>
-      <c r="N206" t="n">
+      <c r="J206" s="3" t="n"/>
+      <c r="L206" s="3" t="n"/>
+      <c r="N206" s="3" t="n">
         <v>14.03</v>
       </c>
       <c r="O206" t="n">
@@ -26192,7 +26555,7 @@
           <t>HD 20781</t>
         </is>
       </c>
-      <c r="AS206" t="n">
+      <c r="AS206" s="3" t="n">
         <v>2.838647333352556</v>
       </c>
       <c r="AT206" t="n">
@@ -26239,7 +26602,9 @@
       <c r="I207" t="n">
         <v>0.1647</v>
       </c>
-      <c r="N207" t="n">
+      <c r="J207" s="3" t="n"/>
+      <c r="L207" s="3" t="n"/>
+      <c r="N207" s="3" t="n">
         <v>10.61</v>
       </c>
       <c r="O207" t="n">
@@ -26318,7 +26683,7 @@
           <t>HD 20781</t>
         </is>
       </c>
-      <c r="AS207" t="n">
+      <c r="AS207" s="3" t="n">
         <v>2.838647333352556</v>
       </c>
       <c r="AT207" t="n">
@@ -26365,7 +26730,9 @@
       <c r="I208" t="n">
         <v>0.0529</v>
       </c>
-      <c r="N208" t="n">
+      <c r="J208" s="3" t="n"/>
+      <c r="L208" s="3" t="n"/>
+      <c r="N208" s="3" t="n">
         <v>1.93</v>
       </c>
       <c r="O208" t="n">
@@ -26444,7 +26811,7 @@
           <t>HD 20781</t>
         </is>
       </c>
-      <c r="AS208" t="n">
+      <c r="AS208" s="3" t="n">
         <v>2.838647333352556</v>
       </c>
       <c r="AT208" t="n">
@@ -26478,12 +26845,14 @@
       <c r="H209" t="n">
         <v>15.669363105</v>
       </c>
-      <c r="J209" t="n">
+      <c r="J209" s="3" t="n">
         <v>2.73</v>
       </c>
       <c r="K209" t="n">
         <v>0.2435</v>
       </c>
+      <c r="L209" s="3" t="n"/>
+      <c r="N209" s="3" t="n"/>
       <c r="V209" t="n">
         <v>13.29</v>
       </c>
@@ -26543,7 +26912,7 @@
           <t>TOI-2443</t>
         </is>
       </c>
-      <c r="AS209" t="n">
+      <c r="AS209" s="3" t="n">
         <v>2.839885605748058</v>
       </c>
       <c r="AT209" t="n">
@@ -26590,13 +26959,14 @@
       <c r="I210" t="n">
         <v>4.520333333333333</v>
       </c>
-      <c r="L210" t="n">
+      <c r="J210" s="3" t="n"/>
+      <c r="L210" s="3" t="n">
         <v>4516.023835</v>
       </c>
       <c r="M210" t="n">
         <v>14.209</v>
       </c>
-      <c r="N210" t="n">
+      <c r="N210" s="3" t="n">
         <v>2960.00972</v>
       </c>
       <c r="O210" t="n">
@@ -26681,7 +27051,7 @@
           <t>HD 106515 A</t>
         </is>
       </c>
-      <c r="AS210" t="n">
+      <c r="AS210" s="3" t="n">
         <v>2.852338446201771</v>
       </c>
       <c r="AT210" t="n">
@@ -26728,7 +27098,9 @@
       <c r="I211" t="n">
         <v>0.533</v>
       </c>
-      <c r="N211" t="n">
+      <c r="J211" s="3" t="n"/>
+      <c r="L211" s="3" t="n"/>
+      <c r="N211" s="3" t="n">
         <v>66.59999999999999</v>
       </c>
       <c r="O211" t="n">
@@ -26787,7 +27159,7 @@
           <t>HD 8326</t>
         </is>
       </c>
-      <c r="AS211" t="n">
+      <c r="AS211" s="3" t="n">
         <v>2.852869271097606</v>
       </c>
       <c r="AT211" t="n">
@@ -26834,7 +27206,9 @@
       <c r="I212" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="N212" t="n">
+      <c r="J212" s="3" t="n"/>
+      <c r="L212" s="3" t="n"/>
+      <c r="N212" s="3" t="n">
         <v>185.92495</v>
       </c>
       <c r="O212" t="n">
@@ -26916,7 +27290,7 @@
           <t>HD 63765</t>
         </is>
       </c>
-      <c r="AS212" t="n">
+      <c r="AS212" s="3" t="n">
         <v>2.87491445223856</v>
       </c>
       <c r="AT212" t="n">
@@ -26963,7 +27337,9 @@
       <c r="I213" t="n">
         <v>0.82065</v>
       </c>
-      <c r="N213" t="n">
+      <c r="J213" s="3" t="n"/>
+      <c r="L213" s="3" t="n"/>
+      <c r="N213" s="3" t="n">
         <v>758.4906416666668</v>
       </c>
       <c r="O213" t="n">
@@ -27040,7 +27416,7 @@
           <t>HD 12661</t>
         </is>
       </c>
-      <c r="AS213" t="n">
+      <c r="AS213" s="3" t="n">
         <v>2.878455759965636</v>
       </c>
       <c r="AT213" t="n">
@@ -27087,7 +27463,9 @@
       <c r="I214" t="n">
         <v>2.858875</v>
       </c>
-      <c r="N214" t="n">
+      <c r="J214" s="3" t="n"/>
+      <c r="L214" s="3" t="n"/>
+      <c r="N214" s="3" t="n">
         <v>589.2639225</v>
       </c>
       <c r="O214" t="n">
@@ -27164,7 +27542,7 @@
           <t>HD 12661</t>
         </is>
       </c>
-      <c r="AS214" t="n">
+      <c r="AS214" s="3" t="n">
         <v>2.878455759965637</v>
       </c>
       <c r="AT214" t="n">
@@ -27211,13 +27589,14 @@
       <c r="I215" t="n">
         <v>2.3174</v>
       </c>
-      <c r="L215" t="n">
+      <c r="J215" s="3" t="n"/>
+      <c r="L215" s="3" t="n">
         <v>1859.29618</v>
       </c>
       <c r="M215" t="n">
         <v>5.85</v>
       </c>
-      <c r="N215" t="n">
+      <c r="N215" s="3" t="n">
         <v>1474.580016666667</v>
       </c>
       <c r="O215" t="n">
@@ -27302,7 +27681,7 @@
           <t>HD 50554</t>
         </is>
       </c>
-      <c r="AS215" t="n">
+      <c r="AS215" s="3" t="n">
         <v>2.880011854113967</v>
       </c>
       <c r="AT215" t="n">
@@ -27349,7 +27728,9 @@
       <c r="I216" t="n">
         <v>0.246</v>
       </c>
-      <c r="N216" t="n">
+      <c r="J216" s="3" t="n"/>
+      <c r="L216" s="3" t="n"/>
+      <c r="N216" s="3" t="n">
         <v>17.8</v>
       </c>
       <c r="O216" t="n">
@@ -27408,7 +27789,7 @@
           <t>HD 64114</t>
         </is>
       </c>
-      <c r="AS216" t="n">
+      <c r="AS216" s="3" t="n">
         <v>2.880328975591234</v>
       </c>
       <c r="AT216" t="n">
@@ -27455,7 +27836,9 @@
       <c r="I217" t="n">
         <v>0.08044999999999999</v>
       </c>
-      <c r="N217" t="n">
+      <c r="J217" s="3" t="n"/>
+      <c r="L217" s="3" t="n"/>
+      <c r="N217" s="3" t="n">
         <v>9.7453</v>
       </c>
       <c r="O217" t="n">
@@ -27537,7 +27920,7 @@
           <t>HD 125595</t>
         </is>
       </c>
-      <c r="AS217" t="n">
+      <c r="AS217" s="3" t="n">
         <v>2.900721190712675</v>
       </c>
       <c r="AT217" t="n">
@@ -27584,13 +27967,14 @@
       <c r="I218" t="n">
         <v>3.412366666666667</v>
       </c>
-      <c r="L218" t="n">
+      <c r="J218" s="3" t="n"/>
+      <c r="L218" s="3" t="n">
         <v>642.01338</v>
       </c>
       <c r="M218" t="n">
         <v>2.02</v>
       </c>
-      <c r="N218" t="n">
+      <c r="N218" s="3" t="n">
         <v>660.2177316666666</v>
       </c>
       <c r="O218" t="n">
@@ -27675,7 +28059,7 @@
           <t>HD 89307</t>
         </is>
       </c>
-      <c r="AS218" t="n">
+      <c r="AS218" s="3" t="n">
         <v>2.918229512858622</v>
       </c>
       <c r="AT218" t="n">
@@ -27722,7 +28106,9 @@
       <c r="I219" t="n">
         <v>1.471</v>
       </c>
-      <c r="N219" t="n">
+      <c r="J219" s="3" t="n"/>
+      <c r="L219" s="3" t="n"/>
+      <c r="N219" s="3" t="n">
         <v>36.14215666666666</v>
       </c>
       <c r="O219" t="n">
@@ -27796,7 +28182,7 @@
           <t>HD 85390</t>
         </is>
       </c>
-      <c r="AS219" t="n">
+      <c r="AS219" s="3" t="n">
         <v>2.932762249593288</v>
       </c>
       <c r="AT219" t="n">
@@ -27843,7 +28229,9 @@
       <c r="I220" t="n">
         <v>0.46</v>
       </c>
-      <c r="N220" t="n">
+      <c r="J220" s="3" t="n"/>
+      <c r="L220" s="3" t="n"/>
+      <c r="N220" s="3" t="n">
         <v>193.8763</v>
       </c>
       <c r="O220" t="n">
@@ -27920,7 +28308,7 @@
           <t>HD 216770</t>
         </is>
       </c>
-      <c r="AS220" t="n">
+      <c r="AS220" s="3" t="n">
         <v>2.937962038283811</v>
       </c>
       <c r="AT220" t="n">
@@ -27967,7 +28355,9 @@
       <c r="I221" t="n">
         <v>0.15108</v>
       </c>
-      <c r="N221" t="n">
+      <c r="J221" s="3" t="n"/>
+      <c r="L221" s="3" t="n"/>
+      <c r="N221" s="3" t="n">
         <v>53.01293999999999</v>
       </c>
       <c r="O221" t="n">
@@ -28052,7 +28442,7 @@
           <t>HD 102117</t>
         </is>
       </c>
-      <c r="AS221" t="n">
+      <c r="AS221" s="3" t="n">
         <v>2.939989501621099</v>
       </c>
       <c r="AT221" t="n">
@@ -28099,12 +28489,14 @@
       <c r="I222" t="n">
         <v>3.8</v>
       </c>
-      <c r="L222" t="n">
+      <c r="J222" s="3" t="n"/>
+      <c r="L222" s="3" t="n">
         <v>5085.25451</v>
       </c>
       <c r="M222" t="n">
         <v>16</v>
       </c>
+      <c r="N222" s="3" t="n"/>
       <c r="R222" t="n">
         <v>5085.25451</v>
       </c>
@@ -28161,7 +28553,7 @@
           <t>HD 73256</t>
         </is>
       </c>
-      <c r="AS222" t="n">
+      <c r="AS222" s="3" t="n">
         <v>2.946889472618117</v>
       </c>
       <c r="AT222" t="n">
@@ -28208,7 +28600,9 @@
       <c r="I223" t="n">
         <v>1.37018</v>
       </c>
-      <c r="N223" t="n">
+      <c r="J223" s="3" t="n"/>
+      <c r="L223" s="3" t="n"/>
+      <c r="N223" s="3" t="n">
         <v>470.23508</v>
       </c>
       <c r="O223" t="n">
@@ -28288,7 +28682,7 @@
           <t>HD 20782</t>
         </is>
       </c>
-      <c r="AS223" t="n">
+      <c r="AS223" s="3" t="n">
         <v>2.954460693901278</v>
       </c>
       <c r="AT223" t="n">
@@ -28335,7 +28729,9 @@
       <c r="I224" t="n">
         <v>1.502566666666667</v>
       </c>
-      <c r="N224" t="n">
+      <c r="J224" s="3" t="n"/>
+      <c r="L224" s="3" t="n"/>
+      <c r="N224" s="3" t="n">
         <v>3040.184233333333</v>
       </c>
       <c r="O224" t="n">
@@ -28420,7 +28816,7 @@
           <t>HD 141937</t>
         </is>
       </c>
-      <c r="AS224" t="n">
+      <c r="AS224" s="3" t="n">
         <v>2.970235606399287</v>
       </c>
       <c r="AT224" t="n">
@@ -28467,13 +28863,14 @@
       <c r="I225" t="n">
         <v>5.06</v>
       </c>
-      <c r="L225" t="n">
+      <c r="J225" s="3" t="n"/>
+      <c r="L225" s="3" t="n">
         <v>3972.85509</v>
       </c>
       <c r="M225" t="n">
         <v>12.5</v>
       </c>
-      <c r="N225" t="n">
+      <c r="N225" s="3" t="n">
         <v>2351.87221</v>
       </c>
       <c r="O225" t="n">
@@ -28555,7 +28952,7 @@
           <t>HD 196067</t>
         </is>
       </c>
-      <c r="AS225" t="n">
+      <c r="AS225" s="3" t="n">
         <v>2.984741826641151</v>
       </c>
       <c r="AT225" t="n">
@@ -28602,12 +28999,14 @@
       <c r="I226" t="n">
         <v>4.6</v>
       </c>
-      <c r="L226" t="n">
+      <c r="J226" s="3" t="n"/>
+      <c r="L226" s="3" t="n">
         <v>413.17693</v>
       </c>
       <c r="M226" t="n">
         <v>1.3</v>
       </c>
+      <c r="N226" s="3" t="n"/>
       <c r="R226" t="n">
         <v>413.17693</v>
       </c>
@@ -28664,7 +29063,7 @@
           <t>HD 185283</t>
         </is>
       </c>
-      <c r="AS226" t="n">
+      <c r="AS226" s="3" t="n">
         <v>2.986545918523962</v>
       </c>
       <c r="AT226" t="n">
@@ -28711,7 +29110,9 @@
       <c r="I227" t="n">
         <v>0.1059</v>
       </c>
-      <c r="N227" t="n">
+      <c r="J227" s="3" t="n"/>
+      <c r="L227" s="3" t="n"/>
+      <c r="N227" s="3" t="n">
         <v>12.77</v>
       </c>
       <c r="O227" t="n">
@@ -28790,7 +29191,7 @@
           <t>HD 51608</t>
         </is>
       </c>
-      <c r="AS227" t="n">
+      <c r="AS227" s="3" t="n">
         <v>2.99020378936647</v>
       </c>
       <c r="AT227" t="n">
@@ -28837,7 +29238,9 @@
       <c r="I228" t="n">
         <v>0.3809</v>
       </c>
-      <c r="N228" t="n">
+      <c r="J228" s="3" t="n"/>
+      <c r="L228" s="3" t="n"/>
+      <c r="N228" s="3" t="n">
         <v>14.31</v>
       </c>
       <c r="O228" t="n">
@@ -28916,7 +29319,7 @@
           <t>HD 51608</t>
         </is>
       </c>
-      <c r="AS228" t="n">
+      <c r="AS228" s="3" t="n">
         <v>2.99020378936647</v>
       </c>
       <c r="AT228" t="n">
@@ -28963,7 +29366,9 @@
       <c r="I229" t="n">
         <v>0.05</v>
       </c>
-      <c r="N229" t="n">
+      <c r="J229" s="3" t="n"/>
+      <c r="L229" s="3" t="n"/>
+      <c r="N229" s="3" t="n">
         <v>22.51405</v>
       </c>
       <c r="O229" t="n">
@@ -29034,7 +29439,7 @@
           <t>HD 47186</t>
         </is>
       </c>
-      <c r="AS229" t="n">
+      <c r="AS229" s="3" t="n">
         <v>2.991828006451728</v>
       </c>
       <c r="AT229" t="n">
@@ -29081,7 +29486,9 @@
       <c r="I230" t="n">
         <v>2.395</v>
       </c>
-      <c r="N230" t="n">
+      <c r="J230" s="3" t="n"/>
+      <c r="L230" s="3" t="n"/>
+      <c r="N230" s="3" t="n">
         <v>111.42</v>
       </c>
       <c r="O230" t="n">
@@ -29132,7 +29539,7 @@
           <t>HD 47186</t>
         </is>
       </c>
-      <c r="AS230" t="n">
+      <c r="AS230" s="3" t="n">
         <v>2.991828006451728</v>
       </c>
       <c r="AT230" t="n">
@@ -29174,7 +29581,9 @@
       <c r="I231" t="n">
         <v>0.243</v>
       </c>
-      <c r="N231" t="n">
+      <c r="J231" s="3" t="n"/>
+      <c r="L231" s="3" t="n"/>
+      <c r="N231" s="3" t="n">
         <v>12.9</v>
       </c>
       <c r="O231" t="n">
@@ -29230,7 +29639,7 @@
           <t>HIP 107772</t>
         </is>
       </c>
-      <c r="AS231" t="n">
+      <c r="AS231" s="3" t="n">
         <v>3.00799452680244</v>
       </c>
       <c r="AT231" t="n">
@@ -29277,7 +29686,9 @@
       <c r="I232" t="n">
         <v>0.6803</v>
       </c>
-      <c r="N232" t="n">
+      <c r="J232" s="3" t="n"/>
+      <c r="L232" s="3" t="n"/>
+      <c r="N232" s="3" t="n">
         <v>59.83011</v>
       </c>
       <c r="O232" t="n">
@@ -29359,7 +29770,7 @@
           <t>HD 45364</t>
         </is>
       </c>
-      <c r="AS232" t="n">
+      <c r="AS232" s="3" t="n">
         <v>3.015242306979891</v>
       </c>
       <c r="AT232" t="n">
@@ -29406,7 +29817,9 @@
       <c r="I233" t="n">
         <v>0.8996</v>
       </c>
-      <c r="N233" t="n">
+      <c r="J233" s="3" t="n"/>
+      <c r="L233" s="3" t="n"/>
+      <c r="N233" s="3" t="n">
         <v>191.78965</v>
       </c>
       <c r="O233" t="n">
@@ -29488,7 +29901,7 @@
           <t>HD 45364</t>
         </is>
       </c>
-      <c r="AS233" t="n">
+      <c r="AS233" s="3" t="n">
         <v>3.015242306979891</v>
       </c>
       <c r="AT233" t="n">
@@ -29535,7 +29948,9 @@
       <c r="I234" t="n">
         <v>1.02</v>
       </c>
-      <c r="N234" t="n">
+      <c r="J234" s="3" t="n"/>
+      <c r="L234" s="3" t="n"/>
+      <c r="N234" s="3" t="n">
         <v>117.5971</v>
       </c>
       <c r="O234" t="n">
@@ -29609,7 +30024,7 @@
           <t>HD 38283</t>
         </is>
       </c>
-      <c r="AS234" t="n">
+      <c r="AS234" s="3" t="n">
         <v>3.019552556572418</v>
       </c>
       <c r="AT234" t="n">
@@ -29656,7 +30071,9 @@
       <c r="I235" t="n">
         <v>1.6592</v>
       </c>
-      <c r="N235" t="n">
+      <c r="J235" s="3" t="n"/>
+      <c r="L235" s="3" t="n"/>
+      <c r="N235" s="3" t="n">
         <v>254.57452</v>
       </c>
       <c r="O235" t="n">
@@ -29730,7 +30147,7 @@
           <t>HD 4208</t>
         </is>
       </c>
-      <c r="AS235" t="n">
+      <c r="AS235" s="3" t="n">
         <v>3.03733644526516</v>
       </c>
       <c r="AT235" t="n">
@@ -29777,18 +30194,19 @@
       <c r="I236" t="n">
         <v>0.262</v>
       </c>
-      <c r="J236" t="n">
+      <c r="J236" s="3" t="n">
         <v>4.128</v>
       </c>
       <c r="K236" t="n">
         <v>0.3685</v>
       </c>
-      <c r="L236" t="n">
+      <c r="L236" s="3" t="n">
         <v>42.44</v>
       </c>
       <c r="M236" t="n">
         <v>0.13353</v>
       </c>
+      <c r="N236" s="3" t="n"/>
       <c r="R236" t="n">
         <v>42.44</v>
       </c>
@@ -29877,7 +30295,7 @@
           <t>HD 95338</t>
         </is>
       </c>
-      <c r="AS236" t="n">
+      <c r="AS236" s="3" t="n">
         <v>3.075412942076768</v>
       </c>
       <c r="AT236" t="n">
@@ -29924,7 +30342,9 @@
       <c r="I237" t="n">
         <v>1.565333333333333</v>
       </c>
-      <c r="N237" t="n">
+      <c r="J237" s="3" t="n"/>
+      <c r="L237" s="3" t="n"/>
+      <c r="N237" s="3" t="n">
         <v>800.9121</v>
       </c>
       <c r="O237" t="n">
@@ -29995,7 +30415,7 @@
           <t>HD 23079</t>
         </is>
       </c>
-      <c r="AS237" t="n">
+      <c r="AS237" s="3" t="n">
         <v>3.076336552916664</v>
       </c>
       <c r="AT237" t="n">
@@ -30042,7 +30462,9 @@
       <c r="I238" t="n">
         <v>0.077</v>
       </c>
-      <c r="N238" t="n">
+      <c r="J238" s="3" t="n"/>
+      <c r="L238" s="3" t="n"/>
+      <c r="N238" s="3" t="n">
         <v>3853.7236</v>
       </c>
       <c r="O238" t="n">
@@ -30127,7 +30549,7 @@
           <t>HD 162020</t>
         </is>
       </c>
-      <c r="AS238" t="n">
+      <c r="AS238" s="3" t="n">
         <v>3.090596509029629</v>
       </c>
       <c r="AT238" t="n">
@@ -30169,7 +30591,9 @@
       <c r="I239" t="n">
         <v>0.492</v>
       </c>
-      <c r="N239" t="n">
+      <c r="J239" s="3" t="n"/>
+      <c r="L239" s="3" t="n"/>
+      <c r="N239" s="3" t="n">
         <v>263.79758</v>
       </c>
       <c r="O239" t="n">
@@ -30225,7 +30649,7 @@
           <t>HIP 34222</t>
         </is>
       </c>
-      <c r="AS239" t="n">
+      <c r="AS239" s="3" t="n">
         <v>3.127362523227569</v>
       </c>
       <c r="AT239" t="n">
@@ -30267,7 +30691,9 @@
       <c r="I240" t="n">
         <v>0.217</v>
       </c>
-      <c r="N240" t="n">
+      <c r="J240" s="3" t="n"/>
+      <c r="L240" s="3" t="n"/>
+      <c r="N240" s="3" t="n">
         <v>12.7</v>
       </c>
       <c r="O240" t="n">
@@ -30326,7 +30752,7 @@
           <t>HIP 35173</t>
         </is>
       </c>
-      <c r="AS240" t="n">
+      <c r="AS240" s="3" t="n">
         <v>3.133239374511851</v>
       </c>
       <c r="AT240" t="n">
@@ -30368,12 +30794,14 @@
       <c r="I241" t="n">
         <v>20.247</v>
       </c>
-      <c r="L241" t="n">
+      <c r="J241" s="3" t="n"/>
+      <c r="L241" s="3" t="n">
         <v>2510.52659</v>
       </c>
       <c r="M241" t="n">
         <v>7.899</v>
       </c>
+      <c r="N241" s="3" t="n"/>
       <c r="R241" t="n">
         <v>2510.52659</v>
       </c>
@@ -30419,7 +30847,7 @@
           <t>HD 11505</t>
         </is>
       </c>
-      <c r="AS241" t="n">
+      <c r="AS241" s="3" t="n">
         <v>3.134689003215079</v>
       </c>
       <c r="AT241" t="n">
@@ -30461,7 +30889,9 @@
       <c r="I242" t="n">
         <v>0.3</v>
       </c>
-      <c r="N242" t="n">
+      <c r="J242" s="3" t="n"/>
+      <c r="L242" s="3" t="n"/>
+      <c r="N242" s="3" t="n">
         <v>15.37</v>
       </c>
       <c r="O242" t="n">
@@ -30544,7 +30974,7 @@
           <t>BD-11 4672</t>
         </is>
       </c>
-      <c r="AS242" t="n">
+      <c r="AS242" s="3" t="n">
         <v>3.135657061312926</v>
       </c>
       <c r="AT242" t="n">
@@ -30586,7 +31016,9 @@
       <c r="I243" t="n">
         <v>2.32</v>
       </c>
-      <c r="N243" t="n">
+      <c r="J243" s="3" t="n"/>
+      <c r="L243" s="3" t="n"/>
+      <c r="N243" s="3" t="n">
         <v>187.51475</v>
       </c>
       <c r="O243" t="n">
@@ -30674,7 +31106,7 @@
           <t>BD-11 4672</t>
         </is>
       </c>
-      <c r="AS243" t="n">
+      <c r="AS243" s="3" t="n">
         <v>3.135657061312926</v>
       </c>
       <c r="AT243" t="n">
@@ -30716,12 +31148,14 @@
       <c r="I244" t="n">
         <v>13.895</v>
       </c>
-      <c r="L244" t="n">
+      <c r="J244" s="3" t="n"/>
+      <c r="L244" s="3" t="n">
         <v>2511.7979</v>
       </c>
       <c r="M244" t="n">
         <v>7.903</v>
       </c>
+      <c r="N244" s="3" t="n"/>
       <c r="R244" t="n">
         <v>2511.7979</v>
       </c>
@@ -30767,7 +31201,7 @@
           <t>HD 88072</t>
         </is>
       </c>
-      <c r="AS244" t="n">
+      <c r="AS244" s="3" t="n">
         <v>3.135771617821764</v>
       </c>
       <c r="AT244" t="n">
@@ -30814,13 +31248,14 @@
       <c r="I245" t="n">
         <v>1.946666666666667</v>
       </c>
-      <c r="L245" t="n">
+      <c r="J245" s="3" t="n"/>
+      <c r="L245" s="3" t="n">
         <v>1655.886</v>
       </c>
       <c r="M245" t="n">
         <v>5.21</v>
       </c>
-      <c r="N245" t="n">
+      <c r="N245" s="3" t="n">
         <v>1559.483403333333</v>
       </c>
       <c r="O245" t="n">
@@ -30899,7 +31334,7 @@
           <t>HD 213240</t>
         </is>
       </c>
-      <c r="AS245" t="n">
+      <c r="AS245" s="3" t="n">
         <v>3.138853557673119</v>
       </c>
       <c r="AT245" t="n">
@@ -30946,7 +31381,9 @@
       <c r="I246" t="n">
         <v>1.837</v>
       </c>
-      <c r="N246" t="n">
+      <c r="J246" s="3" t="n"/>
+      <c r="L246" s="3" t="n"/>
+      <c r="N246" s="3" t="n">
         <v>75.32571</v>
       </c>
       <c r="O246" t="n">
@@ -31020,7 +31457,7 @@
           <t>HD 126525</t>
         </is>
       </c>
-      <c r="AS246" t="n">
+      <c r="AS246" s="3" t="n">
         <v>3.145713499267128</v>
       </c>
       <c r="AT246" t="n">
@@ -31067,7 +31504,9 @@
       <c r="I247" t="n">
         <v>1.0435</v>
       </c>
-      <c r="N247" t="n">
+      <c r="J247" s="3" t="n"/>
+      <c r="L247" s="3" t="n"/>
+      <c r="N247" s="3" t="n">
         <v>1894.621165</v>
       </c>
       <c r="O247" t="n">
@@ -31146,7 +31585,7 @@
           <t>HD 28185</t>
         </is>
       </c>
-      <c r="AS247" t="n">
+      <c r="AS247" s="3" t="n">
         <v>3.164373314829112</v>
       </c>
       <c r="AT247" t="n">
@@ -31193,12 +31632,14 @@
       <c r="I248" t="n">
         <v>13.176</v>
       </c>
-      <c r="L248" t="n">
+      <c r="J248" s="3" t="n"/>
+      <c r="L248" s="3" t="n">
         <v>6241.83209</v>
       </c>
       <c r="M248" t="n">
         <v>19.639</v>
       </c>
+      <c r="N248" s="3" t="n"/>
       <c r="R248" t="n">
         <v>6241.83209</v>
       </c>
@@ -31244,7 +31685,7 @@
           <t>HD 28185</t>
         </is>
       </c>
-      <c r="AS248" t="n">
+      <c r="AS248" s="3" t="n">
         <v>3.164373314829112</v>
       </c>
       <c r="AT248" t="n">
@@ -31286,18 +31727,19 @@
       <c r="I249" t="n">
         <v>0.098</v>
       </c>
-      <c r="J249" t="n">
+      <c r="J249" s="3" t="n">
         <v>3.2855</v>
       </c>
       <c r="K249" t="n">
         <v>0.2935</v>
       </c>
-      <c r="L249" t="n">
+      <c r="L249" s="3" t="n">
         <v>9.9</v>
       </c>
       <c r="M249" t="n">
         <v>0.03115</v>
       </c>
+      <c r="N249" s="3" t="n"/>
       <c r="R249" t="n">
         <v>9.9</v>
       </c>
@@ -31375,7 +31817,7 @@
           <t>TOI-431</t>
         </is>
       </c>
-      <c r="AS249" t="n">
+      <c r="AS249" s="3" t="n">
         <v>3.180623248192477</v>
       </c>
       <c r="AT249" t="n">
@@ -31417,7 +31859,9 @@
       <c r="I250" t="n">
         <v>0.052</v>
       </c>
-      <c r="N250" t="n">
+      <c r="J250" s="3" t="n"/>
+      <c r="L250" s="3" t="n"/>
+      <c r="N250" s="3" t="n">
         <v>2.83</v>
       </c>
       <c r="O250" t="n">
@@ -31494,7 +31938,7 @@
           <t>TOI-431</t>
         </is>
       </c>
-      <c r="AS250" t="n">
+      <c r="AS250" s="3" t="n">
         <v>3.180623248192477</v>
       </c>
       <c r="AT250" t="n">
@@ -31536,18 +31980,19 @@
       <c r="I251" t="n">
         <v>0.0113</v>
       </c>
-      <c r="J251" t="n">
+      <c r="J251" s="3" t="n">
         <v>1.377</v>
       </c>
       <c r="K251" t="n">
         <v>0.123</v>
       </c>
-      <c r="L251" t="n">
+      <c r="L251" s="3" t="n">
         <v>3.07</v>
       </c>
       <c r="M251" t="n">
         <v>0.00966</v>
       </c>
+      <c r="N251" s="3" t="n"/>
       <c r="R251" t="n">
         <v>3.07</v>
       </c>
@@ -31625,7 +32070,7 @@
           <t>TOI-431</t>
         </is>
       </c>
-      <c r="AS251" t="n">
+      <c r="AS251" s="3" t="n">
         <v>3.180623248192477</v>
       </c>
       <c r="AT251" t="n">
@@ -31672,13 +32117,14 @@
       <c r="I252" t="n">
         <v>1.9535</v>
       </c>
-      <c r="L252" t="n">
+      <c r="J252" s="3" t="n"/>
+      <c r="L252" s="3" t="n">
         <v>2339.0581625</v>
       </c>
       <c r="M252" t="n">
         <v>7.359500000000001</v>
       </c>
-      <c r="N252" t="n">
+      <c r="N252" s="3" t="n">
         <v>2208.9130575</v>
       </c>
       <c r="O252" t="n">
@@ -31763,7 +32209,7 @@
           <t>HD 81040</t>
         </is>
       </c>
-      <c r="AS252" t="n">
+      <c r="AS252" s="3" t="n">
         <v>3.192037683897101</v>
       </c>
       <c r="AT252" t="n">
@@ -31810,13 +32256,14 @@
       <c r="I253" t="n">
         <v>6.296</v>
       </c>
-      <c r="L253" t="n">
+      <c r="J253" s="3" t="n"/>
+      <c r="L253" s="3" t="n">
         <v>2939.43602</v>
       </c>
       <c r="M253" t="n">
         <v>9.2485</v>
       </c>
-      <c r="N253" t="n">
+      <c r="N253" s="3" t="n">
         <v>1493.79708</v>
       </c>
       <c r="O253" t="n">
@@ -31898,7 +32345,7 @@
           <t>HD 25015</t>
         </is>
       </c>
-      <c r="AS253" t="n">
+      <c r="AS253" s="3" t="n">
         <v>3.193112044905435</v>
       </c>
       <c r="AT253" t="n">
@@ -31945,7 +32392,9 @@
       <c r="I254" t="n">
         <v>0.03985285714285714</v>
       </c>
-      <c r="N254" t="n">
+      <c r="J254" s="3" t="n"/>
+      <c r="L254" s="3" t="n"/>
+      <c r="N254" s="3" t="n">
         <v>121.1823771428571</v>
       </c>
       <c r="O254" t="n">
@@ -32033,7 +32482,7 @@
           <t>HD 83443</t>
         </is>
       </c>
-      <c r="AS254" t="n">
+      <c r="AS254" s="3" t="n">
         <v>3.196578268060375</v>
       </c>
       <c r="AT254" t="n">
@@ -32080,13 +32529,14 @@
       <c r="I255" t="n">
         <v>8</v>
       </c>
-      <c r="L255" t="n">
+      <c r="J255" s="3" t="n"/>
+      <c r="L255" s="3" t="n">
         <v>476.74261</v>
       </c>
       <c r="M255" t="n">
         <v>1.5</v>
       </c>
-      <c r="N255" t="n">
+      <c r="N255" s="3" t="n">
         <v>429.06835</v>
       </c>
       <c r="O255" t="n">
@@ -32174,7 +32624,7 @@
           <t>HD 83443</t>
         </is>
       </c>
-      <c r="AS255" t="n">
+      <c r="AS255" s="3" t="n">
         <v>3.196578268060376</v>
       </c>
       <c r="AT255" t="n">
@@ -32221,13 +32671,14 @@
       <c r="I256" t="n">
         <v>3.411666666666667</v>
       </c>
-      <c r="L256" t="n">
+      <c r="J256" s="3" t="n"/>
+      <c r="L256" s="3" t="n">
         <v>657.9048</v>
       </c>
       <c r="M256" t="n">
         <v>2.07</v>
       </c>
-      <c r="N256" t="n">
+      <c r="N256" s="3" t="n">
         <v>223.5396833333333</v>
       </c>
       <c r="O256" t="n">
@@ -32303,7 +32754,7 @@
           <t>HD 32963</t>
         </is>
       </c>
-      <c r="AS256" t="n">
+      <c r="AS256" s="3" t="n">
         <v>3.205595596606246</v>
       </c>
       <c r="AT256" t="n">
@@ -32350,7 +32801,9 @@
       <c r="I257" t="n">
         <v>1.055</v>
       </c>
-      <c r="N257" t="n">
+      <c r="J257" s="3" t="n"/>
+      <c r="L257" s="3" t="n"/>
+      <c r="N257" s="3" t="n">
         <v>522.88805</v>
       </c>
       <c r="O257" t="n">
@@ -32427,7 +32880,7 @@
           <t>HD 142415</t>
         </is>
       </c>
-      <c r="AS257" t="n">
+      <c r="AS257" s="3" t="n">
         <v>3.21533059793347</v>
       </c>
       <c r="AT257" t="n">
@@ -32474,7 +32927,9 @@
       <c r="I258" t="n">
         <v>1.33525</v>
       </c>
-      <c r="N258" t="n">
+      <c r="J258" s="3" t="n"/>
+      <c r="L258" s="3" t="n"/>
+      <c r="N258" s="3" t="n">
         <v>392.9133875</v>
       </c>
       <c r="O258" t="n">
@@ -32556,7 +33011,7 @@
           <t>HD 65216</t>
         </is>
       </c>
-      <c r="AS258" t="n">
+      <c r="AS258" s="3" t="n">
         <v>3.277856602594853</v>
       </c>
       <c r="AT258" t="n">
@@ -32603,7 +33058,9 @@
       <c r="I259" t="n">
         <v>3.145</v>
       </c>
-      <c r="N259" t="n">
+      <c r="J259" s="3" t="n"/>
+      <c r="L259" s="3" t="n"/>
+      <c r="N259" s="3" t="n">
         <v>349.61245</v>
       </c>
       <c r="O259" t="n">
@@ -32677,7 +33134,7 @@
           <t>HD 65216</t>
         </is>
       </c>
-      <c r="AS259" t="n">
+      <c r="AS259" s="3" t="n">
         <v>3.277856602594853</v>
       </c>
       <c r="AT259" t="n">
@@ -32724,18 +33181,19 @@
       <c r="I260" t="n">
         <v>0.049</v>
       </c>
-      <c r="J260" t="n">
+      <c r="J260" s="3" t="n">
         <v>2.658666666666667</v>
       </c>
       <c r="K260" t="n">
         <v>0.2373333333333333</v>
       </c>
-      <c r="L260" t="n">
+      <c r="L260" s="3" t="n">
         <v>24.8</v>
       </c>
       <c r="M260" t="n">
         <v>0.07802999999999999</v>
       </c>
+      <c r="N260" s="3" t="n"/>
       <c r="R260" t="n">
         <v>24.8</v>
       </c>
@@ -32827,7 +33285,7 @@
           <t>HD 18599</t>
         </is>
       </c>
-      <c r="AS260" t="n">
+      <c r="AS260" s="3" t="n">
         <v>3.281657243391717</v>
       </c>
       <c r="AT260" t="n">
@@ -32874,7 +33332,9 @@
       <c r="I261" t="n">
         <v>0.174</v>
       </c>
-      <c r="N261" t="n">
+      <c r="J261" s="3" t="n"/>
+      <c r="L261" s="3" t="n"/>
+      <c r="N261" s="3" t="n">
         <v>55.78573</v>
       </c>
       <c r="O261" t="n">
@@ -32956,7 +33416,7 @@
           <t>HD 117618</t>
         </is>
       </c>
-      <c r="AS261" t="n">
+      <c r="AS261" s="3" t="n">
         <v>3.291973248596805</v>
       </c>
       <c r="AT261" t="n">
@@ -33003,7 +33463,9 @@
       <c r="I262" t="n">
         <v>0.4929</v>
       </c>
-      <c r="N262" t="n">
+      <c r="J262" s="3" t="n"/>
+      <c r="L262" s="3" t="n"/>
+      <c r="N262" s="3" t="n">
         <v>23.423665</v>
       </c>
       <c r="O262" t="n">
@@ -33091,7 +33553,7 @@
           <t>HD 10180</t>
         </is>
       </c>
-      <c r="AS262" t="n">
+      <c r="AS262" s="3" t="n">
         <v>3.307743270653459</v>
       </c>
       <c r="AT262" t="n">
@@ -33138,7 +33600,9 @@
       <c r="I263" t="n">
         <v>1.4245</v>
       </c>
-      <c r="N263" t="n">
+      <c r="J263" s="3" t="n"/>
+      <c r="L263" s="3" t="n"/>
+      <c r="N263" s="3" t="n">
         <v>22.33258</v>
       </c>
       <c r="O263" t="n">
@@ -33226,7 +33690,7 @@
           <t>HD 10180</t>
         </is>
       </c>
-      <c r="AS263" t="n">
+      <c r="AS263" s="3" t="n">
         <v>3.307743270653459</v>
       </c>
       <c r="AT263" t="n">
@@ -33273,7 +33737,9 @@
       <c r="I264" t="n">
         <v>3.3905</v>
       </c>
-      <c r="N264" t="n">
+      <c r="J264" s="3" t="n"/>
+      <c r="L264" s="3" t="n"/>
+      <c r="N264" s="3" t="n">
         <v>65.03184</v>
       </c>
       <c r="O264" t="n">
@@ -33361,7 +33827,7 @@
           <t>HD 10180</t>
         </is>
       </c>
-      <c r="AS264" t="n">
+      <c r="AS264" s="3" t="n">
         <v>3.307743270653459</v>
       </c>
       <c r="AT264" t="n">
@@ -33408,7 +33874,9 @@
       <c r="I265" t="n">
         <v>0.06411</v>
       </c>
-      <c r="N265" t="n">
+      <c r="J265" s="3" t="n"/>
+      <c r="L265" s="3" t="n"/>
+      <c r="N265" s="3" t="n">
         <v>13.160865</v>
       </c>
       <c r="O265" t="n">
@@ -33496,7 +33964,7 @@
           <t>HD 10180</t>
         </is>
       </c>
-      <c r="AS265" t="n">
+      <c r="AS265" s="3" t="n">
         <v>3.307743270653459</v>
       </c>
       <c r="AT265" t="n">
@@ -33543,7 +34011,9 @@
       <c r="I266" t="n">
         <v>0.128595</v>
       </c>
-      <c r="N266" t="n">
+      <c r="J266" s="3" t="n"/>
+      <c r="L266" s="3" t="n"/>
+      <c r="N266" s="3" t="n">
         <v>11.881985</v>
       </c>
       <c r="O266" t="n">
@@ -33631,7 +34101,7 @@
           <t>HD 10180</t>
         </is>
       </c>
-      <c r="AS266" t="n">
+      <c r="AS266" s="3" t="n">
         <v>3.307743270653459</v>
       </c>
       <c r="AT266" t="n">
@@ -33678,7 +34148,9 @@
       <c r="I267" t="n">
         <v>0.2699</v>
       </c>
-      <c r="N267" t="n">
+      <c r="J267" s="3" t="n"/>
+      <c r="L267" s="3" t="n"/>
+      <c r="N267" s="3" t="n">
         <v>25.34266</v>
       </c>
       <c r="O267" t="n">
@@ -33766,7 +34238,7 @@
           <t>HD 10180</t>
         </is>
       </c>
-      <c r="AS267" t="n">
+      <c r="AS267" s="3" t="n">
         <v>3.307743270653459</v>
       </c>
       <c r="AT267" t="n">
@@ -33813,7 +34285,9 @@
       <c r="I268" t="n">
         <v>1.922</v>
       </c>
-      <c r="N268" t="n">
+      <c r="J268" s="3" t="n"/>
+      <c r="L268" s="3" t="n"/>
+      <c r="N268" s="3" t="n">
         <v>2080</v>
       </c>
       <c r="O268" t="n">
@@ -33889,7 +34363,7 @@
           <t>HD 147018</t>
         </is>
       </c>
-      <c r="AS268" t="n">
+      <c r="AS268" s="3" t="n">
         <v>3.31258230758836</v>
       </c>
       <c r="AT268" t="n">
@@ -33936,7 +34410,9 @@
       <c r="I269" t="n">
         <v>0.2388</v>
       </c>
-      <c r="N269" t="n">
+      <c r="J269" s="3" t="n"/>
+      <c r="L269" s="3" t="n"/>
+      <c r="N269" s="3" t="n">
         <v>674</v>
       </c>
       <c r="O269" t="n">
@@ -34012,7 +34488,7 @@
           <t>HD 147018</t>
         </is>
       </c>
-      <c r="AS269" t="n">
+      <c r="AS269" s="3" t="n">
         <v>3.31258230758836</v>
       </c>
       <c r="AT269" t="n">
@@ -34059,7 +34535,9 @@
       <c r="I270" t="n">
         <v>0.0485</v>
       </c>
-      <c r="N270" t="n">
+      <c r="J270" s="3" t="n"/>
+      <c r="L270" s="3" t="n"/>
+      <c r="N270" s="3" t="n">
         <v>6.4783</v>
       </c>
       <c r="O270" t="n">
@@ -34141,7 +34619,7 @@
           <t>HD 215497</t>
         </is>
       </c>
-      <c r="AS270" t="n">
+      <c r="AS270" s="3" t="n">
         <v>3.31424303432085</v>
       </c>
       <c r="AT270" t="n">
@@ -34188,13 +34666,14 @@
       <c r="I271" t="n">
         <v>1.296</v>
       </c>
-      <c r="L271" t="n">
+      <c r="J271" s="3" t="n"/>
+      <c r="L271" s="3" t="n">
         <v>111.23994</v>
       </c>
       <c r="M271" t="n">
         <v>0.35</v>
       </c>
-      <c r="N271" t="n">
+      <c r="N271" s="3" t="n">
         <v>104.3</v>
       </c>
       <c r="O271" t="n">
@@ -34273,7 +34752,7 @@
           <t>HD 215497</t>
         </is>
       </c>
-      <c r="AS271" t="n">
+      <c r="AS271" s="3" t="n">
         <v>3.31424303432085</v>
       </c>
       <c r="AT271" t="n">
@@ -34315,13 +34794,14 @@
       <c r="I272" t="n">
         <v>5.9</v>
       </c>
-      <c r="L272" t="n">
+      <c r="J272" s="3" t="n"/>
+      <c r="L272" s="3" t="n">
         <v>1525.57635</v>
       </c>
       <c r="M272" t="n">
         <v>4.8</v>
       </c>
-      <c r="N272" t="n">
+      <c r="N272" s="3" t="n">
         <v>759</v>
       </c>
       <c r="O272" t="n">
@@ -34406,7 +34886,7 @@
           <t>BD-210397</t>
         </is>
       </c>
-      <c r="AS272" t="n">
+      <c r="AS272" s="3" t="n">
         <v>3.358638469562708</v>
       </c>
       <c r="AT272" t="n">
@@ -34448,7 +34928,9 @@
       <c r="I273" t="n">
         <v>2.63</v>
       </c>
-      <c r="N273" t="n">
+      <c r="J273" s="3" t="n"/>
+      <c r="L273" s="3" t="n"/>
+      <c r="N273" s="3" t="n">
         <v>214</v>
       </c>
       <c r="O273" t="n">
@@ -34533,7 +35015,7 @@
           <t>BD-210397</t>
         </is>
       </c>
-      <c r="AS273" t="n">
+      <c r="AS273" s="3" t="n">
         <v>3.358638469562708</v>
       </c>
       <c r="AT273" t="n">
@@ -34580,7 +35062,9 @@
       <c r="I274" t="n">
         <v>1.28</v>
       </c>
-      <c r="N274" t="n">
+      <c r="J274" s="3" t="n"/>
+      <c r="L274" s="3" t="n"/>
+      <c r="N274" s="3" t="n">
         <v>518.52589</v>
       </c>
       <c r="O274" t="n">
@@ -34659,7 +35143,7 @@
           <t>HD 4113</t>
         </is>
       </c>
-      <c r="AS274" t="n">
+      <c r="AS274" s="3" t="n">
         <v>3.360210983027314</v>
       </c>
       <c r="AT274" t="n">
@@ -34706,13 +35190,14 @@
       <c r="I275" t="n">
         <v>2.65586</v>
       </c>
-      <c r="L275" t="n">
+      <c r="J275" s="3" t="n"/>
+      <c r="L275" s="3" t="n">
         <v>3178.28407</v>
       </c>
       <c r="M275" t="n">
         <v>10</v>
       </c>
-      <c r="N275" t="n">
+      <c r="N275" s="3" t="n">
         <v>2302.509846</v>
       </c>
       <c r="O275" t="n">
@@ -34797,7 +35282,7 @@
           <t>HD 106252</t>
         </is>
       </c>
-      <c r="AS275" t="n">
+      <c r="AS275" s="3" t="n">
         <v>3.365152639299339</v>
       </c>
       <c r="AT275" t="n">
@@ -34839,12 +35324,14 @@
       <c r="I276" t="n">
         <v>13.38</v>
       </c>
-      <c r="L276" t="n">
+      <c r="J276" s="3" t="n"/>
+      <c r="L276" s="3" t="n">
         <v>2598.56506</v>
       </c>
       <c r="M276" t="n">
         <v>8.176</v>
       </c>
+      <c r="N276" s="3" t="n"/>
       <c r="R276" t="n">
         <v>2598.56506</v>
       </c>
@@ -34890,7 +35377,7 @@
           <t>HD 11112</t>
         </is>
       </c>
-      <c r="AS276" t="n">
+      <c r="AS276" s="3" t="n">
         <v>3.380672376739114</v>
       </c>
       <c r="AT276" t="n">
@@ -34934,7 +35421,9 @@
       <c r="H277" t="n">
         <v>1.3282495</v>
       </c>
-      <c r="N277" t="n">
+      <c r="J277" s="3" t="n"/>
+      <c r="L277" s="3" t="n"/>
+      <c r="N277" s="3" t="n">
         <v>5881.195</v>
       </c>
       <c r="O277" t="n">
@@ -34987,7 +35476,7 @@
           <t>HD 41004 B</t>
         </is>
       </c>
-      <c r="AS277" t="n">
+      <c r="AS277" s="3" t="n">
         <v>3.385835928923256</v>
       </c>
       <c r="AT277" t="n">
@@ -35026,7 +35515,9 @@
       <c r="H278" t="n">
         <v>963</v>
       </c>
-      <c r="N278" t="n">
+      <c r="J278" s="3" t="n"/>
+      <c r="L278" s="3" t="n"/>
+      <c r="N278" s="3" t="n">
         <v>807.25</v>
       </c>
       <c r="O278" t="n">
@@ -35066,7 +35557,7 @@
           <t>HD 41004 A</t>
         </is>
       </c>
-      <c r="AS278" t="n">
+      <c r="AS278" s="3" t="n">
         <v>3.385835928923256</v>
       </c>
       <c r="AT278" t="n">
@@ -35113,7 +35604,9 @@
       <c r="I279" t="n">
         <v>0.066485</v>
       </c>
-      <c r="N279" t="n">
+      <c r="J279" s="3" t="n"/>
+      <c r="L279" s="3" t="n"/>
+      <c r="N279" s="3" t="n">
         <v>77.66095999999999</v>
       </c>
       <c r="O279" t="n">
@@ -35195,7 +35688,7 @@
           <t>HD 168746</t>
         </is>
       </c>
-      <c r="AS279" t="n">
+      <c r="AS279" s="3" t="n">
         <v>3.387041307571788</v>
       </c>
       <c r="AT279" t="n">
@@ -35242,7 +35735,9 @@
       <c r="I280" t="n">
         <v>0.89</v>
       </c>
-      <c r="N280" t="n">
+      <c r="J280" s="3" t="n"/>
+      <c r="L280" s="3" t="n"/>
+      <c r="N280" s="3" t="n">
         <v>67.21955</v>
       </c>
       <c r="O280" t="n">
@@ -35316,7 +35811,7 @@
           <t>HD 137388</t>
         </is>
       </c>
-      <c r="AS280" t="n">
+      <c r="AS280" s="3" t="n">
         <v>3.421740221601691</v>
       </c>
       <c r="AT280" t="n">
@@ -35358,18 +35853,19 @@
       <c r="I281" t="n">
         <v>0.075</v>
       </c>
-      <c r="J281" t="n">
+      <c r="J281" s="3" t="n">
         <v>2.6135</v>
       </c>
       <c r="K281" t="n">
         <v>0.2335</v>
       </c>
-      <c r="L281" t="n">
+      <c r="L281" s="3" t="n">
         <v>9.6</v>
       </c>
       <c r="M281" t="n">
         <v>0.0302</v>
       </c>
+      <c r="N281" s="3" t="n"/>
       <c r="R281" t="n">
         <v>9.6</v>
       </c>
@@ -35458,7 +35954,7 @@
           <t>TOI-836</t>
         </is>
       </c>
-      <c r="AS281" t="n">
+      <c r="AS281" s="3" t="n">
         <v>3.425707330003564</v>
       </c>
       <c r="AT281" t="n">
@@ -35500,18 +35996,19 @@
       <c r="I282" t="n">
         <v>0.0422</v>
       </c>
-      <c r="J282" t="n">
+      <c r="J282" s="3" t="n">
         <v>1.6985</v>
       </c>
       <c r="K282" t="n">
         <v>0.1515</v>
       </c>
-      <c r="L282" t="n">
+      <c r="L282" s="3" t="n">
         <v>4.53</v>
       </c>
       <c r="M282" t="n">
         <v>0.01425</v>
       </c>
+      <c r="N282" s="3" t="n"/>
       <c r="R282" t="n">
         <v>4.53</v>
       </c>
@@ -35600,7 +36097,7 @@
           <t>TOI-836</t>
         </is>
       </c>
-      <c r="AS282" t="n">
+      <c r="AS282" s="3" t="n">
         <v>3.425707330003564</v>
       </c>
       <c r="AT282" t="n">
@@ -35647,7 +36144,9 @@
       <c r="I283" t="n">
         <v>0.2663</v>
       </c>
-      <c r="N283" t="n">
+      <c r="J283" s="3" t="n"/>
+      <c r="L283" s="3" t="n"/>
+      <c r="N283" s="3" t="n">
         <v>14.16</v>
       </c>
       <c r="O283" t="n">
@@ -35726,7 +36225,7 @@
           <t>HD 31527</t>
         </is>
       </c>
-      <c r="AS283" t="n">
+      <c r="AS283" s="3" t="n">
         <v>3.427266112218174</v>
       </c>
       <c r="AT283" t="n">
@@ -35773,7 +36272,9 @@
       <c r="I284" t="n">
         <v>0.8098</v>
       </c>
-      <c r="N284" t="n">
+      <c r="J284" s="3" t="n"/>
+      <c r="L284" s="3" t="n"/>
+      <c r="N284" s="3" t="n">
         <v>11.82</v>
       </c>
       <c r="O284" t="n">
@@ -35852,7 +36353,7 @@
           <t>HD 31527</t>
         </is>
       </c>
-      <c r="AS284" t="n">
+      <c r="AS284" s="3" t="n">
         <v>3.427266112218174</v>
       </c>
       <c r="AT284" t="n">
@@ -35899,7 +36400,9 @@
       <c r="I285" t="n">
         <v>0.1254</v>
       </c>
-      <c r="N285" t="n">
+      <c r="J285" s="3" t="n"/>
+      <c r="L285" s="3" t="n"/>
+      <c r="N285" s="3" t="n">
         <v>10.47</v>
       </c>
       <c r="O285" t="n">
@@ -35978,7 +36481,7 @@
           <t>HD 31527</t>
         </is>
       </c>
-      <c r="AS285" t="n">
+      <c r="AS285" s="3" t="n">
         <v>3.427266112218174</v>
       </c>
       <c r="AT285" t="n">
@@ -36025,7 +36528,9 @@
       <c r="I286" t="n">
         <v>6.36</v>
       </c>
-      <c r="N286" t="n">
+      <c r="J286" s="3" t="n"/>
+      <c r="L286" s="3" t="n"/>
+      <c r="N286" s="3" t="n">
         <v>120.6</v>
       </c>
       <c r="O286" t="n">
@@ -36107,7 +36612,7 @@
           <t>HD 34445</t>
         </is>
       </c>
-      <c r="AS286" t="n">
+      <c r="AS286" s="3" t="n">
         <v>3.44462998807251</v>
       </c>
       <c r="AT286" t="n">
@@ -36154,7 +36659,9 @@
       <c r="I287" t="n">
         <v>1.543</v>
       </c>
-      <c r="N287" t="n">
+      <c r="J287" s="3" t="n"/>
+      <c r="L287" s="3" t="n"/>
+      <c r="N287" s="3" t="n">
         <v>37.9</v>
       </c>
       <c r="O287" t="n">
@@ -36236,7 +36743,7 @@
           <t>HD 34445</t>
         </is>
       </c>
-      <c r="AS287" t="n">
+      <c r="AS287" s="3" t="n">
         <v>3.44462998807251</v>
       </c>
       <c r="AT287" t="n">
@@ -36283,7 +36790,9 @@
       <c r="I288" t="n">
         <v>0.2687</v>
       </c>
-      <c r="N288" t="n">
+      <c r="J288" s="3" t="n"/>
+      <c r="L288" s="3" t="n"/>
+      <c r="N288" s="3" t="n">
         <v>16.8</v>
       </c>
       <c r="O288" t="n">
@@ -36365,7 +36874,7 @@
           <t>HD 34445</t>
         </is>
       </c>
-      <c r="AS288" t="n">
+      <c r="AS288" s="3" t="n">
         <v>3.44462998807251</v>
       </c>
       <c r="AT288" t="n">
@@ -36412,7 +36921,9 @@
       <c r="I289" t="n">
         <v>0.4817</v>
       </c>
-      <c r="N289" t="n">
+      <c r="J289" s="3" t="n"/>
+      <c r="L289" s="3" t="n"/>
+      <c r="N289" s="3" t="n">
         <v>30.7</v>
       </c>
       <c r="O289" t="n">
@@ -36494,7 +37005,7 @@
           <t>HD 34445</t>
         </is>
       </c>
-      <c r="AS289" t="n">
+      <c r="AS289" s="3" t="n">
         <v>3.44462998807251</v>
       </c>
       <c r="AT289" t="n">
@@ -36541,7 +37052,9 @@
       <c r="I290" t="n">
         <v>0.7181</v>
       </c>
-      <c r="N290" t="n">
+      <c r="J290" s="3" t="n"/>
+      <c r="L290" s="3" t="n"/>
+      <c r="N290" s="3" t="n">
         <v>53.5</v>
       </c>
       <c r="O290" t="n">
@@ -36623,7 +37136,7 @@
           <t>HD 34445</t>
         </is>
       </c>
-      <c r="AS290" t="n">
+      <c r="AS290" s="3" t="n">
         <v>3.44462998807251</v>
       </c>
       <c r="AT290" t="n">
@@ -36670,7 +37183,9 @@
       <c r="I291" t="n">
         <v>2.08</v>
       </c>
-      <c r="N291" t="n">
+      <c r="J291" s="3" t="n"/>
+      <c r="L291" s="3" t="n"/>
+      <c r="N291" s="3" t="n">
         <v>229.9379225</v>
       </c>
       <c r="O291" t="n">
@@ -36752,7 +37267,7 @@
           <t>HD 34445</t>
         </is>
       </c>
-      <c r="AS291" t="n">
+      <c r="AS291" s="3" t="n">
         <v>3.44462998807251</v>
       </c>
       <c r="AT291" t="n">
@@ -36799,7 +37314,9 @@
       <c r="I292" t="n">
         <v>1.343</v>
       </c>
-      <c r="N292" t="n">
+      <c r="J292" s="3" t="n"/>
+      <c r="L292" s="3" t="n"/>
+      <c r="N292" s="3" t="n">
         <v>2327.2687375</v>
       </c>
       <c r="O292" t="n">
@@ -36867,7 +37384,7 @@
           <t>HD 222582</t>
         </is>
       </c>
-      <c r="AS292" t="n">
+      <c r="AS292" s="3" t="n">
         <v>3.453519900950665</v>
       </c>
       <c r="AT292" t="n">
@@ -36909,7 +37426,9 @@
       <c r="I293" t="n">
         <v>0.283</v>
       </c>
-      <c r="N293" t="n">
+      <c r="J293" s="3" t="n"/>
+      <c r="L293" s="3" t="n"/>
+      <c r="N293" s="3" t="n">
         <v>16.2</v>
       </c>
       <c r="O293" t="n">
@@ -36960,7 +37479,7 @@
           <t>GJ 2056</t>
         </is>
       </c>
-      <c r="AS293" t="n">
+      <c r="AS293" s="3" t="n">
         <v>3.463312480647553</v>
       </c>
       <c r="AT293" t="n">
@@ -37007,7 +37526,9 @@
       <c r="I294" t="n">
         <v>1.069666666666667</v>
       </c>
-      <c r="N294" t="n">
+      <c r="J294" s="3" t="n"/>
+      <c r="L294" s="3" t="n"/>
+      <c r="N294" s="3" t="n">
         <v>3357.296533333334</v>
       </c>
       <c r="O294" t="n">
@@ -37089,7 +37610,7 @@
           <t>HD 156846</t>
         </is>
       </c>
-      <c r="AS294" t="n">
+      <c r="AS294" s="3" t="n">
         <v>3.49539843415675</v>
       </c>
       <c r="AT294" t="n">
@@ -37133,18 +37654,19 @@
       <c r="I295" t="n">
         <v>487.1</v>
       </c>
-      <c r="J295" t="n">
+      <c r="J295" s="3" t="n">
         <v>14.46</v>
       </c>
       <c r="K295" t="n">
         <v>1.29</v>
       </c>
-      <c r="L295" t="n">
+      <c r="L295" s="3" t="n">
         <v>5576.10474</v>
       </c>
       <c r="M295" t="n">
         <v>17.545</v>
       </c>
+      <c r="N295" s="3" t="n"/>
       <c r="R295" t="n">
         <v>5576.10474</v>
       </c>
@@ -37195,7 +37717,7 @@
           <t>HD 203030</t>
         </is>
       </c>
-      <c r="AS295" t="n">
+      <c r="AS295" s="3" t="n">
         <v>3.520704509207194</v>
       </c>
       <c r="AT295" t="n">
@@ -37242,18 +37764,19 @@
       <c r="I296" t="n">
         <v>0.12375</v>
       </c>
-      <c r="J296" t="n">
+      <c r="J296" s="3" t="n">
         <v>2.372666666666667</v>
       </c>
       <c r="K296" t="n">
         <v>0.2113333333333333</v>
       </c>
-      <c r="L296" t="n">
+      <c r="L296" s="3" t="n">
         <v>16.1</v>
       </c>
       <c r="M296" t="n">
         <v>0.05065500000000001</v>
       </c>
+      <c r="N296" s="3" t="n"/>
       <c r="R296" t="n">
         <v>16.1</v>
       </c>
@@ -37345,7 +37868,7 @@
           <t>HD 73583</t>
         </is>
       </c>
-      <c r="AS296" t="n">
+      <c r="AS296" s="3" t="n">
         <v>3.521787600818508</v>
       </c>
       <c r="AT296" t="n">
@@ -37392,18 +37915,19 @@
       <c r="I297" t="n">
         <v>0.06411666666666667</v>
       </c>
-      <c r="J297" t="n">
+      <c r="J297" s="3" t="n">
         <v>2.685</v>
       </c>
       <c r="K297" t="n">
         <v>0.2395</v>
       </c>
-      <c r="L297" t="n">
+      <c r="L297" s="3" t="n">
         <v>13.05</v>
       </c>
       <c r="M297" t="n">
         <v>0.04106</v>
       </c>
+      <c r="N297" s="3" t="n"/>
       <c r="R297" t="n">
         <v>13.05</v>
       </c>
@@ -37495,7 +38019,7 @@
           <t>HD 73583</t>
         </is>
       </c>
-      <c r="AS297" t="n">
+      <c r="AS297" s="3" t="n">
         <v>3.521787600818508</v>
       </c>
       <c r="AT297" t="n">
@@ -37542,7 +38066,9 @@
       <c r="I298" t="n">
         <v>4.79625</v>
       </c>
-      <c r="N298" t="n">
+      <c r="J298" s="3" t="n"/>
+      <c r="L298" s="3" t="n"/>
+      <c r="N298" s="3" t="n">
         <v>1277.65305</v>
       </c>
       <c r="O298" t="n">
@@ -37616,7 +38142,7 @@
           <t>HD 24040</t>
         </is>
       </c>
-      <c r="AS298" t="n">
+      <c r="AS298" s="3" t="n">
         <v>3.528766459066142</v>
       </c>
       <c r="AT298" t="n">
@@ -37663,7 +38189,9 @@
       <c r="I299" t="n">
         <v>1.3</v>
       </c>
-      <c r="N299" t="n">
+      <c r="J299" s="3" t="n"/>
+      <c r="L299" s="3" t="n"/>
+      <c r="N299" s="3" t="n">
         <v>63.88351</v>
       </c>
       <c r="O299" t="n">
@@ -37731,7 +38259,7 @@
           <t>HD 24040</t>
         </is>
       </c>
-      <c r="AS299" t="n">
+      <c r="AS299" s="3" t="n">
         <v>3.528766459066142</v>
       </c>
       <c r="AT299" t="n">
@@ -37778,13 +38306,14 @@
       <c r="I300" t="n">
         <v>0.0607</v>
       </c>
-      <c r="L300" t="n">
+      <c r="J300" s="3" t="n"/>
+      <c r="L300" s="3" t="n">
         <v>15.9</v>
       </c>
       <c r="M300" t="n">
         <v>0.05</v>
       </c>
-      <c r="N300" t="n">
+      <c r="N300" s="3" t="n">
         <v>19.0698</v>
       </c>
       <c r="O300" t="n">
@@ -37858,7 +38387,7 @@
           <t>HD 77338</t>
         </is>
       </c>
-      <c r="AS300" t="n">
+      <c r="AS300" s="3" t="n">
         <v>3.589374610863895</v>
       </c>
       <c r="AT300" t="n">
@@ -37900,12 +38429,14 @@
       <c r="I301" t="n">
         <v>12.518</v>
       </c>
-      <c r="L301" t="n">
+      <c r="J301" s="3" t="n"/>
+      <c r="L301" s="3" t="n">
         <v>6935.33367</v>
       </c>
       <c r="M301" t="n">
         <v>21.821</v>
       </c>
+      <c r="N301" s="3" t="n"/>
       <c r="R301" t="n">
         <v>6935.33367</v>
       </c>
@@ -37951,7 +38482,7 @@
           <t>HD 109988</t>
         </is>
       </c>
-      <c r="AS301" t="n">
+      <c r="AS301" s="3" t="n">
         <v>3.598075352728424</v>
       </c>
       <c r="AT301" t="n">
@@ -37993,13 +38524,14 @@
       <c r="I302" t="n">
         <v>1.34</v>
       </c>
-      <c r="L302" t="n">
+      <c r="J302" s="3" t="n"/>
+      <c r="L302" s="3" t="n">
         <v>1503.328365</v>
       </c>
       <c r="M302" t="n">
         <v>4.73</v>
       </c>
-      <c r="N302" t="n">
+      <c r="N302" s="3" t="n">
         <v>1382.546793333334</v>
       </c>
       <c r="O302" t="n">
@@ -38081,7 +38613,7 @@
           <t>BD-17 63</t>
         </is>
       </c>
-      <c r="AS302" t="n">
+      <c r="AS302" s="3" t="n">
         <v>3.617154823920221</v>
       </c>
       <c r="AT302" t="n">
@@ -38128,7 +38660,9 @@
       <c r="I303" t="n">
         <v>0.1426666666666667</v>
       </c>
-      <c r="N303" t="n">
+      <c r="J303" s="3" t="n"/>
+      <c r="L303" s="3" t="n"/>
+      <c r="N303" s="3" t="n">
         <v>139.8439666666667</v>
       </c>
       <c r="O303" t="n">
@@ -38205,7 +38739,7 @@
           <t>HD 6434</t>
         </is>
       </c>
-      <c r="AS303" t="n">
+      <c r="AS303" s="3" t="n">
         <v>3.630124757503873</v>
       </c>
       <c r="AT303" t="n">
@@ -38252,12 +38786,14 @@
       <c r="I304" t="n">
         <v>16.714</v>
       </c>
-      <c r="L304" t="n">
+      <c r="J304" s="3" t="n"/>
+      <c r="L304" s="3" t="n">
         <v>8612.832</v>
       </c>
       <c r="M304" t="n">
         <v>27.099</v>
       </c>
+      <c r="N304" s="3" t="n"/>
       <c r="R304" t="n">
         <v>8612.832</v>
       </c>
@@ -38303,7 +38839,7 @@
           <t>HD 110537</t>
         </is>
       </c>
-      <c r="AS304" t="n">
+      <c r="AS304" s="3" t="n">
         <v>3.632856692272143</v>
       </c>
       <c r="AT304" t="n">
@@ -38350,13 +38886,14 @@
       <c r="I305" t="n">
         <v>6.109249999999999</v>
       </c>
-      <c r="L305" t="n">
+      <c r="J305" s="3" t="n"/>
+      <c r="L305" s="3" t="n">
         <v>2874.122285</v>
       </c>
       <c r="M305" t="n">
         <v>9.042999999999999</v>
       </c>
-      <c r="N305" t="n">
+      <c r="N305" s="3" t="n">
         <v>2143.21544</v>
       </c>
       <c r="O305" t="n">
@@ -38441,7 +38978,7 @@
           <t>HD 98649</t>
         </is>
       </c>
-      <c r="AS305" t="n">
+      <c r="AS305" s="3" t="n">
         <v>3.647281270848715</v>
       </c>
       <c r="AT305" t="n">
@@ -38488,13 +39025,14 @@
       <c r="I306" t="n">
         <v>0.0376</v>
       </c>
-      <c r="J306" t="n">
+      <c r="J306" s="3" t="n">
         <v>12.31</v>
       </c>
       <c r="K306" t="n">
         <v>1.098</v>
       </c>
-      <c r="N306" t="n">
+      <c r="L306" s="3" t="n"/>
+      <c r="N306" s="3" t="n">
         <v>108.4858333333333</v>
       </c>
       <c r="O306" t="n">
@@ -38576,7 +39114,7 @@
           <t>HD 63454</t>
         </is>
       </c>
-      <c r="AS306" t="n">
+      <c r="AS306" s="3" t="n">
         <v>3.648542841743622</v>
       </c>
       <c r="AT306" t="n">
@@ -38618,12 +39156,14 @@
       <c r="I307" t="n">
         <v>0.051205</v>
       </c>
-      <c r="J307" t="n">
+      <c r="J307" s="3" t="n">
         <v>2.5955</v>
       </c>
       <c r="K307" t="n">
         <v>0.2315</v>
       </c>
+      <c r="L307" s="3" t="n"/>
+      <c r="N307" s="3" t="n"/>
       <c r="V307" t="n">
         <v>255.115</v>
       </c>
@@ -38675,7 +39215,7 @@
           <t>TOI-5082</t>
         </is>
       </c>
-      <c r="AS307" t="n">
+      <c r="AS307" s="3" t="n">
         <v>3.649745289465404</v>
       </c>
       <c r="AT307" t="n">
@@ -38717,12 +39257,14 @@
       <c r="I308" t="n">
         <v>0.163</v>
       </c>
-      <c r="J308" t="n">
+      <c r="J308" s="3" t="n">
         <v>2.0685</v>
       </c>
       <c r="K308" t="n">
         <v>0.1845</v>
       </c>
+      <c r="L308" s="3" t="n"/>
+      <c r="N308" s="3" t="n"/>
       <c r="V308" t="n">
         <v>56.91</v>
       </c>
@@ -38793,7 +39335,7 @@
           <t>TOI-262</t>
         </is>
       </c>
-      <c r="AS308" t="n">
+      <c r="AS308" s="3" t="n">
         <v>3.674405832762042</v>
       </c>
       <c r="AT308" t="n">
@@ -38840,7 +39382,9 @@
       <c r="I309" t="n">
         <v>1.487</v>
       </c>
-      <c r="N309" t="n">
+      <c r="J309" s="3" t="n"/>
+      <c r="L309" s="3" t="n"/>
+      <c r="N309" s="3" t="n">
         <v>153.1</v>
       </c>
       <c r="O309" t="n">
@@ -38899,7 +39443,7 @@
           <t>HD 210193</t>
         </is>
       </c>
-      <c r="AS309" t="n">
+      <c r="AS309" s="3" t="n">
         <v>3.686883073789637</v>
       </c>
       <c r="AT309" t="n">
@@ -38946,7 +39490,9 @@
       <c r="I310" t="n">
         <v>0.0974</v>
       </c>
-      <c r="N310" t="n">
+      <c r="J310" s="3" t="n"/>
+      <c r="L310" s="3" t="n"/>
+      <c r="N310" s="3" t="n">
         <v>11.66</v>
       </c>
       <c r="O310" t="n">
@@ -39025,7 +39571,7 @@
           <t>HD 20003</t>
         </is>
       </c>
-      <c r="AS310" t="n">
+      <c r="AS310" s="3" t="n">
         <v>3.728611559600728</v>
       </c>
       <c r="AT310" t="n">
@@ -39072,7 +39618,9 @@
       <c r="I311" t="n">
         <v>0.1964</v>
       </c>
-      <c r="N311" t="n">
+      <c r="J311" s="3" t="n"/>
+      <c r="L311" s="3" t="n"/>
+      <c r="N311" s="3" t="n">
         <v>14.44</v>
       </c>
       <c r="O311" t="n">
@@ -39151,7 +39699,7 @@
           <t>HD 20003</t>
         </is>
       </c>
-      <c r="AS311" t="n">
+      <c r="AS311" s="3" t="n">
         <v>3.728611559600728</v>
       </c>
       <c r="AT311" t="n">
@@ -39193,7 +39741,9 @@
       <c r="I312" t="n">
         <v>0.17</v>
       </c>
-      <c r="N312" t="n">
+      <c r="J312" s="3" t="n"/>
+      <c r="L312" s="3" t="n"/>
+      <c r="N312" s="3" t="n">
         <v>162.09249</v>
       </c>
       <c r="O312" t="n">
@@ -39249,7 +39799,7 @@
           <t>HIP 5763</t>
         </is>
       </c>
-      <c r="AS312" t="n">
+      <c r="AS312" s="3" t="n">
         <v>3.756244564043293</v>
       </c>
       <c r="AT312" t="n">
@@ -39291,12 +39841,14 @@
       <c r="I313" t="n">
         <v>10.961</v>
       </c>
-      <c r="L313" t="n">
+      <c r="J313" s="3" t="n"/>
+      <c r="L313" s="3" t="n">
         <v>2154.8766</v>
       </c>
       <c r="M313" t="n">
         <v>6.78</v>
       </c>
+      <c r="N313" s="3" t="n"/>
       <c r="R313" t="n">
         <v>2154.8766</v>
       </c>
@@ -39342,7 +39894,7 @@
           <t>HD 168863</t>
         </is>
       </c>
-      <c r="AS313" t="n">
+      <c r="AS313" s="3" t="n">
         <v>3.756942530257736</v>
       </c>
       <c r="AT313" t="n">
@@ -39389,7 +39941,9 @@
       <c r="I314" t="n">
         <v>0.33</v>
       </c>
-      <c r="N314" t="n">
+      <c r="J314" s="3" t="n"/>
+      <c r="L314" s="3" t="n"/>
+      <c r="N314" s="3" t="n">
         <v>433.96165</v>
       </c>
       <c r="O314" t="n">
@@ -39466,7 +40020,7 @@
           <t>HD 121504</t>
         </is>
       </c>
-      <c r="AS314" t="n">
+      <c r="AS314" s="3" t="n">
         <v>3.758618035205031</v>
       </c>
       <c r="AT314" t="n">
@@ -39508,12 +40062,14 @@
       <c r="I315" t="n">
         <v>15.947</v>
       </c>
-      <c r="L315" t="n">
+      <c r="J315" s="3" t="n"/>
+      <c r="L315" s="3" t="n">
         <v>2877.30057</v>
       </c>
       <c r="M315" t="n">
         <v>9.053000000000001</v>
       </c>
+      <c r="N315" s="3" t="n"/>
       <c r="R315" t="n">
         <v>2877.30057</v>
       </c>
@@ -39559,7 +40115,7 @@
           <t>HD 86065</t>
         </is>
       </c>
-      <c r="AS315" t="n">
+      <c r="AS315" s="3" t="n">
         <v>3.760233290825471</v>
       </c>
       <c r="AT315" t="n">
@@ -39606,13 +40162,14 @@
       <c r="I316" t="n">
         <v>2.3576</v>
       </c>
-      <c r="L316" t="n">
+      <c r="J316" s="3" t="n"/>
+      <c r="L316" s="3" t="n">
         <v>2597.9294</v>
       </c>
       <c r="M316" t="n">
         <v>8.173999999999999</v>
       </c>
-      <c r="N316" t="n">
+      <c r="N316" s="3" t="n">
         <v>324.818435</v>
       </c>
       <c r="O316" t="n">
@@ -39689,7 +40246,7 @@
           <t>HD 7449</t>
         </is>
       </c>
-      <c r="AS316" t="n">
+      <c r="AS316" s="3" t="n">
         <v>3.762770752924683</v>
       </c>
       <c r="AT316" t="n">
@@ -39736,18 +40293,19 @@
       <c r="I317" t="n">
         <v>0.052325</v>
       </c>
-      <c r="J317" t="n">
+      <c r="J317" s="3" t="n">
         <v>1.7085</v>
       </c>
       <c r="K317" t="n">
         <v>0.1525</v>
       </c>
-      <c r="L317" t="n">
+      <c r="L317" s="3" t="n">
         <v>7.076333333333333</v>
       </c>
       <c r="M317" t="n">
         <v>0.02226333333333333</v>
       </c>
+      <c r="N317" s="3" t="n"/>
       <c r="R317" t="n">
         <v>7.076333333333333</v>
       </c>
@@ -39839,7 +40397,7 @@
           <t>HD 15337</t>
         </is>
       </c>
-      <c r="AS317" t="n">
+      <c r="AS317" s="3" t="n">
         <v>3.769031705355568</v>
       </c>
       <c r="AT317" t="n">
@@ -39886,18 +40444,19 @@
       <c r="I318" t="n">
         <v>0.12515</v>
       </c>
-      <c r="J318" t="n">
+      <c r="J318" s="3" t="n">
         <v>2.40825</v>
       </c>
       <c r="K318" t="n">
         <v>0.21475</v>
       </c>
-      <c r="L318" t="n">
+      <c r="L318" s="3" t="n">
         <v>7.897333333333333</v>
       </c>
       <c r="M318" t="n">
         <v>0.02485</v>
       </c>
+      <c r="N318" s="3" t="n"/>
       <c r="R318" t="n">
         <v>7.897333333333333</v>
       </c>
@@ -39989,7 +40548,7 @@
           <t>HD 15337</t>
         </is>
       </c>
-      <c r="AS318" t="n">
+      <c r="AS318" s="3" t="n">
         <v>3.769031705355568</v>
       </c>
       <c r="AT318" t="n">
@@ -40036,12 +40595,14 @@
       <c r="I319" t="n">
         <v>7.6215</v>
       </c>
-      <c r="L319" t="n">
+      <c r="J319" s="3" t="n"/>
+      <c r="L319" s="3" t="n">
         <v>3236.287755</v>
       </c>
       <c r="M319" t="n">
         <v>10.1825</v>
       </c>
+      <c r="N319" s="3" t="n"/>
       <c r="R319" t="n">
         <v>3236.287755</v>
       </c>
@@ -40098,7 +40659,7 @@
           <t>HD 16905</t>
         </is>
       </c>
-      <c r="AS319" t="n">
+      <c r="AS319" s="3" t="n">
         <v>3.7866974152819</v>
       </c>
       <c r="AT319" t="n">
@@ -40145,13 +40706,14 @@
       <c r="I320" t="n">
         <v>2.553666666666667</v>
       </c>
-      <c r="L320" t="n">
+      <c r="J320" s="3" t="n"/>
+      <c r="L320" s="3" t="n">
         <v>5689.157</v>
       </c>
       <c r="M320" t="n">
         <v>17.9</v>
       </c>
-      <c r="N320" t="n">
+      <c r="N320" s="3" t="n">
         <v>758.66021</v>
       </c>
       <c r="O320" t="n">
@@ -40236,7 +40798,7 @@
           <t>HD 202206</t>
         </is>
       </c>
-      <c r="AS320" t="n">
+      <c r="AS320" s="3" t="n">
         <v>3.789524300780455</v>
       </c>
       <c r="AT320" t="n">
@@ -40278,7 +40840,9 @@
       <c r="I321" t="n">
         <v>0.534</v>
       </c>
-      <c r="N321" t="n">
+      <c r="J321" s="3" t="n"/>
+      <c r="L321" s="3" t="n"/>
+      <c r="N321" s="3" t="n">
         <v>50.85255</v>
       </c>
       <c r="O321" t="n">
@@ -40329,7 +40893,7 @@
           <t>HD 13724</t>
         </is>
       </c>
-      <c r="AS321" t="n">
+      <c r="AS321" s="3" t="n">
         <v>3.810357987458368</v>
       </c>
       <c r="AT321" t="n">
@@ -40376,7 +40940,9 @@
       <c r="I322" t="n">
         <v>0.75925</v>
       </c>
-      <c r="N322" t="n">
+      <c r="J322" s="3" t="n"/>
+      <c r="L322" s="3" t="n"/>
+      <c r="N322" s="3" t="n">
         <v>612.2927925</v>
       </c>
       <c r="O322" t="n">
@@ -40458,7 +41024,7 @@
           <t>HD 8574</t>
         </is>
       </c>
-      <c r="AS322" t="n">
+      <c r="AS322" s="3" t="n">
         <v>3.818111171062992</v>
       </c>
       <c r="AT322" t="n">
@@ -40505,7 +41071,9 @@
       <c r="I323" t="n">
         <v>3.86725</v>
       </c>
-      <c r="N323" t="n">
+      <c r="J323" s="3" t="n"/>
+      <c r="L323" s="3" t="n"/>
+      <c r="N323" s="3" t="n">
         <v>476.867844</v>
       </c>
       <c r="O323" t="n">
@@ -40587,7 +41155,7 @@
           <t>HD 50499</t>
         </is>
       </c>
-      <c r="AS323" t="n">
+      <c r="AS323" s="3" t="n">
         <v>3.823466867869584</v>
       </c>
       <c r="AT323" t="n">
@@ -40634,7 +41202,9 @@
       <c r="I324" t="n">
         <v>9.559999999999999</v>
       </c>
-      <c r="N324" t="n">
+      <c r="J324" s="3" t="n"/>
+      <c r="L324" s="3" t="n"/>
+      <c r="N324" s="3" t="n">
         <v>970.968115</v>
       </c>
       <c r="O324" t="n">
@@ -40716,7 +41286,7 @@
           <t>HD 50499</t>
         </is>
       </c>
-      <c r="AS324" t="n">
+      <c r="AS324" s="3" t="n">
         <v>3.823466867869584</v>
       </c>
       <c r="AT324" t="n">
@@ -40758,7 +41328,9 @@
       <c r="I325" t="n">
         <v>0.112</v>
       </c>
-      <c r="N325" t="n">
+      <c r="J325" s="3" t="n"/>
+      <c r="L325" s="3" t="n"/>
+      <c r="N325" s="3" t="n">
         <v>7.1</v>
       </c>
       <c r="O325" t="n">
@@ -40834,7 +41406,7 @@
           <t>HD 93385</t>
         </is>
       </c>
-      <c r="AS325" t="n">
+      <c r="AS325" s="3" t="n">
         <v>3.847945124948696</v>
       </c>
       <c r="AT325" t="n">
@@ -40876,7 +41448,9 @@
       <c r="I326" t="n">
         <v>0.2565</v>
       </c>
-      <c r="N326" t="n">
+      <c r="J326" s="3" t="n"/>
+      <c r="L326" s="3" t="n"/>
+      <c r="N326" s="3" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="O326" t="n">
@@ -40952,7 +41526,7 @@
           <t>HD 93385</t>
         </is>
       </c>
-      <c r="AS326" t="n">
+      <c r="AS326" s="3" t="n">
         <v>3.847945124948696</v>
       </c>
       <c r="AT326" t="n">
@@ -40994,7 +41568,9 @@
       <c r="I327" t="n">
         <v>0.0756</v>
       </c>
-      <c r="N327" t="n">
+      <c r="J327" s="3" t="n"/>
+      <c r="L327" s="3" t="n"/>
+      <c r="N327" s="3" t="n">
         <v>4.2</v>
       </c>
       <c r="O327" t="n">
@@ -41070,7 +41646,7 @@
           <t>HD 93385</t>
         </is>
       </c>
-      <c r="AS327" t="n">
+      <c r="AS327" s="3" t="n">
         <v>3.847945124948696</v>
       </c>
       <c r="AT327" t="n">
@@ -41114,7 +41690,9 @@
       <c r="H328" t="n">
         <v>29.01</v>
       </c>
-      <c r="N328" t="n">
+      <c r="J328" s="3" t="n"/>
+      <c r="L328" s="3" t="n"/>
+      <c r="N328" s="3" t="n">
         <v>8.98</v>
       </c>
       <c r="O328" t="n">
@@ -41193,7 +41771,7 @@
           <t>HD 175607</t>
         </is>
       </c>
-      <c r="AS328" t="n">
+      <c r="AS328" s="3" t="n">
         <v>3.859665649098153</v>
       </c>
       <c r="AT328" t="n">
@@ -41235,12 +41813,14 @@
       <c r="I329" t="n">
         <v>13.39</v>
       </c>
-      <c r="L329" t="n">
+      <c r="J329" s="3" t="n"/>
+      <c r="L329" s="3" t="n">
         <v>1739.47487</v>
       </c>
       <c r="M329" t="n">
         <v>5.473</v>
       </c>
+      <c r="N329" s="3" t="n"/>
       <c r="R329" t="n">
         <v>1739.47487</v>
       </c>
@@ -41286,7 +41866,7 @@
           <t>HD 29985</t>
         </is>
       </c>
-      <c r="AS329" t="n">
+      <c r="AS329" s="3" t="n">
         <v>3.863686481243805</v>
       </c>
       <c r="AT329" t="n">
@@ -41333,7 +41913,9 @@
       <c r="I330" t="n">
         <v>5.13</v>
       </c>
-      <c r="N330" t="n">
+      <c r="J330" s="3" t="n"/>
+      <c r="L330" s="3" t="n"/>
+      <c r="N330" s="3" t="n">
         <v>266.97586</v>
       </c>
       <c r="O330" t="n">
@@ -41401,7 +41983,7 @@
           <t>HD 136925</t>
         </is>
       </c>
-      <c r="AS330" t="n">
+      <c r="AS330" s="3" t="n">
         <v>3.867508201490823</v>
       </c>
       <c r="AT330" t="n">
@@ -41443,12 +42025,14 @@
       <c r="I331" t="n">
         <v>10.817</v>
       </c>
-      <c r="L331" t="n">
+      <c r="J331" s="3" t="n"/>
+      <c r="L331" s="3" t="n">
         <v>3465.60095</v>
       </c>
       <c r="M331" t="n">
         <v>10.904</v>
       </c>
+      <c r="N331" s="3" t="n"/>
       <c r="R331" t="n">
         <v>3465.60095</v>
       </c>
@@ -41494,7 +42078,7 @@
           <t>HD 125271</t>
         </is>
       </c>
-      <c r="AS331" t="n">
+      <c r="AS331" s="3" t="n">
         <v>3.89832108952397</v>
       </c>
       <c r="AT331" t="n">
@@ -41541,7 +42125,9 @@
       <c r="I332" t="n">
         <v>0.21045</v>
       </c>
-      <c r="N332" t="n">
+      <c r="J332" s="3" t="n"/>
+      <c r="L332" s="3" t="n"/>
+      <c r="N332" s="3" t="n">
         <v>17.381365</v>
       </c>
       <c r="O332" t="n">
@@ -41614,7 +42200,7 @@
           <t>HD 204313</t>
         </is>
       </c>
-      <c r="AS332" t="n">
+      <c r="AS332" s="3" t="n">
         <v>3.914462450077222</v>
       </c>
       <c r="AT332" t="n">
@@ -41661,13 +42247,14 @@
       <c r="I333" t="n">
         <v>12.6785</v>
       </c>
-      <c r="L333" t="n">
+      <c r="J333" s="3" t="n"/>
+      <c r="L333" s="3" t="n">
         <v>5596.481505</v>
       </c>
       <c r="M333" t="n">
         <v>17.6085</v>
       </c>
-      <c r="N333" t="n">
+      <c r="N333" s="3" t="n">
         <v>5085.25451</v>
       </c>
       <c r="O333" t="n">
@@ -41737,7 +42324,7 @@
           <t>HD 204313</t>
         </is>
       </c>
-      <c r="AS333" t="n">
+      <c r="AS333" s="3" t="n">
         <v>3.914462450077222</v>
       </c>
       <c r="AT333" t="n">
@@ -41784,13 +42371,14 @@
       <c r="I334" t="n">
         <v>3.125333333333334</v>
       </c>
-      <c r="L334" t="n">
+      <c r="J334" s="3" t="n"/>
+      <c r="L334" s="3" t="n">
         <v>1521.6035</v>
       </c>
       <c r="M334" t="n">
         <v>4.7875</v>
       </c>
-      <c r="N334" t="n">
+      <c r="N334" s="3" t="n">
         <v>1258.5233</v>
       </c>
       <c r="O334" t="n">
@@ -41869,7 +42457,7 @@
           <t>HD 204313</t>
         </is>
       </c>
-      <c r="AS334" t="n">
+      <c r="AS334" s="3" t="n">
         <v>3.914462450077222</v>
       </c>
       <c r="AT334" t="n">
@@ -41916,13 +42504,14 @@
       <c r="I335" t="n">
         <v>1.04</v>
       </c>
-      <c r="L335" t="n">
+      <c r="J335" s="3" t="n"/>
+      <c r="L335" s="3" t="n">
         <v>390.92894</v>
       </c>
       <c r="M335" t="n">
         <v>1.23</v>
       </c>
-      <c r="N335" t="n">
+      <c r="N335" s="3" t="n">
         <v>348.01745</v>
       </c>
       <c r="O335" t="n">
@@ -42004,7 +42593,7 @@
           <t>HD 100777</t>
         </is>
       </c>
-      <c r="AS335" t="n">
+      <c r="AS335" s="3" t="n">
         <v>3.916525982685398</v>
       </c>
       <c r="AT335" t="n">
@@ -42046,19 +42635,19 @@
       <c r="I336" t="n">
         <v>0.04038666666666667</v>
       </c>
-      <c r="J336" t="n">
+      <c r="J336" s="3" t="n">
         <v>1.246833333333333</v>
       </c>
       <c r="K336" t="n">
         <v>0.1113333333333333</v>
       </c>
-      <c r="L336" t="n">
+      <c r="L336" s="3" t="n">
         <v>1.574</v>
       </c>
       <c r="M336" t="n">
         <v>0.00495</v>
       </c>
-      <c r="N336" t="n">
+      <c r="N336" s="3" t="n">
         <v>2.42</v>
       </c>
       <c r="O336" t="n">
@@ -42158,7 +42747,7 @@
           <t>GJ 9827</t>
         </is>
       </c>
-      <c r="AS336" t="n">
+      <c r="AS336" s="3" t="n">
         <v>3.917080320565909</v>
       </c>
       <c r="AT336" t="n">
@@ -42200,19 +42789,19 @@
       <c r="I337" t="n">
         <v>0.05690857142857143</v>
       </c>
-      <c r="J337" t="n">
+      <c r="J337" s="3" t="n">
         <v>2.017714285714285</v>
       </c>
       <c r="K337" t="n">
         <v>0.18</v>
       </c>
-      <c r="L337" t="n">
+      <c r="L337" s="3" t="n">
         <v>3.526666666666667</v>
       </c>
       <c r="M337" t="n">
         <v>0.011095</v>
       </c>
-      <c r="N337" t="n">
+      <c r="N337" s="3" t="n">
         <v>5.2</v>
       </c>
       <c r="O337" t="n">
@@ -42315,7 +42904,7 @@
           <t>GJ 9827</t>
         </is>
       </c>
-      <c r="AS337" t="n">
+      <c r="AS337" s="3" t="n">
         <v>3.917080320565909</v>
       </c>
       <c r="AT337" t="n">
@@ -42357,19 +42946,19 @@
       <c r="I338" t="n">
         <v>0.01933</v>
       </c>
-      <c r="J338" t="n">
+      <c r="J338" s="3" t="n">
         <v>1.600125</v>
       </c>
       <c r="K338" t="n">
         <v>0.14275</v>
       </c>
-      <c r="L338" t="n">
+      <c r="L338" s="3" t="n">
         <v>4.388333333333335</v>
       </c>
       <c r="M338" t="n">
         <v>0.01380833333333333</v>
       </c>
-      <c r="N338" t="n">
+      <c r="N338" s="3" t="n">
         <v>3.41</v>
       </c>
       <c r="O338" t="n">
@@ -42469,7 +43058,7 @@
           <t>GJ 9827</t>
         </is>
       </c>
-      <c r="AS338" t="n">
+      <c r="AS338" s="3" t="n">
         <v>3.917080320565909</v>
       </c>
       <c r="AT338" t="n">
@@ -42516,7 +43105,9 @@
       <c r="I339" t="n">
         <v>0.12425</v>
       </c>
-      <c r="N339" t="n">
+      <c r="J339" s="3" t="n"/>
+      <c r="L339" s="3" t="n"/>
+      <c r="N339" s="3" t="n">
         <v>202.5356825</v>
       </c>
       <c r="O339" t="n">
@@ -42598,7 +43189,7 @@
           <t>HD 27894</t>
         </is>
       </c>
-      <c r="AS339" t="n">
+      <c r="AS339" s="3" t="n">
         <v>3.923866332539644</v>
       </c>
       <c r="AT339" t="n">
@@ -42645,7 +43236,9 @@
       <c r="I340" t="n">
         <v>0.198</v>
       </c>
-      <c r="N340" t="n">
+      <c r="J340" s="3" t="n"/>
+      <c r="L340" s="3" t="n"/>
+      <c r="N340" s="3" t="n">
         <v>51.48846</v>
       </c>
       <c r="O340" t="n">
@@ -42712,7 +43305,7 @@
           <t>HD 27894</t>
         </is>
       </c>
-      <c r="AS340" t="n">
+      <c r="AS340" s="3" t="n">
         <v>3.923866332539644</v>
       </c>
       <c r="AT340" t="n">
@@ -42759,13 +43352,14 @@
       <c r="I341" t="n">
         <v>5.405</v>
       </c>
-      <c r="L341" t="n">
+      <c r="J341" s="3" t="n"/>
+      <c r="L341" s="3" t="n">
         <v>2063.65985</v>
       </c>
       <c r="M341" t="n">
         <v>6.493</v>
       </c>
-      <c r="N341" t="n">
+      <c r="N341" s="3" t="n">
         <v>1721.04945</v>
       </c>
       <c r="O341" t="n">
@@ -42832,7 +43426,7 @@
           <t>HD 27894</t>
         </is>
       </c>
-      <c r="AS341" t="n">
+      <c r="AS341" s="3" t="n">
         <v>3.923866332539644</v>
       </c>
       <c r="AT341" t="n">
@@ -42879,7 +43473,9 @@
       <c r="I342" t="n">
         <v>2.075</v>
       </c>
-      <c r="N342" t="n">
+      <c r="J342" s="3" t="n"/>
+      <c r="L342" s="3" t="n"/>
+      <c r="N342" s="3" t="n">
         <v>252.03294</v>
       </c>
       <c r="O342" t="n">
@@ -42961,7 +43557,7 @@
           <t>HD 187085</t>
         </is>
       </c>
-      <c r="AS342" t="n">
+      <c r="AS342" s="3" t="n">
         <v>3.932995091181113</v>
       </c>
       <c r="AT342" t="n">
@@ -43008,18 +43604,19 @@
       <c r="I343" t="n">
         <v>0.01805</v>
       </c>
-      <c r="J343" t="n">
+      <c r="J343" s="3" t="n">
         <v>1.6478</v>
       </c>
       <c r="K343" t="n">
         <v>0.147</v>
       </c>
-      <c r="L343" t="n">
+      <c r="L343" s="3" t="n">
         <v>5.2</v>
       </c>
       <c r="M343" t="n">
         <v>0.01636</v>
       </c>
+      <c r="N343" s="3" t="n"/>
       <c r="R343" t="n">
         <v>5.2</v>
       </c>
@@ -43111,7 +43708,7 @@
           <t>HD 3167</t>
         </is>
       </c>
-      <c r="AS343" t="n">
+      <c r="AS343" s="3" t="n">
         <v>3.933721986638878</v>
       </c>
       <c r="AT343" t="n">
@@ -43158,7 +43755,9 @@
       <c r="I344" t="n">
         <v>0.39665</v>
       </c>
-      <c r="N344" t="n">
+      <c r="J344" s="3" t="n"/>
+      <c r="L344" s="3" t="n"/>
+      <c r="N344" s="3" t="n">
         <v>9.074999999999999</v>
       </c>
       <c r="O344" t="n">
@@ -43238,7 +43837,7 @@
           <t>HD 3167</t>
         </is>
       </c>
-      <c r="AS344" t="n">
+      <c r="AS344" s="3" t="n">
         <v>3.933721986638878</v>
       </c>
       <c r="AT344" t="n">
@@ -43285,18 +43884,19 @@
       <c r="I345" t="n">
         <v>0.18002</v>
       </c>
-      <c r="J345" t="n">
+      <c r="J345" s="3" t="n">
         <v>2.834888888888889</v>
       </c>
       <c r="K345" t="n">
         <v>0.2532222222222222</v>
       </c>
-      <c r="L345" t="n">
+      <c r="L345" s="3" t="n">
         <v>9.9825</v>
       </c>
       <c r="M345" t="n">
         <v>0.0314075</v>
       </c>
+      <c r="N345" s="3" t="n"/>
       <c r="R345" t="n">
         <v>9.9825</v>
       </c>
@@ -43388,7 +43988,7 @@
           <t>HD 3167</t>
         </is>
       </c>
-      <c r="AS345" t="n">
+      <c r="AS345" s="3" t="n">
         <v>3.933721986638878</v>
       </c>
       <c r="AT345" t="n">
@@ -43435,7 +44035,9 @@
       <c r="I346" t="n">
         <v>0.07696666666666667</v>
       </c>
-      <c r="N346" t="n">
+      <c r="J346" s="3" t="n"/>
+      <c r="L346" s="3" t="n"/>
+      <c r="N346" s="3" t="n">
         <v>5.420000000000001</v>
       </c>
       <c r="O346" t="n">
@@ -43526,7 +44128,7 @@
           <t>HD 3167</t>
         </is>
       </c>
-      <c r="AS346" t="n">
+      <c r="AS346" s="3" t="n">
         <v>3.933721986638878</v>
       </c>
       <c r="AT346" t="n">
@@ -43568,7 +44170,9 @@
       <c r="I347" t="n">
         <v>0.16</v>
       </c>
-      <c r="N347" t="n">
+      <c r="J347" s="3" t="n"/>
+      <c r="L347" s="3" t="n"/>
+      <c r="N347" s="3" t="n">
         <v>38.45724</v>
       </c>
       <c r="O347" t="n">
@@ -43619,7 +44223,7 @@
           <t>HD 151450</t>
         </is>
       </c>
-      <c r="AS347" t="n">
+      <c r="AS347" s="3" t="n">
         <v>3.948766179619714</v>
       </c>
       <c r="AT347" t="n">
@@ -43661,12 +44265,14 @@
       <c r="I348" t="n">
         <v>14.131</v>
       </c>
-      <c r="L348" t="n">
+      <c r="J348" s="3" t="n"/>
+      <c r="L348" s="3" t="n">
         <v>1636.18064</v>
       </c>
       <c r="M348" t="n">
         <v>5.148</v>
       </c>
+      <c r="N348" s="3" t="n"/>
       <c r="R348" t="n">
         <v>1636.18064</v>
       </c>
@@ -43712,7 +44318,7 @@
           <t>HD 151450</t>
         </is>
       </c>
-      <c r="AS348" t="n">
+      <c r="AS348" s="3" t="n">
         <v>3.948766179619714</v>
       </c>
       <c r="AT348" t="n">
@@ -43759,7 +44365,9 @@
       <c r="I349" t="n">
         <v>3.055</v>
       </c>
-      <c r="N349" t="n">
+      <c r="J349" s="3" t="n"/>
+      <c r="L349" s="3" t="n"/>
+      <c r="N349" s="3" t="n">
         <v>425.8961</v>
       </c>
       <c r="O349" t="n">
@@ -43838,7 +44446,7 @@
           <t>HD 79498</t>
         </is>
       </c>
-      <c r="AS349" t="n">
+      <c r="AS349" s="3" t="n">
         <v>3.962752020200462</v>
       </c>
       <c r="AT349" t="n">
@@ -43885,13 +44493,14 @@
       <c r="I350" t="n">
         <v>5.295</v>
       </c>
-      <c r="L350" t="n">
+      <c r="J350" s="3" t="n"/>
+      <c r="L350" s="3" t="n">
         <v>1207.74795</v>
       </c>
       <c r="M350" t="n">
         <v>3.8</v>
       </c>
-      <c r="N350" t="n">
+      <c r="N350" s="3" t="n">
         <v>1115.55557</v>
       </c>
       <c r="O350" t="n">
@@ -43970,7 +44579,7 @@
           <t>HD 166724</t>
         </is>
       </c>
-      <c r="AS350" t="n">
+      <c r="AS350" s="3" t="n">
         <v>3.979374353228288</v>
       </c>
       <c r="AT350" t="n">
@@ -44017,18 +44626,19 @@
       <c r="I351" t="n">
         <v>0.1673</v>
       </c>
-      <c r="J351" t="n">
+      <c r="J351" s="3" t="n">
         <v>1.876333333333333</v>
       </c>
       <c r="K351" t="n">
         <v>0.1676666666666667</v>
       </c>
-      <c r="L351" t="n">
+      <c r="L351" s="3" t="n">
         <v>10.295</v>
       </c>
       <c r="M351" t="n">
         <v>0.03239</v>
       </c>
+      <c r="N351" s="3" t="n"/>
       <c r="R351" t="n">
         <v>10.295</v>
       </c>
@@ -44117,7 +44727,7 @@
           <t>HD 23472</t>
         </is>
       </c>
-      <c r="AS351" t="n">
+      <c r="AS351" s="3" t="n">
         <v>3.992721170613064</v>
       </c>
       <c r="AT351" t="n">
@@ -44164,18 +44774,19 @@
       <c r="I352" t="n">
         <v>0.1186</v>
       </c>
-      <c r="J352" t="n">
+      <c r="J352" s="3" t="n">
         <v>1.914</v>
       </c>
       <c r="K352" t="n">
         <v>0.1706666666666667</v>
       </c>
-      <c r="L352" t="n">
+      <c r="L352" s="3" t="n">
         <v>13.12</v>
       </c>
       <c r="M352" t="n">
         <v>0.04128</v>
       </c>
+      <c r="N352" s="3" t="n"/>
       <c r="R352" t="n">
         <v>13.12</v>
       </c>
@@ -44264,7 +44875,7 @@
           <t>HD 23472</t>
         </is>
       </c>
-      <c r="AS352" t="n">
+      <c r="AS352" s="3" t="n">
         <v>3.992721170613064</v>
       </c>
       <c r="AT352" t="n">
@@ -44311,18 +44922,19 @@
       <c r="I353" t="n">
         <v>0.0906</v>
       </c>
-      <c r="J353" t="n">
+      <c r="J353" s="3" t="n">
         <v>1.1465</v>
       </c>
       <c r="K353" t="n">
         <v>0.102</v>
       </c>
-      <c r="L353" t="n">
+      <c r="L353" s="3" t="n">
         <v>0.77</v>
       </c>
       <c r="M353" t="n">
         <v>0.00242</v>
       </c>
+      <c r="N353" s="3" t="n"/>
       <c r="R353" t="n">
         <v>0.77</v>
       </c>
@@ -44411,7 +45023,7 @@
           <t>HD 23472</t>
         </is>
       </c>
-      <c r="AS353" t="n">
+      <c r="AS353" s="3" t="n">
         <v>3.992721170613064</v>
       </c>
       <c r="AT353" t="n">
@@ -44458,18 +45070,19 @@
       <c r="I354" t="n">
         <v>0.04298</v>
       </c>
-      <c r="J354" t="n">
+      <c r="J354" s="3" t="n">
         <v>0.754</v>
       </c>
       <c r="K354" t="n">
         <v>0.0675</v>
       </c>
-      <c r="L354" t="n">
+      <c r="L354" s="3" t="n">
         <v>0.55</v>
       </c>
       <c r="M354" t="n">
         <v>0.00173</v>
       </c>
+      <c r="N354" s="3" t="n"/>
       <c r="R354" t="n">
         <v>0.55</v>
       </c>
@@ -44558,7 +45171,7 @@
           <t>HD 23472</t>
         </is>
       </c>
-      <c r="AS354" t="n">
+      <c r="AS354" s="3" t="n">
         <v>3.992721170613064</v>
       </c>
       <c r="AT354" t="n">
@@ -44605,18 +45218,19 @@
       <c r="I355" t="n">
         <v>0.068</v>
       </c>
-      <c r="J355" t="n">
+      <c r="J355" s="3" t="n">
         <v>0.8939999999999999</v>
       </c>
       <c r="K355" t="n">
         <v>0.07999999999999999</v>
       </c>
-      <c r="L355" t="n">
+      <c r="L355" s="3" t="n">
         <v>0.72</v>
       </c>
       <c r="M355" t="n">
         <v>0.00227</v>
       </c>
+      <c r="N355" s="3" t="n"/>
       <c r="R355" t="n">
         <v>0.72</v>
       </c>
@@ -44705,7 +45319,7 @@
           <t>HD 23472</t>
         </is>
       </c>
-      <c r="AS355" t="n">
+      <c r="AS355" s="3" t="n">
         <v>3.992721170613064</v>
       </c>
       <c r="AT355" t="n">
@@ -44752,13 +45366,14 @@
       <c r="I356" t="n">
         <v>1.3155</v>
       </c>
-      <c r="L356" t="n">
+      <c r="J356" s="3" t="n"/>
+      <c r="L356" s="3" t="n">
         <v>4544.94622</v>
       </c>
       <c r="M356" t="n">
         <v>14.3</v>
       </c>
-      <c r="N356" t="n">
+      <c r="N356" s="3" t="n">
         <v>783.7472333333334</v>
       </c>
       <c r="O356" t="n">
@@ -44825,7 +45440,7 @@
           <t>HD 164604</t>
         </is>
       </c>
-      <c r="AS356" t="n">
+      <c r="AS356" s="3" t="n">
         <v>4.00523236484769</v>
       </c>
       <c r="AT356" t="n">
@@ -44869,18 +45484,19 @@
       <c r="H357" t="n">
         <v>8.138396726666667</v>
       </c>
-      <c r="J357" t="n">
+      <c r="J357" s="3" t="n">
         <v>5.835333333333334</v>
       </c>
       <c r="K357" t="n">
         <v>0.52</v>
       </c>
-      <c r="L357" t="n">
+      <c r="L357" s="3" t="n">
         <v>413.179</v>
       </c>
       <c r="M357" t="n">
         <v>1.3</v>
       </c>
+      <c r="N357" s="3" t="n"/>
       <c r="R357" t="n">
         <v>413.179</v>
       </c>
@@ -44969,7 +45585,7 @@
           <t>DS Tuc A</t>
         </is>
       </c>
-      <c r="AS357" t="n">
+      <c r="AS357" s="3" t="n">
         <v>4.006602775726686</v>
       </c>
       <c r="AT357" t="n">
@@ -45016,7 +45632,9 @@
       <c r="I358" t="n">
         <v>0.0498</v>
       </c>
-      <c r="N358" t="n">
+      <c r="J358" s="3" t="n"/>
+      <c r="L358" s="3" t="n"/>
+      <c r="N358" s="3" t="n">
         <v>197.046</v>
       </c>
       <c r="O358" t="n">
@@ -45095,7 +45713,7 @@
           <t>HD 103720</t>
         </is>
       </c>
-      <c r="AS358" t="n">
+      <c r="AS358" s="3" t="n">
         <v>4.014784052019671</v>
       </c>
       <c r="AT358" t="n">
@@ -45142,7 +45760,9 @@
       <c r="I359" t="n">
         <v>1.28</v>
       </c>
-      <c r="N359" t="n">
+      <c r="J359" s="3" t="n"/>
+      <c r="L359" s="3" t="n"/>
+      <c r="N359" s="3" t="n">
         <v>902.61875</v>
       </c>
       <c r="O359" t="n">
@@ -45216,7 +45836,7 @@
           <t>HD 153950</t>
         </is>
       </c>
-      <c r="AS359" t="n">
+      <c r="AS359" s="3" t="n">
         <v>4.021244070433673</v>
       </c>
       <c r="AT359" t="n">
@@ -45258,12 +45878,14 @@
       <c r="I360" t="n">
         <v>15.037</v>
       </c>
-      <c r="L360" t="n">
+      <c r="J360" s="3" t="n"/>
+      <c r="L360" s="3" t="n">
         <v>6547.26518</v>
       </c>
       <c r="M360" t="n">
         <v>20.6</v>
       </c>
+      <c r="N360" s="3" t="n"/>
       <c r="R360" t="n">
         <v>6547.26518</v>
       </c>
@@ -45309,7 +45931,7 @@
           <t>HIP 948</t>
         </is>
       </c>
-      <c r="AS360" t="n">
+      <c r="AS360" s="3" t="n">
         <v>4.055336390977174</v>
       </c>
       <c r="AT360" t="n">
@@ -45356,7 +45978,9 @@
       <c r="I361" t="n">
         <v>0.1407</v>
       </c>
-      <c r="N361" t="n">
+      <c r="J361" s="3" t="n"/>
+      <c r="L361" s="3" t="n"/>
+      <c r="N361" s="3" t="n">
         <v>19.89606</v>
       </c>
       <c r="O361" t="n">
@@ -45424,7 +46048,7 @@
           <t>HD 107148</t>
         </is>
       </c>
-      <c r="AS361" t="n">
+      <c r="AS361" s="3" t="n">
         <v>4.058793003059233</v>
       </c>
       <c r="AT361" t="n">
@@ -45471,7 +46095,9 @@
       <c r="I362" t="n">
         <v>0.3179</v>
       </c>
-      <c r="N362" t="n">
+      <c r="J362" s="3" t="n"/>
+      <c r="L362" s="3" t="n"/>
+      <c r="N362" s="3" t="n">
         <v>65.63008500000001</v>
       </c>
       <c r="O362" t="n">
@@ -45542,7 +46168,7 @@
           <t>HD 107148</t>
         </is>
       </c>
-      <c r="AS362" t="n">
+      <c r="AS362" s="3" t="n">
         <v>4.058793003059233</v>
       </c>
       <c r="AT362" t="n">
@@ -45589,18 +46215,19 @@
       <c r="I363" t="n">
         <v>0.083</v>
       </c>
-      <c r="J363" t="n">
+      <c r="J363" s="3" t="n">
         <v>2.860666666666667</v>
       </c>
       <c r="K363" t="n">
         <v>0.2553333333333334</v>
       </c>
-      <c r="L363" t="n">
+      <c r="L363" s="3" t="n">
         <v>10.65</v>
       </c>
       <c r="M363" t="n">
         <v>0.03351</v>
       </c>
+      <c r="N363" s="3" t="n"/>
       <c r="R363" t="n">
         <v>10.65</v>
       </c>
@@ -45681,7 +46308,7 @@
           <t>HD 63935</t>
         </is>
       </c>
-      <c r="AS363" t="n">
+      <c r="AS363" s="3" t="n">
         <v>4.060332463177636</v>
       </c>
       <c r="AT363" t="n">
@@ -45728,18 +46355,19 @@
       <c r="I364" t="n">
         <v>0.148</v>
       </c>
-      <c r="J364" t="n">
+      <c r="J364" s="3" t="n">
         <v>2.988666666666667</v>
       </c>
       <c r="K364" t="n">
         <v>0.2666666666666667</v>
       </c>
-      <c r="L364" t="n">
+      <c r="L364" s="3" t="n">
         <v>11.1</v>
       </c>
       <c r="M364" t="n">
         <v>0.03492</v>
       </c>
+      <c r="N364" s="3" t="n"/>
       <c r="R364" t="n">
         <v>11.1</v>
       </c>
@@ -45820,7 +46448,7 @@
           <t>HD 63935</t>
         </is>
       </c>
-      <c r="AS364" t="n">
+      <c r="AS364" s="3" t="n">
         <v>4.060332463177636</v>
       </c>
       <c r="AT364" t="n">
@@ -45867,13 +46495,14 @@
       <c r="I365" t="n">
         <v>2.542666666666666</v>
       </c>
-      <c r="L365" t="n">
+      <c r="J365" s="3" t="n"/>
+      <c r="L365" s="3" t="n">
         <v>2796.88998</v>
       </c>
       <c r="M365" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="N365" t="n">
+      <c r="N365" s="3" t="n">
         <v>838.9512100000001</v>
       </c>
       <c r="O365" t="n">
@@ -45955,7 +46584,7 @@
           <t>HD 171238</t>
         </is>
       </c>
-      <c r="AS365" t="n">
+      <c r="AS365" s="3" t="n">
         <v>4.0826927660645</v>
       </c>
       <c r="AT365" t="n">
@@ -46002,13 +46631,14 @@
       <c r="I366" t="n">
         <v>3.396333333333333</v>
       </c>
-      <c r="L366" t="n">
+      <c r="J366" s="3" t="n"/>
+      <c r="L366" s="3" t="n">
         <v>381.39409</v>
       </c>
       <c r="M366" t="n">
         <v>1.2</v>
       </c>
-      <c r="N366" t="n">
+      <c r="N366" s="3" t="n">
         <v>347.9140533333334</v>
       </c>
       <c r="O366" t="n">
@@ -46093,7 +46723,7 @@
           <t>HD 220689</t>
         </is>
       </c>
-      <c r="AS366" t="n">
+      <c r="AS366" s="3" t="n">
         <v>4.125258815388253</v>
       </c>
       <c r="AT366" t="n">
@@ -46135,13 +46765,14 @@
       <c r="I367" t="n">
         <v>3.905</v>
       </c>
-      <c r="L367" t="n">
+      <c r="J367" s="3" t="n"/>
+      <c r="L367" s="3" t="n">
         <v>762.78818</v>
       </c>
       <c r="M367" t="n">
         <v>2.4</v>
       </c>
-      <c r="N367" t="n">
+      <c r="N367" s="3" t="n">
         <v>639</v>
       </c>
       <c r="O367" t="n">
@@ -46229,7 +46860,7 @@
           <t>HIP 54597</t>
         </is>
       </c>
-      <c r="AS367" t="n">
+      <c r="AS367" s="3" t="n">
         <v>4.12818079432414</v>
       </c>
       <c r="AT367" t="n">
@@ -46276,7 +46907,9 @@
       <c r="I368" t="n">
         <v>0.508</v>
       </c>
-      <c r="N368" t="n">
+      <c r="J368" s="3" t="n"/>
+      <c r="L368" s="3" t="n"/>
+      <c r="N368" s="3" t="n">
         <v>153.6116666666667</v>
       </c>
       <c r="O368" t="n">
@@ -46352,7 +46985,7 @@
           <t>HD 208487</t>
         </is>
       </c>
-      <c r="AS368" t="n">
+      <c r="AS368" s="3" t="n">
         <v>4.12951896498832</v>
       </c>
       <c r="AT368" t="n">
@@ -46399,13 +47032,14 @@
       <c r="I369" t="n">
         <v>2.723333333333333</v>
       </c>
-      <c r="L369" t="n">
+      <c r="J369" s="3" t="n"/>
+      <c r="L369" s="3" t="n">
         <v>143.0235</v>
       </c>
       <c r="M369" t="n">
         <v>0.45</v>
       </c>
-      <c r="N369" t="n">
+      <c r="N369" s="3" t="n">
         <v>384.5575</v>
       </c>
       <c r="O369" t="n">
@@ -46493,7 +47127,7 @@
           <t>HD 86226</t>
         </is>
       </c>
-      <c r="AS369" t="n">
+      <c r="AS369" s="3" t="n">
         <v>4.161623333076339</v>
       </c>
       <c r="AT369" t="n">
@@ -46540,18 +47174,19 @@
       <c r="I370" t="n">
         <v>0.049</v>
       </c>
-      <c r="J370" t="n">
+      <c r="J370" s="3" t="n">
         <v>2.144</v>
       </c>
       <c r="K370" t="n">
         <v>0.1915</v>
       </c>
-      <c r="L370" t="n">
+      <c r="L370" s="3" t="n">
         <v>7.25</v>
       </c>
       <c r="M370" t="n">
         <v>0.02281</v>
       </c>
+      <c r="N370" s="3" t="n"/>
       <c r="R370" t="n">
         <v>7.25</v>
       </c>
@@ -46637,7 +47272,7 @@
           <t>HD 86226</t>
         </is>
       </c>
-      <c r="AS370" t="n">
+      <c r="AS370" s="3" t="n">
         <v>4.161623333076339</v>
       </c>
       <c r="AT370" t="n">
@@ -46679,12 +47314,14 @@
       <c r="I371" t="n">
         <v>11.842</v>
       </c>
-      <c r="L371" t="n">
+      <c r="J371" s="3" t="n"/>
+      <c r="L371" s="3" t="n">
         <v>2707.5802</v>
       </c>
       <c r="M371" t="n">
         <v>8.519</v>
       </c>
+      <c r="N371" s="3" t="n"/>
       <c r="R371" t="n">
         <v>2707.5802</v>
       </c>
@@ -46730,7 +47367,7 @@
           <t>HD 62549</t>
         </is>
       </c>
-      <c r="AS371" t="n">
+      <c r="AS371" s="3" t="n">
         <v>4.163269941519261</v>
       </c>
       <c r="AT371" t="n">
@@ -46777,18 +47414,19 @@
       <c r="I372" t="n">
         <v>0.02012</v>
       </c>
-      <c r="J372" t="n">
+      <c r="J372" s="3" t="n">
         <v>1.7325</v>
       </c>
       <c r="K372" t="n">
         <v>0.1545</v>
       </c>
-      <c r="L372" t="n">
+      <c r="L372" s="3" t="n">
         <v>8.83</v>
       </c>
       <c r="M372" t="n">
         <v>0.02778</v>
       </c>
+      <c r="N372" s="3" t="n"/>
       <c r="R372" t="n">
         <v>8.83</v>
       </c>
@@ -46880,7 +47518,7 @@
           <t>HD 213885</t>
         </is>
       </c>
-      <c r="AS372" t="n">
+      <c r="AS372" s="3" t="n">
         <v>4.208501350154981</v>
       </c>
       <c r="AT372" t="n">
@@ -46927,7 +47565,9 @@
       <c r="I373" t="n">
         <v>0.056798</v>
       </c>
-      <c r="N373" t="n">
+      <c r="J373" s="3" t="n"/>
+      <c r="L373" s="3" t="n"/>
+      <c r="N373" s="3" t="n">
         <v>19.95</v>
       </c>
       <c r="O373" t="n">
@@ -47018,7 +47658,7 @@
           <t>HD 213885</t>
         </is>
       </c>
-      <c r="AS373" t="n">
+      <c r="AS373" s="3" t="n">
         <v>4.208501350154981</v>
       </c>
       <c r="AT373" t="n">
@@ -47065,13 +47705,14 @@
       <c r="I374" t="n">
         <v>2.0145</v>
       </c>
-      <c r="L374" t="n">
+      <c r="J374" s="3" t="n"/>
+      <c r="L374" s="3" t="n">
         <v>715.11392</v>
       </c>
       <c r="M374" t="n">
         <v>2.25</v>
       </c>
-      <c r="N374" t="n">
+      <c r="N374" s="3" t="n">
         <v>869.26098</v>
       </c>
       <c r="O374" t="n">
@@ -47150,7 +47791,7 @@
           <t>HD 108341</t>
         </is>
       </c>
-      <c r="AS374" t="n">
+      <c r="AS374" s="3" t="n">
         <v>4.211987765775933</v>
       </c>
       <c r="AT374" t="n">
@@ -47197,7 +47838,9 @@
       <c r="I375" t="n">
         <v>0.297</v>
       </c>
-      <c r="N375" t="n">
+      <c r="J375" s="3" t="n"/>
+      <c r="L375" s="3" t="n"/>
+      <c r="N375" s="3" t="n">
         <v>947.1334000000001</v>
       </c>
       <c r="O375" t="n">
@@ -47270,7 +47913,7 @@
           <t>HD 12484</t>
         </is>
       </c>
-      <c r="AS375" t="n">
+      <c r="AS375" s="3" t="n">
         <v>4.238559333947792</v>
       </c>
       <c r="AT375" t="n">
@@ -47312,7 +47955,9 @@
       <c r="I376" t="n">
         <v>0.68</v>
       </c>
-      <c r="N376" t="n">
+      <c r="J376" s="3" t="n"/>
+      <c r="L376" s="3" t="n"/>
+      <c r="N376" s="3" t="n">
         <v>104</v>
       </c>
       <c r="O376" t="n">
@@ -47388,7 +48033,7 @@
           <t>BD-08 2823</t>
         </is>
       </c>
-      <c r="AS376" t="n">
+      <c r="AS376" s="3" t="n">
         <v>4.258849291522854</v>
       </c>
       <c r="AT376" t="n">
@@ -47430,7 +48075,9 @@
       <c r="I377" t="n">
         <v>0.058</v>
       </c>
-      <c r="N377" t="n">
+      <c r="J377" s="3" t="n"/>
+      <c r="L377" s="3" t="n"/>
+      <c r="N377" s="3" t="n">
         <v>13.5566</v>
       </c>
       <c r="O377" t="n">
@@ -47509,7 +48156,7 @@
           <t>BD-08 2823</t>
         </is>
       </c>
-      <c r="AS377" t="n">
+      <c r="AS377" s="3" t="n">
         <v>4.258849291522854</v>
       </c>
       <c r="AT377" t="n">
@@ -47543,12 +48190,14 @@
       <c r="H378" t="n">
         <v>19.10470996</v>
       </c>
-      <c r="J378" t="n">
+      <c r="J378" s="3" t="n">
         <v>2.945</v>
       </c>
       <c r="K378" t="n">
         <v>0.2625</v>
       </c>
+      <c r="L378" s="3" t="n"/>
+      <c r="N378" s="3" t="n"/>
       <c r="V378" t="n">
         <v>8.52</v>
       </c>
@@ -47600,7 +48249,7 @@
           <t>TOI-2459</t>
         </is>
       </c>
-      <c r="AS378" t="n">
+      <c r="AS378" s="3" t="n">
         <v>4.31253190430223</v>
       </c>
       <c r="AT378" t="n">
@@ -47642,7 +48291,9 @@
       <c r="I379" t="n">
         <v>0.118</v>
       </c>
-      <c r="N379" t="n">
+      <c r="J379" s="3" t="n"/>
+      <c r="L379" s="3" t="n"/>
+      <c r="N379" s="3" t="n">
         <v>99.79812</v>
       </c>
       <c r="O379" t="n">
@@ -47693,7 +48344,7 @@
           <t>HD 28192</t>
         </is>
       </c>
-      <c r="AS379" t="n">
+      <c r="AS379" s="3" t="n">
         <v>4.326819449581925</v>
       </c>
       <c r="AT379" t="n">
@@ -47735,12 +48386,14 @@
       <c r="I380" t="n">
         <v>0.141</v>
       </c>
-      <c r="J380" t="n">
+      <c r="J380" s="3" t="n">
         <v>2.93</v>
       </c>
       <c r="K380" t="n">
         <v>0.261</v>
       </c>
+      <c r="L380" s="3" t="n"/>
+      <c r="N380" s="3" t="n"/>
       <c r="U380" t="n">
         <v>0.04</v>
       </c>
@@ -47817,7 +48470,7 @@
           <t>HD 15906</t>
         </is>
       </c>
-      <c r="AS380" t="n">
+      <c r="AS380" s="3" t="n">
         <v>4.353113514170607</v>
       </c>
       <c r="AT380" t="n">
@@ -47859,12 +48512,14 @@
       <c r="I381" t="n">
         <v>0.09</v>
       </c>
-      <c r="J381" t="n">
+      <c r="J381" s="3" t="n">
         <v>2.071</v>
       </c>
       <c r="K381" t="n">
         <v>0.185</v>
       </c>
+      <c r="L381" s="3" t="n"/>
+      <c r="N381" s="3" t="n"/>
       <c r="U381" t="n">
         <v>0.11</v>
       </c>
@@ -47941,7 +48596,7 @@
           <t>HD 15906</t>
         </is>
       </c>
-      <c r="AS381" t="n">
+      <c r="AS381" s="3" t="n">
         <v>4.353113514170607</v>
       </c>
       <c r="AT381" t="n">
@@ -47988,19 +48643,19 @@
       <c r="I382" t="n">
         <v>0.04718333333333333</v>
       </c>
-      <c r="J382" t="n">
+      <c r="J382" s="3" t="n">
         <v>15.07126666666667</v>
       </c>
       <c r="K382" t="n">
         <v>1.344466666666667</v>
       </c>
-      <c r="L382" t="n">
+      <c r="L382" s="3" t="n">
         <v>216.8710027272728</v>
       </c>
       <c r="M382" t="n">
         <v>0.6823636363636363</v>
       </c>
-      <c r="N382" t="n">
+      <c r="N382" s="3" t="n">
         <v>216.754945</v>
       </c>
       <c r="O382" t="n">
@@ -48097,7 +48752,7 @@
           <t>HD 209458</t>
         </is>
       </c>
-      <c r="AS382" t="n">
+      <c r="AS382" s="3" t="n">
         <v>4.377038819618786</v>
       </c>
       <c r="AT382" t="n">
@@ -48139,12 +48794,14 @@
       <c r="I383" t="n">
         <v>17.848</v>
       </c>
-      <c r="L383" t="n">
+      <c r="J383" s="3" t="n"/>
+      <c r="L383" s="3" t="n">
         <v>5252.75008</v>
       </c>
       <c r="M383" t="n">
         <v>16.527</v>
       </c>
+      <c r="N383" s="3" t="n"/>
       <c r="R383" t="n">
         <v>5252.75008</v>
       </c>
@@ -48190,7 +48847,7 @@
           <t>HD 25912</t>
         </is>
       </c>
-      <c r="AS383" t="n">
+      <c r="AS383" s="3" t="n">
         <v>4.401399335378308</v>
       </c>
       <c r="AT383" t="n">
@@ -48232,7 +48889,9 @@
       <c r="I384" t="n">
         <v>0.242</v>
       </c>
-      <c r="N384" t="n">
+      <c r="J384" s="3" t="n"/>
+      <c r="L384" s="3" t="n"/>
+      <c r="N384" s="3" t="n">
         <v>38.13941</v>
       </c>
       <c r="O384" t="n">
@@ -48283,7 +48942,7 @@
           <t>HD 25912</t>
         </is>
       </c>
-      <c r="AS384" t="n">
+      <c r="AS384" s="3" t="n">
         <v>4.401399335378308</v>
       </c>
       <c r="AT384" t="n">
@@ -48325,12 +48984,14 @@
       <c r="I385" t="n">
         <v>0.10479</v>
       </c>
-      <c r="J385" t="n">
+      <c r="J385" s="3" t="n">
         <v>3.041</v>
       </c>
       <c r="K385" t="n">
         <v>0.271</v>
       </c>
+      <c r="L385" s="3" t="n"/>
+      <c r="N385" s="3" t="n"/>
       <c r="U385" t="n">
         <v>0.17</v>
       </c>
@@ -48402,7 +49063,7 @@
           <t>HIP 113103</t>
         </is>
       </c>
-      <c r="AS385" t="n">
+      <c r="AS385" s="3" t="n">
         <v>4.479953862662206</v>
       </c>
       <c r="AT385" t="n">
@@ -48444,12 +49105,14 @@
       <c r="I386" t="n">
         <v>0.06899</v>
       </c>
-      <c r="J386" t="n">
+      <c r="J386" s="3" t="n">
         <v>1.829</v>
       </c>
       <c r="K386" t="n">
         <v>0.163</v>
       </c>
+      <c r="L386" s="3" t="n"/>
+      <c r="N386" s="3" t="n"/>
       <c r="U386" t="n">
         <v>0.17</v>
       </c>
@@ -48518,7 +49181,7 @@
           <t>HIP 113103</t>
         </is>
       </c>
-      <c r="AS386" t="n">
+      <c r="AS386" s="3" t="n">
         <v>4.479953862662206</v>
       </c>
       <c r="AT386" t="n">
@@ -48565,7 +49228,9 @@
       <c r="I387" t="n">
         <v>1.3625</v>
       </c>
-      <c r="N387" t="n">
+      <c r="J387" s="3" t="n"/>
+      <c r="L387" s="3" t="n"/>
+      <c r="N387" s="3" t="n">
         <v>484.6822</v>
       </c>
       <c r="O387" t="n">
@@ -48644,7 +49309,7 @@
           <t>HD 19994</t>
         </is>
       </c>
-      <c r="AS387" t="n">
+      <c r="AS387" s="3" t="n">
         <v>4.486810940608945</v>
       </c>
       <c r="AT387" t="n">
@@ -48686,7 +49351,9 @@
       <c r="I388" t="n">
         <v>0.25</v>
       </c>
-      <c r="N388" t="n">
+      <c r="J388" s="3" t="n"/>
+      <c r="L388" s="3" t="n"/>
+      <c r="N388" s="3" t="n">
         <v>112.82965</v>
       </c>
       <c r="O388" t="n">
@@ -48760,7 +49427,7 @@
           <t>HIP 12961</t>
         </is>
       </c>
-      <c r="AS388" t="n">
+      <c r="AS388" s="3" t="n">
         <v>4.532745868878172</v>
       </c>
       <c r="AT388" t="n">
@@ -48799,18 +49466,19 @@
       <c r="H389" t="n">
         <v>7.43557695</v>
       </c>
-      <c r="J389" t="n">
+      <c r="J389" s="3" t="n">
         <v>2.272</v>
       </c>
       <c r="K389" t="n">
         <v>0.2025</v>
       </c>
-      <c r="L389" t="n">
+      <c r="L389" s="3" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="M389" t="n">
         <v>0.02895</v>
       </c>
+      <c r="N389" s="3" t="n"/>
       <c r="R389" t="n">
         <v>9.199999999999999</v>
       </c>
@@ -48896,7 +49564,7 @@
           <t>TOI-2018</t>
         </is>
       </c>
-      <c r="AS389" t="n">
+      <c r="AS389" s="3" t="n">
         <v>4.588032766810645</v>
       </c>
       <c r="AT389" t="n">
@@ -48938,18 +49606,19 @@
       <c r="I390" t="n">
         <v>0.05709333333333333</v>
       </c>
-      <c r="J390" t="n">
+      <c r="J390" s="3" t="n">
         <v>2.038666666666666</v>
       </c>
       <c r="K390" t="n">
         <v>0.1816666666666666</v>
       </c>
-      <c r="L390" t="n">
+      <c r="L390" s="3" t="n">
         <v>6.265</v>
       </c>
       <c r="M390" t="n">
         <v>0.019715</v>
       </c>
+      <c r="N390" s="3" t="n"/>
       <c r="R390" t="n">
         <v>6.265</v>
       </c>
@@ -49035,7 +49704,7 @@
           <t>Wolf 503</t>
         </is>
       </c>
-      <c r="AS390" t="n">
+      <c r="AS390" s="3" t="n">
         <v>4.768563522304417</v>
       </c>
       <c r="AT390" t="n">
@@ -49082,12 +49751,14 @@
       <c r="I391" t="n">
         <v>3.7</v>
       </c>
-      <c r="L391" t="n">
+      <c r="J391" s="3" t="n"/>
+      <c r="L391" s="3" t="n">
         <v>953.48522</v>
       </c>
       <c r="M391" t="n">
         <v>3</v>
       </c>
+      <c r="N391" s="3" t="n"/>
       <c r="R391" t="n">
         <v>953.48522</v>
       </c>
@@ -49141,7 +49812,7 @@
           <t>HD 108202</t>
         </is>
       </c>
-      <c r="AS391" t="n">
+      <c r="AS391" s="3" t="n">
         <v>4.786817847488136</v>
       </c>
       <c r="AT391" t="n">
@@ -49180,7 +49851,9 @@
       <c r="H392" t="n">
         <v>50.089</v>
       </c>
-      <c r="N392" t="n">
+      <c r="J392" s="3" t="n"/>
+      <c r="L392" s="3" t="n"/>
+      <c r="N392" s="3" t="n">
         <v>21.5</v>
       </c>
       <c r="O392" t="n">
@@ -49254,7 +49927,7 @@
           <t>TOI-544</t>
         </is>
       </c>
-      <c r="AS392" t="n">
+      <c r="AS392" s="3" t="n">
         <v>4.802977507666216</v>
       </c>
       <c r="AT392" t="n">
@@ -49296,18 +49969,19 @@
       <c r="I393" t="n">
         <v>0.0238</v>
       </c>
-      <c r="J393" t="n">
+      <c r="J393" s="3" t="n">
         <v>2.069333333333333</v>
       </c>
       <c r="K393" t="n">
         <v>0.1846666666666667</v>
       </c>
-      <c r="L393" t="n">
+      <c r="L393" s="3" t="n">
         <v>2.89</v>
       </c>
       <c r="M393" t="n">
         <v>0.009090000000000001</v>
       </c>
+      <c r="N393" s="3" t="n"/>
       <c r="R393" t="n">
         <v>2.89</v>
       </c>
@@ -49385,7 +50059,7 @@
           <t>TOI-544</t>
         </is>
       </c>
-      <c r="AS393" t="n">
+      <c r="AS393" s="3" t="n">
         <v>4.802977507666216</v>
       </c>
       <c r="AT393" t="n">
@@ -49422,12 +50096,14 @@
       <c r="I394" t="n">
         <v>0.0171</v>
       </c>
-      <c r="J394" t="n">
+      <c r="J394" s="3" t="n">
         <v>1.3295</v>
       </c>
       <c r="K394" t="n">
         <v>0.1185</v>
       </c>
+      <c r="L394" s="3" t="n"/>
+      <c r="N394" s="3" t="n"/>
       <c r="V394" t="n">
         <v>270.07</v>
       </c>
@@ -49479,7 +50155,7 @@
           <t>TOI-833</t>
         </is>
       </c>
-      <c r="AS394" t="n">
+      <c r="AS394" s="3" t="n">
         <v>5.02924784540017</v>
       </c>
       <c r="AT394" t="n">
@@ -49513,12 +50189,14 @@
       <c r="H395" t="n">
         <v>11.070853765</v>
       </c>
-      <c r="J395" t="n">
+      <c r="J395" s="3" t="n">
         <v>2.3955</v>
       </c>
       <c r="K395" t="n">
         <v>0.2135</v>
       </c>
+      <c r="L395" s="3" t="n"/>
+      <c r="N395" s="3" t="n"/>
       <c r="V395" t="n">
         <v>22.42</v>
       </c>
@@ -49578,7 +50256,7 @@
           <t>TOI-139</t>
         </is>
       </c>
-      <c r="AS395" t="n">
+      <c r="AS395" s="3" t="n">
         <v>5.066808676581831</v>
       </c>
       <c r="AT395" t="n">
@@ -49625,7 +50303,9 @@
       <c r="I396" t="n">
         <v>0.06</v>
       </c>
-      <c r="N396" t="n">
+      <c r="J396" s="3" t="n"/>
+      <c r="L396" s="3" t="n"/>
+      <c r="N396" s="3" t="n">
         <v>301.4557</v>
       </c>
       <c r="O396" t="n">
@@ -49704,7 +50384,7 @@
           <t>HD 285507</t>
         </is>
       </c>
-      <c r="AS396" t="n">
+      <c r="AS396" s="3" t="n">
         <v>5.162294387327693</v>
       </c>
       <c r="AT396" t="n">
@@ -49751,13 +50431,14 @@
       <c r="I397" t="n">
         <v>6.7</v>
       </c>
-      <c r="L397" t="n">
+      <c r="J397" s="3" t="n"/>
+      <c r="L397" s="3" t="n">
         <v>810.46244</v>
       </c>
       <c r="M397" t="n">
         <v>2.55</v>
       </c>
-      <c r="N397" t="n">
+      <c r="N397" s="3" t="n">
         <v>702.4007800000001</v>
       </c>
       <c r="O397" t="n">
@@ -49831,7 +50512,7 @@
           <t>HD 73344</t>
         </is>
       </c>
-      <c r="AS397" t="n">
+      <c r="AS397" s="3" t="n">
         <v>5.536407362972046</v>
       </c>
       <c r="AT397" t="n">
@@ -49878,7 +50559,9 @@
       <c r="I398" t="n">
         <v>0.3388</v>
       </c>
-      <c r="N398" t="n">
+      <c r="J398" s="3" t="n"/>
+      <c r="L398" s="3" t="n"/>
+      <c r="N398" s="3" t="n">
         <v>118.55</v>
       </c>
       <c r="O398" t="n">
@@ -49952,7 +50635,7 @@
           <t>HD 73344</t>
         </is>
       </c>
-      <c r="AS398" t="n">
+      <c r="AS398" s="3" t="n">
         <v>5.536407362972046</v>
       </c>
       <c r="AT398" t="n">
@@ -49999,18 +50682,19 @@
       <c r="I399" t="n">
         <v>0.1303</v>
       </c>
-      <c r="J399" t="n">
+      <c r="J399" s="3" t="n">
         <v>2.929</v>
       </c>
       <c r="K399" t="n">
         <v>0.272</v>
       </c>
-      <c r="L399" t="n">
+      <c r="L399" s="3" t="n">
         <v>11.455</v>
       </c>
       <c r="M399" t="n">
         <v>0.03604</v>
       </c>
+      <c r="N399" s="3" t="n"/>
       <c r="R399" t="n">
         <v>11.455</v>
       </c>
@@ -50099,7 +50783,7 @@
           <t>HD 73344</t>
         </is>
       </c>
-      <c r="AS399" t="n">
+      <c r="AS399" s="3" t="n">
         <v>5.536407362972046</v>
       </c>
       <c r="AT399" t="n">
@@ -50141,12 +50825,14 @@
       <c r="I400" t="n">
         <v>0.048</v>
       </c>
-      <c r="J400" t="n">
+      <c r="J400" s="3" t="n">
         <v>0.741</v>
       </c>
       <c r="K400" t="n">
         <v>0.06633333333333334</v>
       </c>
+      <c r="L400" s="3" t="n"/>
+      <c r="N400" s="3" t="n"/>
       <c r="U400" t="n">
         <v>0.06</v>
       </c>
@@ -50206,7 +50892,7 @@
           <t>K2-116</t>
         </is>
       </c>
-      <c r="AS400" t="n">
+      <c r="AS400" s="3" t="n">
         <v>6.15687659328771</v>
       </c>
       <c r="AT400" t="n">
@@ -50248,7 +50934,9 @@
       <c r="I401" t="n">
         <v>0.1139</v>
       </c>
-      <c r="N401" t="n">
+      <c r="J401" s="3" t="n"/>
+      <c r="L401" s="3" t="n"/>
+      <c r="N401" s="3" t="n">
         <v>9.65</v>
       </c>
       <c r="O401" t="n">
@@ -50336,7 +51024,7 @@
           <t>GJ 9689</t>
         </is>
       </c>
-      <c r="AS401" t="n">
+      <c r="AS401" s="3" t="n">
         <v>6.84681256097532</v>
       </c>
       <c r="AT401" t="n">
@@ -50383,7 +51071,9 @@
       <c r="I402" t="n">
         <v>0.04467249999999999</v>
       </c>
-      <c r="N402" t="n">
+      <c r="J402" s="3" t="n"/>
+      <c r="L402" s="3" t="n"/>
+      <c r="N402" s="3" t="n">
         <v>291.8418175</v>
       </c>
       <c r="O402" t="n">
@@ -50459,7 +51149,7 @@
           <t>HD 179949</t>
         </is>
       </c>
-      <c r="AS402" t="n">
+      <c r="AS402" s="3" t="n">
         <v>7.131525643682281</v>
       </c>
       <c r="AT402" t="n">
@@ -50496,18 +51186,19 @@
       <c r="I403" t="n">
         <v>0.034412</v>
       </c>
-      <c r="J403" t="n">
+      <c r="J403" s="3" t="n">
         <v>11.007</v>
       </c>
       <c r="K403" t="n">
         <v>0.9820000000000001</v>
       </c>
-      <c r="L403" t="n">
+      <c r="L403" s="3" t="n">
         <v>174.42224</v>
       </c>
       <c r="M403" t="n">
         <v>0.5488000000000002</v>
       </c>
+      <c r="N403" s="3" t="n"/>
       <c r="R403" t="n">
         <v>174.42224</v>
       </c>
@@ -50593,7 +51284,7 @@
           <t>WASP-80</t>
         </is>
       </c>
-      <c r="AS403" t="n">
+      <c r="AS403" s="3" t="n">
         <v>7.581180974499388</v>
       </c>
       <c r="AT403" t="n">
@@ -50640,7 +51331,9 @@
       <c r="I404" t="n">
         <v>2.533333333333334</v>
       </c>
-      <c r="N404" t="n">
+      <c r="J404" s="3" t="n"/>
+      <c r="L404" s="3" t="n"/>
+      <c r="N404" s="3" t="n">
         <v>902.6144666666665</v>
       </c>
       <c r="O404" t="n">
@@ -50725,7 +51418,7 @@
           <t>HD 196885 A</t>
         </is>
       </c>
-      <c r="AS404" t="n">
+      <c r="AS404" s="3" t="n">
         <v>9.44761983454506</v>
       </c>
       <c r="AT404" t="n">
@@ -50772,7 +51465,9 @@
       <c r="I405" t="n">
         <v>0.103</v>
       </c>
-      <c r="N405" t="n">
+      <c r="J405" s="3" t="n"/>
+      <c r="L405" s="3" t="n"/>
+      <c r="N405" s="3" t="n">
         <v>105.041</v>
       </c>
       <c r="O405" t="n">
@@ -50852,7 +51547,7 @@
           <t>HD 108147</t>
         </is>
       </c>
-      <c r="AS405" t="n">
+      <c r="AS405" s="3" t="n">
         <v>10.0972726229647</v>
       </c>
       <c r="AT405" t="n">
@@ -50899,13 +51594,14 @@
       <c r="I406" t="n">
         <v>0.0479975</v>
       </c>
-      <c r="L406" t="n">
+      <c r="J406" s="3" t="n"/>
+      <c r="L406" s="3" t="n">
         <v>1891</v>
       </c>
       <c r="M406" t="n">
         <v>5.95</v>
       </c>
-      <c r="N406" t="n">
+      <c r="N406" s="3" t="n">
         <v>1320.5544375</v>
       </c>
       <c r="O406" t="n">
@@ -50993,7 +51689,7 @@
           <t>tau Boo</t>
         </is>
       </c>
-      <c r="AS406" t="n">
+      <c r="AS406" s="3" t="n">
         <v>11.87312117682474</v>
       </c>
       <c r="AT406" t="n">
@@ -51040,13 +51736,14 @@
       <c r="I407" t="n">
         <v>8.3055</v>
       </c>
-      <c r="L407" t="n">
+      <c r="J407" s="3" t="n"/>
+      <c r="L407" s="3" t="n">
         <v>3464.64746</v>
       </c>
       <c r="M407" t="n">
         <v>10.901</v>
       </c>
-      <c r="N407" t="n">
+      <c r="N407" s="3" t="n">
         <v>1684.4</v>
       </c>
       <c r="O407" t="n">
@@ -51117,7 +51814,7 @@
           <t>HD 142</t>
         </is>
       </c>
-      <c r="AS407" t="n">
+      <c r="AS407" s="3" t="n">
         <v>14.21073592368138</v>
       </c>
       <c r="AT407" t="n">
@@ -51164,7 +51861,9 @@
       <c r="I408" t="n">
         <v>0.474</v>
       </c>
-      <c r="N408" t="n">
+      <c r="J408" s="3" t="n"/>
+      <c r="L408" s="3" t="n"/>
+      <c r="N408" s="3" t="n">
         <v>82.63539</v>
       </c>
       <c r="O408" t="n">
@@ -51215,7 +51914,7 @@
           <t>HD 142</t>
         </is>
       </c>
-      <c r="AS408" t="n">
+      <c r="AS408" s="3" t="n">
         <v>14.21073592368138</v>
       </c>
       <c r="AT408" t="n">
@@ -51262,13 +51961,14 @@
       <c r="I409" t="n">
         <v>1.026</v>
       </c>
-      <c r="L409" t="n">
+      <c r="J409" s="3" t="n"/>
+      <c r="L409" s="3" t="n">
         <v>2256.58169</v>
       </c>
       <c r="M409" t="n">
         <v>7.1</v>
       </c>
-      <c r="N409" t="n">
+      <c r="N409" s="3" t="n">
         <v>390.220922</v>
       </c>
       <c r="O409" t="n">
@@ -51344,7 +52044,7 @@
           <t>HD 142</t>
         </is>
       </c>
-      <c r="AS409" t="n">
+      <c r="AS409" s="3" t="n">
         <v>14.21073592368138</v>
       </c>
       <c r="AT409" t="n">
@@ -51391,13 +52091,14 @@
       <c r="I410" t="n">
         <v>3.31175</v>
       </c>
-      <c r="L410" t="n">
+      <c r="J410" s="3" t="n"/>
+      <c r="L410" s="3" t="n">
         <v>2633.049435</v>
       </c>
       <c r="M410" t="n">
         <v>8.2845</v>
       </c>
-      <c r="N410" t="n">
+      <c r="N410" s="3" t="n">
         <v>1174.89197</v>
       </c>
       <c r="O410" t="n">
@@ -51479,7 +52180,7 @@
           <t>HD 169830</t>
         </is>
       </c>
-      <c r="AS410" t="n">
+      <c r="AS410" s="3" t="n">
         <v>15.37671243479886</v>
       </c>
       <c r="AT410" t="n">
@@ -51526,7 +52227,9 @@
       <c r="I411" t="n">
         <v>0.8019999999999999</v>
       </c>
-      <c r="N411" t="n">
+      <c r="J411" s="3" t="n"/>
+      <c r="L411" s="3" t="n"/>
+      <c r="N411" s="3" t="n">
         <v>898.4136675</v>
       </c>
       <c r="O411" t="n">
@@ -51611,7 +52314,7 @@
           <t>HD 169830</t>
         </is>
       </c>
-      <c r="AS411" t="n">
+      <c r="AS411" s="3" t="n">
         <v>15.37671243479886</v>
       </c>
       <c r="AT411" t="n">
@@ -51658,12 +52361,14 @@
       <c r="I412" t="n">
         <v>0.1027</v>
       </c>
-      <c r="J412" t="n">
+      <c r="J412" s="3" t="n">
         <v>2.1195</v>
       </c>
       <c r="K412" t="n">
         <v>0.189</v>
       </c>
+      <c r="L412" s="3" t="n"/>
+      <c r="N412" s="3" t="n"/>
       <c r="U412" t="n">
         <v>0.28</v>
       </c>
@@ -51735,7 +52440,7 @@
           <t>HR 858</t>
         </is>
       </c>
-      <c r="AS412" t="n">
+      <c r="AS412" s="3" t="n">
         <v>16.45944919601968</v>
       </c>
       <c r="AT412" t="n">
@@ -51782,12 +52487,14 @@
       <c r="I413" t="n">
         <v>0.0674</v>
       </c>
-      <c r="J413" t="n">
+      <c r="J413" s="3" t="n">
         <v>2.1655</v>
       </c>
       <c r="K413" t="n">
         <v>0.193</v>
       </c>
+      <c r="L413" s="3" t="n"/>
+      <c r="N413" s="3" t="n"/>
       <c r="U413" t="n">
         <v>0.19</v>
       </c>
@@ -51859,7 +52566,7 @@
           <t>HR 858</t>
         </is>
       </c>
-      <c r="AS413" t="n">
+      <c r="AS413" s="3" t="n">
         <v>16.45944919601968</v>
       </c>
       <c r="AT413" t="n">
@@ -51906,12 +52613,14 @@
       <c r="I414" t="n">
         <v>0.048</v>
       </c>
-      <c r="J414" t="n">
+      <c r="J414" s="3" t="n">
         <v>1.928</v>
       </c>
       <c r="K414" t="n">
         <v>0.172</v>
       </c>
+      <c r="L414" s="3" t="n"/>
+      <c r="N414" s="3" t="n"/>
       <c r="U414" t="n">
         <v>0.3</v>
       </c>
@@ -51983,7 +52692,7 @@
           <t>HR 858</t>
         </is>
       </c>
-      <c r="AS414" t="n">
+      <c r="AS414" s="3" t="n">
         <v>16.45944919601968</v>
       </c>
       <c r="AT414" t="n">
@@ -52030,7 +52739,9 @@
       <c r="I415" t="n">
         <v>0.9983333333333334</v>
       </c>
-      <c r="N415" t="n">
+      <c r="J415" s="3" t="n"/>
+      <c r="L415" s="3" t="n"/>
+      <c r="N415" s="3" t="n">
         <v>3210.039533333334</v>
       </c>
       <c r="O415" t="n">
@@ -52109,7 +52820,7 @@
           <t>30 Ari B</t>
         </is>
       </c>
-      <c r="AS415" t="n">
+      <c r="AS415" s="3" t="n">
         <v>19.82932012677854</v>
       </c>
       <c r="AT415" t="n">
@@ -52156,13 +52867,14 @@
       <c r="I416" t="n">
         <v>1.865</v>
       </c>
-      <c r="L416" t="n">
+      <c r="J416" s="3" t="n"/>
+      <c r="L416" s="3" t="n">
         <v>1525.57635</v>
       </c>
       <c r="M416" t="n">
         <v>4.8</v>
       </c>
-      <c r="N416" t="n">
+      <c r="N416" s="3" t="n">
         <v>1433.4133</v>
       </c>
       <c r="O416" t="n">
@@ -52241,7 +52953,7 @@
           <t>HD 111998</t>
         </is>
       </c>
-      <c r="AS416" t="n">
+      <c r="AS416" s="3" t="n">
         <v>27.19932377337475</v>
       </c>
       <c r="AT416" t="n">
@@ -52288,18 +53000,19 @@
       <c r="I417" t="n">
         <v>0.076</v>
       </c>
-      <c r="J417" t="n">
+      <c r="J417" s="3" t="n">
         <v>2.670333333333333</v>
       </c>
       <c r="K417" t="n">
         <v>0.2383333333333334</v>
       </c>
-      <c r="L417" t="n">
+      <c r="L417" s="3" t="n">
         <v>8.6</v>
       </c>
       <c r="M417" t="n">
         <v>0.027055</v>
       </c>
+      <c r="N417" s="3" t="n"/>
       <c r="R417" t="n">
         <v>8.6</v>
       </c>
@@ -52380,7 +53093,7 @@
           <t>HD 25463</t>
         </is>
       </c>
-      <c r="AS417" t="n">
+      <c r="AS417" s="3" t="n">
         <v>31.3192949850797</v>
       </c>
       <c r="AT417" t="n">
@@ -52427,18 +53140,19 @@
       <c r="I418" t="n">
         <v>0.04389999999999999</v>
       </c>
-      <c r="J418" t="n">
+      <c r="J418" s="3" t="n">
         <v>1.399333333333334</v>
       </c>
       <c r="K418" t="n">
         <v>0.125</v>
       </c>
-      <c r="L418" t="n">
+      <c r="L418" s="3" t="n">
         <v>4.199999999999999</v>
       </c>
       <c r="M418" t="n">
         <v>0.013215</v>
       </c>
+      <c r="N418" s="3" t="n"/>
       <c r="R418" t="n">
         <v>4.199999999999999</v>
       </c>
@@ -52519,7 +53233,7 @@
           <t>HD 25463</t>
         </is>
       </c>
-      <c r="AS418" t="n">
+      <c r="AS418" s="3" t="n">
         <v>31.3192949850797</v>
       </c>
       <c r="AT418" t="n">
@@ -52563,18 +53277,19 @@
       <c r="I419" t="n">
         <v>20.3</v>
       </c>
-      <c r="J419" t="n">
+      <c r="J419" s="3" t="n">
         <v>12.442</v>
       </c>
       <c r="K419" t="n">
         <v>1.11</v>
       </c>
-      <c r="L419" t="n">
+      <c r="L419" s="3" t="n">
         <v>9534.9</v>
       </c>
       <c r="M419" t="n">
         <v>30</v>
       </c>
+      <c r="N419" s="3" t="n"/>
       <c r="R419" t="n">
         <v>9534.9</v>
       </c>
@@ -52636,7 +53351,7 @@
           <t>HR 2562</t>
         </is>
       </c>
-      <c r="AS419" t="n">
+      <c r="AS419" s="3" t="n">
         <v>33.76423036948551</v>
       </c>
       <c r="AT419" t="n">
@@ -52678,18 +53393,19 @@
       <c r="I420" t="n">
         <v>3.53</v>
       </c>
-      <c r="J420" t="n">
+      <c r="J420" s="3" t="n">
         <v>16.365</v>
       </c>
       <c r="K420" t="n">
         <v>1.46</v>
       </c>
-      <c r="L420" t="n">
+      <c r="L420" s="3" t="n">
         <v>4036.42077</v>
       </c>
       <c r="M420" t="n">
         <v>12.7</v>
       </c>
+      <c r="N420" s="3" t="n"/>
       <c r="R420" t="n">
         <v>4036.42077</v>
       </c>
@@ -52746,7 +53462,7 @@
           <t>HD 206893</t>
         </is>
       </c>
-      <c r="AS420" t="n">
+      <c r="AS420" s="3" t="n">
         <v>44.34386166246628</v>
       </c>
       <c r="AT420" t="n">
@@ -52788,18 +53504,19 @@
       <c r="I421" t="n">
         <v>10</v>
       </c>
-      <c r="J421" t="n">
+      <c r="J421" s="3" t="n">
         <v>14.011</v>
       </c>
       <c r="K421" t="n">
         <v>1.25</v>
       </c>
-      <c r="L421" t="n">
+      <c r="L421" s="3" t="n">
         <v>8581.36699</v>
       </c>
       <c r="M421" t="n">
         <v>27</v>
       </c>
+      <c r="N421" s="3" t="n"/>
       <c r="R421" t="n">
         <v>8581.36699</v>
       </c>
@@ -52862,7 +53579,7 @@
           <t>HD 206893</t>
         </is>
       </c>
-      <c r="AS421" t="n">
+      <c r="AS421" s="3" t="n">
         <v>44.34386166246628</v>
       </c>
       <c r="AT421" t="n">
@@ -52909,12 +53626,14 @@
       <c r="I422" t="n">
         <v>17.25</v>
       </c>
-      <c r="L422" t="n">
+      <c r="J422" s="3" t="n"/>
+      <c r="L422" s="3" t="n">
         <v>8231.755740000001</v>
       </c>
       <c r="M422" t="n">
         <v>25.9</v>
       </c>
+      <c r="N422" s="3" t="n"/>
       <c r="R422" t="n">
         <v>8231.755740000001</v>
       </c>
@@ -52988,7 +53707,7 @@
           <t>HIP 21152</t>
         </is>
       </c>
-      <c r="AS422" t="n">
+      <c r="AS422" s="3" t="n">
         <v>51.82041472719524</v>
       </c>
       <c r="AT422" t="n">

--- a/results/GAIA__TESS_confirmed__matches__unique_planets.xlsx
+++ b/results/GAIA__TESS_confirmed__matches__unique_planets.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -970,7 +970,7 @@
         </is>
       </c>
       <c r="AS3" s="3" t="n">
-        <v>0.3573654978875611</v>
+        <v>0.3573654587535743</v>
       </c>
       <c r="AT3" t="n">
         <v>0.9581603308548193</v>
@@ -1070,7 +1070,7 @@
         </is>
       </c>
       <c r="AS4" s="3" t="n">
-        <v>0.3573654978875611</v>
+        <v>0.3573654587535743</v>
       </c>
       <c r="AT4" t="n">
         <v>0.9581603308548193</v>
@@ -1170,7 +1170,7 @@
         </is>
       </c>
       <c r="AS5" s="3" t="n">
-        <v>0.3573654978875611</v>
+        <v>0.3573654587535743</v>
       </c>
       <c r="AT5" t="n">
         <v>0.9581603308548193</v>
@@ -1270,7 +1270,7 @@
         </is>
       </c>
       <c r="AS6" s="3" t="n">
-        <v>0.3573654978875611</v>
+        <v>0.3573654587535743</v>
       </c>
       <c r="AT6" t="n">
         <v>0.9581603308548193</v>
@@ -2045,7 +2045,7 @@
         </is>
       </c>
       <c r="AS12" s="3" t="n">
-        <v>0.7300820152495111</v>
+        <v>0.7300819432861426</v>
       </c>
       <c r="AT12" t="n">
         <v>0.7548271155379396</v>
@@ -2176,7 +2176,7 @@
         </is>
       </c>
       <c r="AS13" s="3" t="n">
-        <v>0.7300820152495111</v>
+        <v>0.7300819432861426</v>
       </c>
       <c r="AT13" t="n">
         <v>0.7548271155379396</v>
@@ -2307,7 +2307,7 @@
         </is>
       </c>
       <c r="AS14" s="3" t="n">
-        <v>0.7300820152495111</v>
+        <v>0.7300819432861426</v>
       </c>
       <c r="AT14" t="n">
         <v>0.7548271155379396</v>
@@ -2939,7 +2939,7 @@
         </is>
       </c>
       <c r="AS19" s="3" t="n">
-        <v>0.9792117014799863</v>
+        <v>0.9792117799478079</v>
       </c>
       <c r="AT19" t="n">
         <v>0.1176187716426007</v>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="AS22" s="3" t="n">
-        <v>0.9971207000975294</v>
+        <v>0.9971207000975295</v>
       </c>
       <c r="AT22" t="n">
         <v>1.109988087293462</v>
@@ -5150,7 +5150,7 @@
         </is>
       </c>
       <c r="AS36" s="3" t="n">
-        <v>1.166831915167785</v>
+        <v>1.166831918460753</v>
       </c>
       <c r="AT36" t="n">
         <v>0.3754179789457487</v>
@@ -5281,7 +5281,7 @@
         </is>
       </c>
       <c r="AS37" s="3" t="n">
-        <v>1.194686586706649</v>
+        <v>1.194686648840448</v>
       </c>
       <c r="AT37" t="n">
         <v>0.3110398264766325</v>
@@ -7210,7 +7210,7 @@
         </is>
       </c>
       <c r="AS51" s="3" t="n">
-        <v>1.345624188533958</v>
+        <v>1.345624188533957</v>
       </c>
       <c r="AT51" t="n">
         <v>0.07478461696705942</v>
@@ -7803,7 +7803,7 @@
         </is>
       </c>
       <c r="AS56" s="3" t="n">
-        <v>1.483369532004417</v>
+        <v>1.483369385790183</v>
       </c>
       <c r="AT56" t="n">
         <v>0.2063162317891765</v>
@@ -8584,7 +8584,7 @@
         </is>
       </c>
       <c r="AS62" s="3" t="n">
-        <v>1.616889990960014</v>
+        <v>1.616889990960015</v>
       </c>
       <c r="AT62" t="n">
         <v>0.5473693128522139</v>
@@ -8593,7 +8593,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>pi Men d</t>
+          <t>pi Men c</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -8625,65 +8625,101 @@
         <v>3</v>
       </c>
       <c r="H63" t="n">
-        <v>124.64</v>
-      </c>
-      <c r="J63" s="3" t="n"/>
-      <c r="L63" s="3" t="n"/>
+        <v>6.267943883333333</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.06813666666666666</v>
+      </c>
+      <c r="J63" s="3" t="n">
+        <v>2.033333333333333</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.1813333333333333</v>
+      </c>
+      <c r="L63" s="3" t="n">
+        <v>4.323333333333333</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.01360333333333333</v>
+      </c>
       <c r="N63" s="3" t="n">
-        <v>13.38</v>
+        <v>3.563055</v>
       </c>
       <c r="O63" t="n">
-        <v>0.0421</v>
+        <v>0.01121</v>
       </c>
       <c r="R63" t="n">
-        <v>13.38</v>
+        <v>4.1165275</v>
       </c>
       <c r="S63" t="n">
-        <v>0.0421</v>
+        <v>0.0129525</v>
+      </c>
+      <c r="T63" t="n">
+        <v>2.895</v>
       </c>
       <c r="U63" t="n">
-        <v>0.22</v>
+        <v>0.01925</v>
+      </c>
+      <c r="V63" t="n">
+        <v>256.215</v>
+      </c>
+      <c r="W63" t="n">
+        <v>1123</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>G0 V</t>
+        </is>
       </c>
       <c r="Y63" t="n">
-        <v>5998</v>
+        <v>5945</v>
       </c>
       <c r="Z63" t="n">
-        <v>1.19</v>
+        <v>1.128</v>
       </c>
       <c r="AA63" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AB63" t="n">
-        <v>0.09</v>
+        <v>0.0675</v>
       </c>
       <c r="AC63" t="inlineStr">
         <is>
           <t>[Fe/H]</t>
         </is>
       </c>
+      <c r="AD63" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>4.395</v>
+      </c>
       <c r="AF63" t="n">
-        <v>3.92</v>
+        <v>4.325</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>1.148</v>
       </c>
       <c r="AH63" t="n">
-        <v>3.34</v>
+        <v>3.27</v>
       </c>
       <c r="AJ63" t="n">
-        <v>84.29927979999999</v>
+        <v>84.29927980000001</v>
       </c>
       <c r="AK63" t="n">
-        <v>-80.4646041</v>
+        <v>-80.46460409999999</v>
       </c>
       <c r="AL63" t="n">
         <v>18.2702</v>
       </c>
       <c r="AM63" t="n">
-        <v>5.65</v>
+        <v>5.649999999999999</v>
       </c>
       <c r="AN63" t="n">
         <v>4.241</v>
       </c>
       <c r="AO63" t="n">
-        <v>5.5128</v>
+        <v>5.512799999999999</v>
       </c>
       <c r="AP63" t="inlineStr">
         <is>
@@ -8701,16 +8737,16 @@
         </is>
       </c>
       <c r="AS63" s="3" t="n">
-        <v>1.616889990960014</v>
+        <v>1.616889990960015</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.5473693128522139</v>
+        <v>0.547369312852214</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>pi Men c</t>
+          <t>pi Men d</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -8742,101 +8778,65 @@
         <v>3</v>
       </c>
       <c r="H64" t="n">
-        <v>6.267943883333333</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0.06813666666666666</v>
-      </c>
-      <c r="J64" s="3" t="n">
-        <v>2.033333333333333</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1813333333333333</v>
-      </c>
-      <c r="L64" s="3" t="n">
-        <v>4.323333333333333</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.01360333333333333</v>
-      </c>
+        <v>124.64</v>
+      </c>
+      <c r="J64" s="3" t="n"/>
+      <c r="L64" s="3" t="n"/>
       <c r="N64" s="3" t="n">
-        <v>3.563055</v>
+        <v>13.38</v>
       </c>
       <c r="O64" t="n">
-        <v>0.01121</v>
+        <v>0.0421</v>
       </c>
       <c r="R64" t="n">
-        <v>4.1165275</v>
+        <v>13.38</v>
       </c>
       <c r="S64" t="n">
-        <v>0.0129525</v>
-      </c>
-      <c r="T64" t="n">
-        <v>2.895</v>
+        <v>0.0421</v>
       </c>
       <c r="U64" t="n">
-        <v>0.01925</v>
-      </c>
-      <c r="V64" t="n">
-        <v>256.215</v>
-      </c>
-      <c r="W64" t="n">
-        <v>1123</v>
-      </c>
-      <c r="X64" t="inlineStr">
-        <is>
-          <t>G0 V</t>
-        </is>
+        <v>0.22</v>
       </c>
       <c r="Y64" t="n">
-        <v>5945</v>
+        <v>5998</v>
       </c>
       <c r="Z64" t="n">
-        <v>1.128</v>
+        <v>1.19</v>
       </c>
       <c r="AA64" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AB64" t="n">
-        <v>0.0675</v>
+        <v>0.09</v>
       </c>
       <c r="AC64" t="inlineStr">
         <is>
           <t>[Fe/H]</t>
         </is>
       </c>
-      <c r="AD64" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="AE64" t="n">
-        <v>4.395</v>
-      </c>
       <c r="AF64" t="n">
-        <v>4.325</v>
-      </c>
-      <c r="AG64" t="n">
-        <v>1.148</v>
+        <v>3.92</v>
       </c>
       <c r="AH64" t="n">
-        <v>3.27</v>
+        <v>3.34</v>
       </c>
       <c r="AJ64" t="n">
-        <v>84.29927980000001</v>
+        <v>84.29927979999999</v>
       </c>
       <c r="AK64" t="n">
-        <v>-80.46460409999999</v>
+        <v>-80.4646041</v>
       </c>
       <c r="AL64" t="n">
         <v>18.2702</v>
       </c>
       <c r="AM64" t="n">
-        <v>5.649999999999999</v>
+        <v>5.65</v>
       </c>
       <c r="AN64" t="n">
         <v>4.241</v>
       </c>
       <c r="AO64" t="n">
-        <v>5.512799999999999</v>
+        <v>5.5128</v>
       </c>
       <c r="AP64" t="inlineStr">
         <is>
@@ -8854,10 +8854,10 @@
         </is>
       </c>
       <c r="AS64" s="3" t="n">
-        <v>1.616889990960014</v>
+        <v>1.616889990960015</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.547369312852214</v>
+        <v>0.5473693128522139</v>
       </c>
     </row>
     <row r="65">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="AS169" s="3" t="n">
-        <v>2.558508701158122</v>
+        <v>2.558508834222602</v>
       </c>
       <c r="AT169" t="n">
         <v>0.1570045037661796</v>
@@ -26821,486 +26821,511 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>TOI-2443 b</t>
+          <t>HD 106515 A b</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>TOI-2443</t>
+          <t>HD 106515 A</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>HD 106515 A</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>HIP 59743 A</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>TIC 318753380</t>
+          <t>TIC 176940023</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Gaia DR2 2501948402746099456</t>
+          <t>Gaia DR2 3584074376569429248</t>
         </is>
       </c>
       <c r="G209" t="n">
         <v>1</v>
       </c>
       <c r="H209" t="n">
-        <v>15.669363105</v>
-      </c>
-      <c r="J209" s="3" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="K209" t="n">
-        <v>0.2435</v>
-      </c>
-      <c r="L209" s="3" t="n"/>
-      <c r="N209" s="3" t="n"/>
-      <c r="V209" t="n">
-        <v>13.29</v>
-      </c>
-      <c r="W209" t="n">
-        <v>544</v>
+        <v>3614.286963333333</v>
+      </c>
+      <c r="I209" t="n">
+        <v>4.520333333333333</v>
+      </c>
+      <c r="J209" s="3" t="n"/>
+      <c r="L209" s="3" t="n">
+        <v>4516.023835</v>
+      </c>
+      <c r="M209" t="n">
+        <v>14.209</v>
+      </c>
+      <c r="N209" s="3" t="n">
+        <v>2960.00972</v>
+      </c>
+      <c r="O209" t="n">
+        <v>9.313333333333333</v>
+      </c>
+      <c r="R209" t="n">
+        <v>3743.0410175</v>
+      </c>
+      <c r="S209" t="n">
+        <v>11.777</v>
+      </c>
+      <c r="U209" t="n">
+        <v>0.5693333333333332</v>
+      </c>
+      <c r="X209" t="inlineStr">
+        <is>
+          <t>G5</t>
+        </is>
       </c>
       <c r="Y209" t="n">
-        <v>4285.719999999999</v>
+        <v>5363</v>
       </c>
       <c r="Z209" t="n">
-        <v>0.73</v>
+        <v>1.265</v>
       </c>
       <c r="AA209" t="n">
-        <v>0.66</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB209" t="n">
-        <v>-0.439</v>
+        <v>0.02533333333333333</v>
       </c>
       <c r="AC209" t="inlineStr">
         <is>
-          <t>[M/H]</t>
-        </is>
+          <t>[Fe/H]</t>
+        </is>
+      </c>
+      <c r="AD209" t="n">
+        <v>-0.03700000000000001</v>
       </c>
       <c r="AE209" t="n">
-        <v>4.62</v>
+        <v>4.4</v>
+      </c>
+      <c r="AF209" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="AG209" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AH209" t="n">
+        <v>1</v>
       </c>
       <c r="AJ209" t="n">
-        <v>40.1798608</v>
+        <v>183.7762699</v>
       </c>
       <c r="AK209" t="n">
-        <v>1.1996757</v>
+        <v>-7.2575413</v>
       </c>
       <c r="AL209" t="n">
-        <v>23.9258</v>
+        <v>34.0915</v>
       </c>
       <c r="AM209" t="n">
-        <v>9.51</v>
+        <v>7.971</v>
       </c>
       <c r="AN209" t="n">
-        <v>6.5</v>
+        <v>6.151</v>
       </c>
       <c r="AO209" t="n">
-        <v>9.033300000000001</v>
+        <v>7.7777</v>
       </c>
       <c r="AP209" t="inlineStr">
         <is>
-          <t>2501948402746099456</t>
+          <t>3584074376569429248</t>
         </is>
       </c>
       <c r="AQ209" t="inlineStr">
         <is>
-          <t>2501948402746099456</t>
+          <t>3584074376569429248</t>
         </is>
       </c>
       <c r="AR209" t="inlineStr">
         <is>
-          <t>TOI-2443</t>
+          <t>HD 106515 A</t>
         </is>
       </c>
       <c r="AS209" s="3" t="n">
-        <v>2.839885605748058</v>
+        <v>2.852338446201771</v>
       </c>
       <c r="AT209" t="n">
-        <v>0.1831075263583429</v>
+        <v>0.1284421547446418</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>HD 106515 A b</t>
+          <t>HD 8326 b</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>HD 106515 A</t>
+          <t>HD 8326</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>HD 106515 A</t>
+          <t>HD 8326</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>HIP 59743 A</t>
+          <t>HIP 6390</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>TIC 176940023</t>
+          <t>TIC 11613065</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>Gaia DR2 3584074376569429248</t>
+          <t>Gaia DR2 5036553052456200320</t>
         </is>
       </c>
       <c r="G210" t="n">
         <v>1</v>
       </c>
       <c r="H210" t="n">
-        <v>3614.286963333333</v>
+        <v>158.991</v>
       </c>
       <c r="I210" t="n">
-        <v>4.520333333333333</v>
+        <v>0.533</v>
       </c>
       <c r="J210" s="3" t="n"/>
-      <c r="L210" s="3" t="n">
-        <v>4516.023835</v>
-      </c>
-      <c r="M210" t="n">
-        <v>14.209</v>
-      </c>
+      <c r="L210" s="3" t="n"/>
       <c r="N210" s="3" t="n">
-        <v>2960.00972</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="O210" t="n">
-        <v>9.313333333333333</v>
+        <v>0.20955</v>
       </c>
       <c r="R210" t="n">
-        <v>3743.0410175</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="S210" t="n">
-        <v>11.777</v>
+        <v>0.20955</v>
       </c>
       <c r="U210" t="n">
-        <v>0.5693333333333332</v>
+        <v>0.2</v>
       </c>
       <c r="X210" t="inlineStr">
         <is>
-          <t>G5</t>
+          <t>K2 V</t>
         </is>
       </c>
       <c r="Y210" t="n">
-        <v>5363</v>
-      </c>
-      <c r="Z210" t="n">
-        <v>1.265</v>
+        <v>4914</v>
       </c>
       <c r="AA210" t="n">
-        <v>0.9199999999999999</v>
-      </c>
-      <c r="AB210" t="n">
-        <v>0.02533333333333333</v>
-      </c>
-      <c r="AC210" t="inlineStr">
-        <is>
-          <t>[Fe/H]</t>
-        </is>
-      </c>
-      <c r="AD210" t="n">
-        <v>-0.03700000000000001</v>
-      </c>
-      <c r="AE210" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AF210" t="n">
-        <v>9.711</v>
-      </c>
-      <c r="AG210" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AH210" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AJ210" t="n">
-        <v>183.7762699</v>
+        <v>20.5314418</v>
       </c>
       <c r="AK210" t="n">
-        <v>-7.2575413</v>
+        <v>-26.8940678</v>
       </c>
       <c r="AL210" t="n">
-        <v>34.0915</v>
+        <v>30.6862</v>
       </c>
       <c r="AM210" t="n">
-        <v>7.971</v>
+        <v>8.76</v>
       </c>
       <c r="AN210" t="n">
-        <v>6.151</v>
+        <v>6.504</v>
       </c>
       <c r="AO210" t="n">
-        <v>7.7777</v>
+        <v>8.474869999999999</v>
       </c>
       <c r="AP210" t="inlineStr">
         <is>
-          <t>3584074376569429248</t>
+          <t>5036553052456200320</t>
         </is>
       </c>
       <c r="AQ210" t="inlineStr">
         <is>
-          <t>3584074376569429248</t>
+          <t>5036553052456200320</t>
         </is>
       </c>
       <c r="AR210" t="inlineStr">
         <is>
-          <t>HD 106515 A</t>
+          <t>HD 8326</t>
         </is>
       </c>
       <c r="AS210" s="3" t="n">
-        <v>2.852338446201771</v>
+        <v>2.852869271097606</v>
       </c>
       <c r="AT210" t="n">
-        <v>0.1284421547446418</v>
+        <v>0.1160556049975668</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>HD 8326 b</t>
+          <t>HD 63765 b</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>HD 8326</t>
+          <t>HD 63765</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>HD 8326</t>
+          <t>HD 63765</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>HIP 6390</t>
+          <t>HIP 38041</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>TIC 11613065</t>
+          <t>TIC 340697083</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>Gaia DR2 5036553052456200320</t>
+          <t>Gaia DR2 5488567574038257280</t>
         </is>
       </c>
       <c r="G211" t="n">
         <v>1</v>
       </c>
       <c r="H211" t="n">
-        <v>158.991</v>
+        <v>358</v>
       </c>
       <c r="I211" t="n">
-        <v>0.533</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="J211" s="3" t="n"/>
       <c r="L211" s="3" t="n"/>
       <c r="N211" s="3" t="n">
-        <v>66.59999999999999</v>
+        <v>185.92495</v>
       </c>
       <c r="O211" t="n">
-        <v>0.20955</v>
+        <v>0.585</v>
       </c>
       <c r="R211" t="n">
-        <v>66.59999999999999</v>
+        <v>185.92495</v>
       </c>
       <c r="S211" t="n">
-        <v>0.20955</v>
+        <v>0.585</v>
       </c>
       <c r="U211" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
       <c r="X211" t="inlineStr">
         <is>
-          <t>K2 V</t>
+          <t>G9 V</t>
         </is>
       </c>
       <c r="Y211" t="n">
-        <v>4914</v>
+        <v>5440.5</v>
+      </c>
+      <c r="Z211" t="n">
+        <v>0.83</v>
       </c>
       <c r="AA211" t="n">
-        <v>0.8</v>
+        <v>0.755</v>
+      </c>
+      <c r="AB211" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="AC211" t="inlineStr">
+        <is>
+          <t>[Fe/H]</t>
+        </is>
+      </c>
+      <c r="AE211" t="n">
+        <v>4.415</v>
+      </c>
+      <c r="AF211" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="AH211" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AI211" t="n">
+        <v>23</v>
       </c>
       <c r="AJ211" t="n">
-        <v>20.5314418</v>
+        <v>116.9582617</v>
       </c>
       <c r="AK211" t="n">
-        <v>-26.8940678</v>
+        <v>-54.265345</v>
       </c>
       <c r="AL211" t="n">
-        <v>30.6862</v>
+        <v>32.5376</v>
       </c>
       <c r="AM211" t="n">
-        <v>8.76</v>
+        <v>8.1</v>
       </c>
       <c r="AN211" t="n">
-        <v>6.504</v>
+        <v>6.316</v>
       </c>
       <c r="AO211" t="n">
-        <v>8.474869999999999</v>
+        <v>7.90983</v>
       </c>
       <c r="AP211" t="inlineStr">
         <is>
-          <t>5036553052456200320</t>
+          <t>5488567574038257280</t>
         </is>
       </c>
       <c r="AQ211" t="inlineStr">
         <is>
-          <t>5036553052456200320</t>
+          <t>5488567574038257280</t>
         </is>
       </c>
       <c r="AR211" t="inlineStr">
         <is>
-          <t>HD 8326</t>
+          <t>HD 63765</t>
         </is>
       </c>
       <c r="AS211" s="3" t="n">
-        <v>2.852869271097606</v>
+        <v>2.87491445223856</v>
       </c>
       <c r="AT211" t="n">
-        <v>0.1160556049975668</v>
+        <v>0.1576598767177413</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>HD 63765 b</t>
+          <t>HD 12661 b</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>HD 63765</t>
+          <t>HD 12661</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>HD 63765</t>
+          <t>HD 12661</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>HIP 38041</t>
+          <t>HIP 9683</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>TIC 340697083</t>
+          <t>TIC 118268680</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>Gaia DR2 5488567574038257280</t>
+          <t>Gaia DR2 105332908999068032</t>
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H212" t="n">
-        <v>358</v>
+        <v>260.95277</v>
       </c>
       <c r="I212" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.82065</v>
       </c>
       <c r="J212" s="3" t="n"/>
       <c r="L212" s="3" t="n"/>
       <c r="N212" s="3" t="n">
-        <v>185.92495</v>
+        <v>758.4906416666668</v>
       </c>
       <c r="O212" t="n">
-        <v>0.585</v>
+        <v>2.3865</v>
       </c>
       <c r="R212" t="n">
-        <v>185.92495</v>
+        <v>758.4906416666668</v>
       </c>
       <c r="S212" t="n">
-        <v>0.585</v>
+        <v>2.3865</v>
       </c>
       <c r="U212" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="X212" t="inlineStr">
-        <is>
-          <t>G9 V</t>
-        </is>
+        <v>0.3473833333333334</v>
       </c>
       <c r="Y212" t="n">
-        <v>5440.5</v>
+        <v>5686.363333333334</v>
       </c>
       <c r="Z212" t="n">
-        <v>0.83</v>
+        <v>1.171666666666667</v>
       </c>
       <c r="AA212" t="n">
-        <v>0.755</v>
+        <v>1.061666666666667</v>
       </c>
       <c r="AB212" t="n">
-        <v>-0.16</v>
+        <v>0.3246666666666667</v>
       </c>
       <c r="AC212" t="inlineStr">
         <is>
           <t>[Fe/H]</t>
         </is>
       </c>
+      <c r="AD212" t="n">
+        <v>0.1096666666666667</v>
+      </c>
       <c r="AE212" t="n">
-        <v>4.415</v>
+        <v>4.33</v>
       </c>
       <c r="AF212" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="AH212" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AI212" t="n">
-        <v>23</v>
+        <v>6.39</v>
+      </c>
+      <c r="AG212" t="n">
+        <v>0.7884</v>
       </c>
       <c r="AJ212" t="n">
-        <v>116.9582617</v>
+        <v>31.1423525</v>
       </c>
       <c r="AK212" t="n">
-        <v>-54.265345</v>
+        <v>25.4135632</v>
       </c>
       <c r="AL212" t="n">
-        <v>32.5376</v>
+        <v>37.8478</v>
       </c>
       <c r="AM212" t="n">
-        <v>8.1</v>
+        <v>7.43</v>
       </c>
       <c r="AN212" t="n">
-        <v>6.316</v>
+        <v>5.861</v>
       </c>
       <c r="AO212" t="n">
-        <v>7.90983</v>
+        <v>7.247460000000001</v>
       </c>
       <c r="AP212" t="inlineStr">
         <is>
-          <t>5488567574038257280</t>
+          <t>105332908999068032</t>
         </is>
       </c>
       <c r="AQ212" t="inlineStr">
         <is>
-          <t>5488567574038257280</t>
+          <t>105332908999068032</t>
         </is>
       </c>
       <c r="AR212" t="inlineStr">
         <is>
-          <t>HD 63765</t>
+          <t>HD 12661</t>
         </is>
       </c>
       <c r="AS212" s="3" t="n">
-        <v>2.87491445223856</v>
+        <v>2.878455759965636</v>
       </c>
       <c r="AT212" t="n">
-        <v>0.1576598767177413</v>
+        <v>0.102162118957885</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>HD 12661 b</t>
+          <t>HD 12661 c</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -27332,39 +27357,39 @@
         <v>2</v>
       </c>
       <c r="H213" t="n">
-        <v>260.95277</v>
+        <v>1697.925</v>
       </c>
       <c r="I213" t="n">
-        <v>0.82065</v>
+        <v>2.858875</v>
       </c>
       <c r="J213" s="3" t="n"/>
       <c r="L213" s="3" t="n"/>
       <c r="N213" s="3" t="n">
-        <v>758.4906416666668</v>
+        <v>589.2639225</v>
       </c>
       <c r="O213" t="n">
-        <v>2.3865</v>
+        <v>1.85425</v>
       </c>
       <c r="R213" t="n">
-        <v>758.4906416666668</v>
+        <v>589.2639225</v>
       </c>
       <c r="S213" t="n">
-        <v>2.3865</v>
+        <v>1.85425</v>
       </c>
       <c r="U213" t="n">
-        <v>0.3473833333333334</v>
+        <v>0.026</v>
       </c>
       <c r="Y213" t="n">
-        <v>5686.363333333334</v>
+        <v>5679.795</v>
       </c>
       <c r="Z213" t="n">
-        <v>1.171666666666667</v>
+        <v>1.1825</v>
       </c>
       <c r="AA213" t="n">
-        <v>1.061666666666667</v>
+        <v>1.025</v>
       </c>
       <c r="AB213" t="n">
-        <v>0.3246666666666667</v>
+        <v>0.3245</v>
       </c>
       <c r="AC213" t="inlineStr">
         <is>
@@ -27375,7 +27400,7 @@
         <v>0.1096666666666667</v>
       </c>
       <c r="AE213" t="n">
-        <v>4.33</v>
+        <v>4.286666666666666</v>
       </c>
       <c r="AF213" t="n">
         <v>6.39</v>
@@ -27399,7 +27424,7 @@
         <v>5.861</v>
       </c>
       <c r="AO213" t="n">
-        <v>7.247460000000001</v>
+        <v>7.24746</v>
       </c>
       <c r="AP213" t="inlineStr">
         <is>
@@ -27417,7 +27442,7 @@
         </is>
       </c>
       <c r="AS213" s="3" t="n">
-        <v>2.878455759965636</v>
+        <v>2.878455759965637</v>
       </c>
       <c r="AT213" t="n">
         <v>0.102162118957885</v>
@@ -27426,71 +27451,81 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>HD 12661 c</t>
+          <t>HD 50554 b</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>HD 12661</t>
+          <t>HD 50554</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>HD 12661</t>
+          <t>HD 50554</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>HIP 9683</t>
+          <t>HIP 33212</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>TIC 118268680</t>
+          <t>TIC 80224448</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>Gaia DR2 105332908999068032</t>
+          <t>Gaia DR2 3380479015342121600</t>
         </is>
       </c>
       <c r="G214" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H214" t="n">
-        <v>1697.925</v>
+        <v>1254.566666666667</v>
       </c>
       <c r="I214" t="n">
-        <v>2.858875</v>
+        <v>2.3174</v>
       </c>
       <c r="J214" s="3" t="n"/>
-      <c r="L214" s="3" t="n"/>
+      <c r="L214" s="3" t="n">
+        <v>1859.29618</v>
+      </c>
+      <c r="M214" t="n">
+        <v>5.85</v>
+      </c>
       <c r="N214" s="3" t="n">
-        <v>589.2639225</v>
+        <v>1474.580016666667</v>
       </c>
       <c r="O214" t="n">
-        <v>1.85425</v>
+        <v>4.625666666666667</v>
       </c>
       <c r="R214" t="n">
-        <v>589.2639225</v>
+        <v>1512.719425</v>
       </c>
       <c r="S214" t="n">
-        <v>1.85425</v>
+        <v>4.745666666666667</v>
       </c>
       <c r="U214" t="n">
-        <v>0.026</v>
+        <v>0.4828333333333334</v>
+      </c>
+      <c r="X214" t="inlineStr">
+        <is>
+          <t>F8 V</t>
+        </is>
       </c>
       <c r="Y214" t="n">
-        <v>5679.795</v>
+        <v>5964.226666666666</v>
       </c>
       <c r="Z214" t="n">
-        <v>1.1825</v>
+        <v>1.1</v>
       </c>
       <c r="AA214" t="n">
-        <v>1.025</v>
+        <v>1.066666666666667</v>
       </c>
       <c r="AB214" t="n">
-        <v>0.3245</v>
+        <v>-0.024</v>
       </c>
       <c r="AC214" t="inlineStr">
         <is>
@@ -27498,513 +27533,506 @@
         </is>
       </c>
       <c r="AD214" t="n">
-        <v>0.1096666666666667</v>
+        <v>0.159</v>
       </c>
       <c r="AE214" t="n">
-        <v>4.286666666666666</v>
+        <v>4.3975</v>
       </c>
       <c r="AF214" t="n">
-        <v>6.39</v>
+        <v>2.16</v>
       </c>
       <c r="AG214" t="n">
-        <v>0.7884</v>
+        <v>1.0848</v>
+      </c>
+      <c r="AH214" t="n">
+        <v>3.88</v>
       </c>
       <c r="AJ214" t="n">
-        <v>31.1423525</v>
+        <v>103.678273</v>
       </c>
       <c r="AK214" t="n">
-        <v>25.4135632</v>
+        <v>24.2451409</v>
       </c>
       <c r="AL214" t="n">
-        <v>37.8478</v>
+        <v>31.1664</v>
       </c>
       <c r="AM214" t="n">
-        <v>7.43</v>
+        <v>6.856099999999999</v>
       </c>
       <c r="AN214" t="n">
-        <v>5.861</v>
+        <v>5.467</v>
       </c>
       <c r="AO214" t="n">
-        <v>7.24746</v>
+        <v>6.697859999999999</v>
       </c>
       <c r="AP214" t="inlineStr">
         <is>
-          <t>105332908999068032</t>
+          <t>3380479015342121600</t>
         </is>
       </c>
       <c r="AQ214" t="inlineStr">
         <is>
-          <t>105332908999068032</t>
+          <t>3380479015342121600</t>
         </is>
       </c>
       <c r="AR214" t="inlineStr">
         <is>
-          <t>HD 12661</t>
+          <t>HD 50554</t>
         </is>
       </c>
       <c r="AS214" s="3" t="n">
-        <v>2.878455759965637</v>
+        <v>2.880011854113967</v>
       </c>
       <c r="AT214" t="n">
-        <v>0.102162118957885</v>
+        <v>0.05139891353960662</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>HD 50554 b</t>
+          <t>HD 64114 b</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>HD 50554</t>
+          <t>HD 64114</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>HD 50554</t>
+          <t>HD 64114</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>HIP 33212</t>
+          <t>HIP 38392</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>TIC 80224448</t>
+          <t>TIC 36021583</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Gaia DR2 3380479015342121600</t>
+          <t>Gaia DR2 3037245604373149824</t>
         </is>
       </c>
       <c r="G215" t="n">
         <v>1</v>
       </c>
       <c r="H215" t="n">
-        <v>1254.566666666667</v>
+        <v>45.791</v>
       </c>
       <c r="I215" t="n">
-        <v>2.3174</v>
+        <v>0.246</v>
       </c>
       <c r="J215" s="3" t="n"/>
-      <c r="L215" s="3" t="n">
-        <v>1859.29618</v>
-      </c>
-      <c r="M215" t="n">
-        <v>5.85</v>
-      </c>
+      <c r="L215" s="3" t="n"/>
       <c r="N215" s="3" t="n">
-        <v>1474.580016666667</v>
+        <v>17.8</v>
       </c>
       <c r="O215" t="n">
-        <v>4.625666666666667</v>
+        <v>0.056</v>
       </c>
       <c r="R215" t="n">
-        <v>1512.719425</v>
+        <v>17.8</v>
       </c>
       <c r="S215" t="n">
-        <v>4.745666666666667</v>
+        <v>0.056</v>
       </c>
       <c r="U215" t="n">
-        <v>0.4828333333333334</v>
+        <v>0.12</v>
       </c>
       <c r="X215" t="inlineStr">
         <is>
-          <t>F8 V</t>
+          <t>G7 V</t>
         </is>
       </c>
       <c r="Y215" t="n">
-        <v>5964.226666666666</v>
-      </c>
-      <c r="Z215" t="n">
-        <v>1.1</v>
+        <v>5676</v>
       </c>
       <c r="AA215" t="n">
-        <v>1.066666666666667</v>
-      </c>
-      <c r="AB215" t="n">
-        <v>-0.024</v>
-      </c>
-      <c r="AC215" t="inlineStr">
-        <is>
-          <t>[Fe/H]</t>
-        </is>
-      </c>
-      <c r="AD215" t="n">
-        <v>0.159</v>
-      </c>
-      <c r="AE215" t="n">
-        <v>4.3975</v>
-      </c>
-      <c r="AF215" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="AG215" t="n">
-        <v>1.0848</v>
-      </c>
-      <c r="AH215" t="n">
-        <v>3.88</v>
+        <v>0.95</v>
       </c>
       <c r="AJ215" t="n">
-        <v>103.678273</v>
+        <v>117.982556</v>
       </c>
       <c r="AK215" t="n">
-        <v>24.2451409</v>
+        <v>-11.0337221</v>
       </c>
       <c r="AL215" t="n">
-        <v>31.1664</v>
+        <v>31.5262</v>
       </c>
       <c r="AM215" t="n">
-        <v>6.856099999999999</v>
+        <v>7.71</v>
       </c>
       <c r="AN215" t="n">
-        <v>5.467</v>
+        <v>6.046</v>
       </c>
       <c r="AO215" t="n">
-        <v>6.697859999999999</v>
+        <v>7.52581</v>
       </c>
       <c r="AP215" t="inlineStr">
         <is>
-          <t>3380479015342121600</t>
+          <t>3037245604373149824</t>
         </is>
       </c>
       <c r="AQ215" t="inlineStr">
         <is>
-          <t>3380479015342121600</t>
+          <t>3037245604373149824</t>
         </is>
       </c>
       <c r="AR215" t="inlineStr">
         <is>
-          <t>HD 50554</t>
+          <t>HD 64114</t>
         </is>
       </c>
       <c r="AS215" s="3" t="n">
-        <v>2.880011854113967</v>
+        <v>2.880328975591234</v>
       </c>
       <c r="AT215" t="n">
-        <v>0.05139891353960662</v>
+        <v>0.09315211189113037</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>HD 64114 b</t>
+          <t>HD 125595 b</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>HD 64114</t>
+          <t>HD 125595</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>HD 64114</t>
+          <t>HD 125595</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>HIP 38392</t>
+          <t>HIP 70170</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>TIC 36021583</t>
+          <t>TIC 180030300</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>Gaia DR2 3037245604373149824</t>
+          <t>Gaia DR2 6104435819513399168</t>
         </is>
       </c>
       <c r="G216" t="n">
         <v>1</v>
       </c>
       <c r="H216" t="n">
-        <v>45.791</v>
+        <v>9.6737</v>
       </c>
       <c r="I216" t="n">
-        <v>0.246</v>
+        <v>0.08044999999999999</v>
       </c>
       <c r="J216" s="3" t="n"/>
       <c r="L216" s="3" t="n"/>
       <c r="N216" s="3" t="n">
-        <v>17.8</v>
+        <v>9.7453</v>
       </c>
       <c r="O216" t="n">
-        <v>0.056</v>
+        <v>0.0305</v>
       </c>
       <c r="R216" t="n">
-        <v>17.8</v>
+        <v>9.7453</v>
       </c>
       <c r="S216" t="n">
-        <v>0.056</v>
+        <v>0.0305</v>
       </c>
       <c r="U216" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="X216" t="inlineStr">
         <is>
-          <t>G7 V</t>
+          <t>K4 V</t>
         </is>
       </c>
       <c r="Y216" t="n">
-        <v>5676</v>
+        <v>4799.5</v>
+      </c>
+      <c r="Z216" t="n">
+        <v>0.74</v>
       </c>
       <c r="AA216" t="n">
-        <v>0.95</v>
+        <v>0.525</v>
+      </c>
+      <c r="AB216" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AC216" t="inlineStr">
+        <is>
+          <t>[Fe/H]</t>
+        </is>
+      </c>
+      <c r="AE216" t="n">
+        <v>4.245</v>
+      </c>
+      <c r="AF216" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="AH216" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI216" t="n">
+        <v>40.1</v>
       </c>
       <c r="AJ216" t="n">
-        <v>117.982556</v>
+        <v>215.3434326</v>
       </c>
       <c r="AK216" t="n">
-        <v>-11.0337221</v>
+        <v>-40.3942443</v>
       </c>
       <c r="AL216" t="n">
-        <v>31.5262</v>
+        <v>28.1989</v>
       </c>
       <c r="AM216" t="n">
-        <v>7.71</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="AN216" t="n">
-        <v>6.046</v>
+        <v>6.447</v>
       </c>
       <c r="AO216" t="n">
-        <v>7.52581</v>
+        <v>8.6555</v>
       </c>
       <c r="AP216" t="inlineStr">
         <is>
-          <t>3037245604373149824</t>
+          <t>6104435819513399168</t>
         </is>
       </c>
       <c r="AQ216" t="inlineStr">
         <is>
-          <t>3037245604373149824</t>
+          <t>6104435819513399168</t>
         </is>
       </c>
       <c r="AR216" t="inlineStr">
         <is>
-          <t>HD 64114</t>
+          <t>HD 125595</t>
         </is>
       </c>
       <c r="AS216" s="3" t="n">
-        <v>2.880328975591234</v>
+        <v>2.900721190712675</v>
       </c>
       <c r="AT216" t="n">
-        <v>0.09315211189113037</v>
+        <v>0.2831612630538113</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>HD 125595 b</t>
+          <t>HD 89307 b</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>HD 125595</t>
+          <t>HD 89307</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>HD 125595</t>
+          <t>HD 89307</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>HIP 70170</t>
+          <t>HIP 50473</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>TIC 180030300</t>
+          <t>TIC 61125572</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>Gaia DR2 6104435819513399168</t>
+          <t>Gaia DR2 3886688327612984704</t>
         </is>
       </c>
       <c r="G217" t="n">
         <v>1</v>
       </c>
       <c r="H217" t="n">
-        <v>9.6737</v>
+        <v>2301.5</v>
       </c>
       <c r="I217" t="n">
-        <v>0.08044999999999999</v>
+        <v>3.412366666666667</v>
       </c>
       <c r="J217" s="3" t="n"/>
-      <c r="L217" s="3" t="n"/>
+      <c r="L217" s="3" t="n">
+        <v>642.01338</v>
+      </c>
+      <c r="M217" t="n">
+        <v>2.02</v>
+      </c>
       <c r="N217" s="3" t="n">
-        <v>9.7453</v>
+        <v>660.2177316666666</v>
       </c>
       <c r="O217" t="n">
-        <v>0.0305</v>
+        <v>2.077333333333333</v>
       </c>
       <c r="R217" t="n">
-        <v>9.7453</v>
+        <v>667.1040133333332</v>
       </c>
       <c r="S217" t="n">
-        <v>0.0305</v>
+        <v>2.099</v>
       </c>
       <c r="U217" t="n">
-        <v>0</v>
+        <v>0.1875</v>
       </c>
       <c r="X217" t="inlineStr">
         <is>
-          <t>K4 V</t>
+          <t>G0 V</t>
         </is>
       </c>
       <c r="Y217" t="n">
-        <v>4799.5</v>
+        <v>5943.428</v>
       </c>
       <c r="Z217" t="n">
-        <v>0.74</v>
+        <v>1.0625</v>
       </c>
       <c r="AA217" t="n">
-        <v>0.525</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="AB217" t="n">
-        <v>0.05</v>
+        <v>-0.1396</v>
       </c>
       <c r="AC217" t="inlineStr">
         <is>
           <t>[Fe/H]</t>
         </is>
       </c>
+      <c r="AD217" t="n">
+        <v>0.1113333333333333</v>
+      </c>
       <c r="AE217" t="n">
-        <v>4.245</v>
+        <v>4.42</v>
       </c>
       <c r="AF217" t="n">
-        <v>3.53</v>
+        <v>4.535</v>
+      </c>
+      <c r="AG217" t="n">
+        <v>1.1788</v>
       </c>
       <c r="AH217" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AI217" t="n">
-        <v>40.1</v>
+        <v>3.21</v>
       </c>
       <c r="AJ217" t="n">
-        <v>215.3434326</v>
+        <v>154.5874958</v>
       </c>
       <c r="AK217" t="n">
-        <v>-40.3942443</v>
+        <v>12.6209392</v>
       </c>
       <c r="AL217" t="n">
-        <v>28.1989</v>
+        <v>32.0104</v>
       </c>
       <c r="AM217" t="n">
-        <v>9.029999999999999</v>
+        <v>7.02569</v>
       </c>
       <c r="AN217" t="n">
-        <v>6.447</v>
+        <v>5.564</v>
       </c>
       <c r="AO217" t="n">
-        <v>8.6555</v>
+        <v>6.86817</v>
       </c>
       <c r="AP217" t="inlineStr">
         <is>
-          <t>6104435819513399168</t>
+          <t>3886688327612984704</t>
         </is>
       </c>
       <c r="AQ217" t="inlineStr">
         <is>
-          <t>6104435819513399168</t>
+          <t>3886688327612984704</t>
         </is>
       </c>
       <c r="AR217" t="inlineStr">
         <is>
-          <t>HD 125595</t>
+          <t>HD 89307</t>
         </is>
       </c>
       <c r="AS217" s="3" t="n">
-        <v>2.900721190712675</v>
+        <v>2.918229512858622</v>
       </c>
       <c r="AT217" t="n">
-        <v>0.2831612630538113</v>
+        <v>0.1378594412808028</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>HD 89307 b</t>
+          <t>HD 85390 b</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>HD 89307</t>
+          <t>HD 85390</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>HD 89307</t>
+          <t>HD 85390</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>HIP 50473</t>
+          <t>HIP 48235</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>TIC 61125572</t>
+          <t>TIC 446137194</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>Gaia DR2 3886688327612984704</t>
+          <t>Gaia DR2 5406324138654973824</t>
         </is>
       </c>
       <c r="G218" t="n">
         <v>1</v>
       </c>
       <c r="H218" t="n">
-        <v>2301.5</v>
+        <v>791.84</v>
       </c>
       <c r="I218" t="n">
-        <v>3.412366666666667</v>
+        <v>1.471</v>
       </c>
       <c r="J218" s="3" t="n"/>
-      <c r="L218" s="3" t="n">
-        <v>642.01338</v>
-      </c>
-      <c r="M218" t="n">
-        <v>2.02</v>
-      </c>
+      <c r="L218" s="3" t="n"/>
       <c r="N218" s="3" t="n">
-        <v>660.2177316666666</v>
+        <v>36.14215666666666</v>
       </c>
       <c r="O218" t="n">
-        <v>2.077333333333333</v>
+        <v>0.1136666666666667</v>
       </c>
       <c r="R218" t="n">
-        <v>667.1040133333332</v>
+        <v>36.14215666666666</v>
       </c>
       <c r="S218" t="n">
-        <v>2.099</v>
+        <v>0.1136666666666667</v>
       </c>
       <c r="U218" t="n">
-        <v>0.1875</v>
-      </c>
-      <c r="X218" t="inlineStr">
-        <is>
-          <t>G0 V</t>
-        </is>
+        <v>0.4399999999999999</v>
       </c>
       <c r="Y218" t="n">
-        <v>5943.428</v>
+        <v>5178.666666666667</v>
       </c>
       <c r="Z218" t="n">
-        <v>1.0625</v>
+        <v>0.8</v>
       </c>
       <c r="AA218" t="n">
-        <v>1.083333333333333</v>
+        <v>0.6866666666666666</v>
       </c>
       <c r="AB218" t="n">
-        <v>-0.1396</v>
+        <v>-0.07500000000000001</v>
       </c>
       <c r="AC218" t="inlineStr">
         <is>
@@ -28012,128 +28040,122 @@
         </is>
       </c>
       <c r="AD218" t="n">
-        <v>0.1113333333333333</v>
+        <v>-0.367</v>
       </c>
       <c r="AE218" t="n">
-        <v>4.42</v>
+        <v>4.393333333333334</v>
       </c>
       <c r="AF218" t="n">
-        <v>4.535</v>
-      </c>
-      <c r="AG218" t="n">
-        <v>1.1788</v>
-      </c>
-      <c r="AH218" t="n">
-        <v>3.21</v>
+        <v>7.2</v>
       </c>
       <c r="AJ218" t="n">
-        <v>154.5874958</v>
+        <v>147.5105663</v>
       </c>
       <c r="AK218" t="n">
-        <v>12.6209392</v>
+        <v>-49.7905254</v>
       </c>
       <c r="AL218" t="n">
-        <v>32.0104</v>
+        <v>33.5225</v>
       </c>
       <c r="AM218" t="n">
-        <v>7.02569</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="AN218" t="n">
-        <v>5.564</v>
+        <v>6.491</v>
       </c>
       <c r="AO218" t="n">
-        <v>6.86817</v>
+        <v>8.29462</v>
       </c>
       <c r="AP218" t="inlineStr">
         <is>
-          <t>3886688327612984704</t>
+          <t>5406324138654973824</t>
         </is>
       </c>
       <c r="AQ218" t="inlineStr">
         <is>
-          <t>3886688327612984704</t>
+          <t>5406324138654973824</t>
         </is>
       </c>
       <c r="AR218" t="inlineStr">
         <is>
-          <t>HD 89307</t>
+          <t>HD 85390</t>
         </is>
       </c>
       <c r="AS218" s="3" t="n">
-        <v>2.918229512858622</v>
+        <v>2.932762249593288</v>
       </c>
       <c r="AT218" t="n">
-        <v>0.1378594412808028</v>
+        <v>0.03218331547263753</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>HD 85390 b</t>
+          <t>HD 216770 b</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>HD 85390</t>
+          <t>HD 216770</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>HD 85390</t>
+          <t>HD 216770</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>HIP 48235</t>
+          <t>HIP 113238</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>TIC 446137194</t>
+          <t>TIC 47526465</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Gaia DR2 5406324138654973824</t>
+          <t>Gaia DR2 6610107504955838336</t>
         </is>
       </c>
       <c r="G219" t="n">
         <v>1</v>
       </c>
       <c r="H219" t="n">
-        <v>791.84</v>
+        <v>118.45</v>
       </c>
       <c r="I219" t="n">
-        <v>1.471</v>
+        <v>0.46</v>
       </c>
       <c r="J219" s="3" t="n"/>
       <c r="L219" s="3" t="n"/>
       <c r="N219" s="3" t="n">
-        <v>36.14215666666666</v>
+        <v>193.8763</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1136666666666667</v>
+        <v>0.61</v>
       </c>
       <c r="R219" t="n">
-        <v>36.14215666666666</v>
+        <v>193.8763</v>
       </c>
       <c r="S219" t="n">
-        <v>0.1136666666666667</v>
+        <v>0.61</v>
       </c>
       <c r="U219" t="n">
-        <v>0.4399999999999999</v>
+        <v>0.37</v>
       </c>
       <c r="Y219" t="n">
-        <v>5178.666666666667</v>
+        <v>5399</v>
       </c>
       <c r="Z219" t="n">
-        <v>0.8</v>
+        <v>0.93</v>
       </c>
       <c r="AA219" t="n">
-        <v>0.6866666666666666</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AB219" t="n">
-        <v>-0.07500000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="AC219" t="inlineStr">
         <is>
@@ -28141,122 +28163,130 @@
         </is>
       </c>
       <c r="AD219" t="n">
-        <v>-0.367</v>
+        <v>-0.1</v>
       </c>
       <c r="AE219" t="n">
-        <v>4.393333333333334</v>
+        <v>4.37</v>
       </c>
       <c r="AF219" t="n">
-        <v>7.2</v>
+        <v>3.1</v>
+      </c>
+      <c r="AH219" t="n">
+        <v>1.4</v>
       </c>
       <c r="AJ219" t="n">
-        <v>147.5105663</v>
+        <v>343.9748751</v>
       </c>
       <c r="AK219" t="n">
-        <v>-49.7905254</v>
+        <v>-26.6595286</v>
       </c>
       <c r="AL219" t="n">
-        <v>33.5225</v>
+        <v>36.6625</v>
       </c>
       <c r="AM219" t="n">
-        <v>8.539999999999999</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="AN219" t="n">
-        <v>6.491</v>
+        <v>6.311</v>
       </c>
       <c r="AO219" t="n">
-        <v>8.29462</v>
+        <v>7.91638</v>
       </c>
       <c r="AP219" t="inlineStr">
         <is>
-          <t>5406324138654973824</t>
+          <t>6610107504955838336</t>
         </is>
       </c>
       <c r="AQ219" t="inlineStr">
         <is>
-          <t>5406324138654973824</t>
+          <t>6610107504955838336</t>
         </is>
       </c>
       <c r="AR219" t="inlineStr">
         <is>
-          <t>HD 85390</t>
+          <t>HD 216770</t>
         </is>
       </c>
       <c r="AS219" s="3" t="n">
-        <v>2.932762249593288</v>
+        <v>2.937962038283811</v>
       </c>
       <c r="AT219" t="n">
-        <v>0.03218331547263753</v>
+        <v>0.1440615078229511</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>HD 216770 b</t>
+          <t>HD 102117 b</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>HD 216770</t>
+          <t>HD 102117</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>HD 216770</t>
+          <t>HD 102117</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>HIP 113238</t>
+          <t>HIP 57291</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>TIC 47526465</t>
+          <t>TIC 267519701</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Gaia DR2 6610107504955838336</t>
+          <t>Gaia DR2 5341673851394297600</t>
         </is>
       </c>
       <c r="G220" t="n">
         <v>1</v>
       </c>
       <c r="H220" t="n">
-        <v>118.45</v>
+        <v>20.7809</v>
       </c>
       <c r="I220" t="n">
-        <v>0.46</v>
+        <v>0.15108</v>
       </c>
       <c r="J220" s="3" t="n"/>
       <c r="L220" s="3" t="n"/>
       <c r="N220" s="3" t="n">
-        <v>193.8763</v>
+        <v>53.01293999999999</v>
       </c>
       <c r="O220" t="n">
-        <v>0.61</v>
+        <v>0.1668</v>
       </c>
       <c r="R220" t="n">
-        <v>193.8763</v>
+        <v>53.01293999999999</v>
       </c>
       <c r="S220" t="n">
-        <v>0.61</v>
+        <v>0.1668</v>
       </c>
       <c r="U220" t="n">
-        <v>0.37</v>
+        <v>0.0854</v>
+      </c>
+      <c r="X220" t="inlineStr">
+        <is>
+          <t>G6 V</t>
+        </is>
       </c>
       <c r="Y220" t="n">
-        <v>5399</v>
+        <v>5623.776</v>
       </c>
       <c r="Z220" t="n">
-        <v>0.93</v>
+        <v>1.235</v>
       </c>
       <c r="AA220" t="n">
-        <v>0.8200000000000001</v>
+        <v>1.032</v>
       </c>
       <c r="AB220" t="n">
-        <v>0.25</v>
+        <v>0.2878</v>
       </c>
       <c r="AC220" t="inlineStr">
         <is>
@@ -28264,429 +28294,399 @@
         </is>
       </c>
       <c r="AD220" t="n">
-        <v>-0.1</v>
+        <v>0.1765</v>
       </c>
       <c r="AE220" t="n">
-        <v>4.37</v>
+        <v>4.295</v>
       </c>
       <c r="AF220" t="n">
-        <v>3.1</v>
+        <v>10</v>
+      </c>
+      <c r="AG220" t="n">
+        <v>0.7413</v>
       </c>
       <c r="AH220" t="n">
-        <v>1.4</v>
+        <v>1.19</v>
       </c>
       <c r="AJ220" t="n">
-        <v>343.9748751</v>
+        <v>176.2097267</v>
       </c>
       <c r="AK220" t="n">
-        <v>-26.6595286</v>
+        <v>-58.70401339999999</v>
       </c>
       <c r="AL220" t="n">
-        <v>36.6625</v>
+        <v>39.5792</v>
       </c>
       <c r="AM220" t="n">
-        <v>8.109999999999999</v>
+        <v>7.470000000000001</v>
       </c>
       <c r="AN220" t="n">
-        <v>6.311</v>
+        <v>5.833</v>
       </c>
       <c r="AO220" t="n">
-        <v>7.91638</v>
+        <v>7.281909999999999</v>
       </c>
       <c r="AP220" t="inlineStr">
         <is>
-          <t>6610107504955838336</t>
+          <t>5341673851394297600</t>
         </is>
       </c>
       <c r="AQ220" t="inlineStr">
         <is>
-          <t>6610107504955838336</t>
+          <t>5341673851394297600</t>
         </is>
       </c>
       <c r="AR220" t="inlineStr">
         <is>
-          <t>HD 216770</t>
+          <t>HD 102117</t>
         </is>
       </c>
       <c r="AS220" s="3" t="n">
-        <v>2.937962038283811</v>
+        <v>2.939989501621099</v>
       </c>
       <c r="AT220" t="n">
-        <v>0.1440615078229511</v>
+        <v>0.04736511891193391</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>HD 102117 b</t>
+          <t>HD 73256 c</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>HD 102117</t>
+          <t>HD 73256</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>HD 102117</t>
+          <t>HD 73256</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>HIP 57291</t>
+          <t>HIP 42214</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>TIC 267519701</t>
+          <t>TIC 11665403</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>Gaia DR2 5341673851394297600</t>
+          <t>Gaia DR2 5643762781311698048</t>
         </is>
       </c>
       <c r="G221" t="n">
         <v>1</v>
       </c>
       <c r="H221" t="n">
-        <v>20.7809</v>
+        <v>2690</v>
       </c>
       <c r="I221" t="n">
-        <v>0.15108</v>
+        <v>3.8</v>
       </c>
       <c r="J221" s="3" t="n"/>
-      <c r="L221" s="3" t="n"/>
-      <c r="N221" s="3" t="n">
-        <v>53.01293999999999</v>
-      </c>
-      <c r="O221" t="n">
-        <v>0.1668</v>
-      </c>
+      <c r="L221" s="3" t="n">
+        <v>5085.25451</v>
+      </c>
+      <c r="M221" t="n">
+        <v>16</v>
+      </c>
+      <c r="N221" s="3" t="n"/>
       <c r="R221" t="n">
-        <v>53.01293999999999</v>
+        <v>5085.25451</v>
       </c>
       <c r="S221" t="n">
-        <v>0.1668</v>
+        <v>16</v>
       </c>
       <c r="U221" t="n">
-        <v>0.0854</v>
+        <v>0.16</v>
       </c>
       <c r="X221" t="inlineStr">
         <is>
-          <t>G6 V</t>
-        </is>
-      </c>
-      <c r="Y221" t="n">
-        <v>5623.776</v>
-      </c>
-      <c r="Z221" t="n">
-        <v>1.235</v>
+          <t>G8 IV</t>
+        </is>
       </c>
       <c r="AA221" t="n">
-        <v>1.032</v>
-      </c>
-      <c r="AB221" t="n">
-        <v>0.2878</v>
-      </c>
-      <c r="AC221" t="inlineStr">
-        <is>
-          <t>[Fe/H]</t>
-        </is>
-      </c>
-      <c r="AD221" t="n">
-        <v>0.1765</v>
-      </c>
-      <c r="AE221" t="n">
-        <v>4.295</v>
+        <v>1</v>
       </c>
       <c r="AF221" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG221" t="n">
-        <v>0.7413</v>
+        <v>2.2</v>
       </c>
       <c r="AH221" t="n">
-        <v>1.19</v>
+        <v>3.5</v>
       </c>
       <c r="AJ221" t="n">
-        <v>176.2097267</v>
+        <v>129.0949961</v>
       </c>
       <c r="AK221" t="n">
-        <v>-58.70401339999999</v>
+        <v>-30.0373339</v>
       </c>
       <c r="AL221" t="n">
-        <v>39.5792</v>
+        <v>36.708</v>
       </c>
       <c r="AM221" t="n">
-        <v>7.470000000000001</v>
+        <v>8.08</v>
       </c>
       <c r="AN221" t="n">
-        <v>5.833</v>
+        <v>6.264</v>
       </c>
       <c r="AO221" t="n">
-        <v>7.281909999999999</v>
+        <v>7.85676</v>
       </c>
       <c r="AP221" t="inlineStr">
         <is>
-          <t>5341673851394297600</t>
+          <t>5643762781311698048</t>
         </is>
       </c>
       <c r="AQ221" t="inlineStr">
         <is>
-          <t>5341673851394297600</t>
+          <t>5643762781311698048</t>
         </is>
       </c>
       <c r="AR221" t="inlineStr">
         <is>
-          <t>HD 102117</t>
+          <t>HD 73256</t>
         </is>
       </c>
       <c r="AS221" s="3" t="n">
-        <v>2.939989501621099</v>
+        <v>2.946889472618117</v>
       </c>
       <c r="AT221" t="n">
-        <v>0.04736511891193391</v>
+        <v>0.09710081403223766</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>HD 73256 c</t>
+          <t>HD 20782 b</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>HD 73256</t>
+          <t>HD 20782</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>HD 73256</t>
+          <t>HD 20782</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>HIP 42214</t>
+          <t>HIP 15527</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>TIC 11665403</t>
+          <t>TIC 144503325</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>Gaia DR2 5643762781311698048</t>
+          <t>Gaia DR2 5060104351007433472</t>
         </is>
       </c>
       <c r="G222" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H222" t="n">
-        <v>2690</v>
+        <v>589.9578640000001</v>
       </c>
       <c r="I222" t="n">
-        <v>3.8</v>
+        <v>1.37018</v>
       </c>
       <c r="J222" s="3" t="n"/>
-      <c r="L222" s="3" t="n">
-        <v>5085.25451</v>
-      </c>
-      <c r="M222" t="n">
-        <v>16</v>
-      </c>
-      <c r="N222" s="3" t="n"/>
+      <c r="L222" s="3" t="n"/>
+      <c r="N222" s="3" t="n">
+        <v>470.23508</v>
+      </c>
+      <c r="O222" t="n">
+        <v>1.47956</v>
+      </c>
       <c r="R222" t="n">
-        <v>5085.25451</v>
+        <v>470.23508</v>
       </c>
       <c r="S222" t="n">
-        <v>16</v>
+        <v>1.47956</v>
       </c>
       <c r="U222" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="X222" t="inlineStr">
-        <is>
-          <t>G8 IV</t>
-        </is>
+        <v>0.8732</v>
+      </c>
+      <c r="Y222" t="n">
+        <v>5782.052000000001</v>
+      </c>
+      <c r="Z222" t="n">
+        <v>1.115</v>
       </c>
       <c r="AA222" t="n">
-        <v>1</v>
+        <v>1.034</v>
+      </c>
+      <c r="AB222" t="n">
+        <v>-0.0416</v>
+      </c>
+      <c r="AC222" t="inlineStr">
+        <is>
+          <t>[Fe/H]</t>
+        </is>
+      </c>
+      <c r="AD222" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="AE222" t="n">
+        <v>4.36</v>
       </c>
       <c r="AF222" t="n">
-        <v>2.2</v>
+        <v>6.315</v>
+      </c>
+      <c r="AG222" t="n">
+        <v>1.0248</v>
       </c>
       <c r="AH222" t="n">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="AJ222" t="n">
-        <v>129.0949961</v>
+        <v>50.0166232</v>
       </c>
       <c r="AK222" t="n">
-        <v>-30.0373339</v>
+        <v>-28.85435349999999</v>
       </c>
       <c r="AL222" t="n">
-        <v>36.708</v>
+        <v>35.9864</v>
       </c>
       <c r="AM222" t="n">
-        <v>8.08</v>
+        <v>7.360000000000001</v>
       </c>
       <c r="AN222" t="n">
-        <v>6.264</v>
+        <v>5.827</v>
       </c>
       <c r="AO222" t="n">
-        <v>7.85676</v>
+        <v>7.192829999999999</v>
       </c>
       <c r="AP222" t="inlineStr">
         <is>
-          <t>5643762781311698048</t>
+          <t>5060104351007433472</t>
         </is>
       </c>
       <c r="AQ222" t="inlineStr">
         <is>
-          <t>5643762781311698048</t>
+          <t>5060104351007433472</t>
         </is>
       </c>
       <c r="AR222" t="inlineStr">
         <is>
-          <t>HD 73256</t>
+          <t>HD 20782</t>
         </is>
       </c>
       <c r="AS222" s="3" t="n">
-        <v>2.946889472618117</v>
+        <v>2.954460693901278</v>
       </c>
       <c r="AT222" t="n">
-        <v>0.09710081403223766</v>
+        <v>0.1775835958341748</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>HD 20782 b</t>
+          <t>TOI-2443 b</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>HD 20782</t>
-        </is>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>HD 20782</t>
-        </is>
-      </c>
-      <c r="D223" t="inlineStr">
-        <is>
-          <t>HIP 15527</t>
+          <t>TOI-2443</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>TIC 144503325</t>
+          <t>TIC 318753380</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>Gaia DR2 5060104351007433472</t>
+          <t>Gaia DR2 2501948402746099456</t>
         </is>
       </c>
       <c r="G223" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H223" t="n">
-        <v>589.9578640000001</v>
-      </c>
-      <c r="I223" t="n">
-        <v>1.37018</v>
-      </c>
-      <c r="J223" s="3" t="n"/>
+        <v>15.669363105</v>
+      </c>
+      <c r="J223" s="3" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="K223" t="n">
+        <v>0.2435</v>
+      </c>
       <c r="L223" s="3" t="n"/>
-      <c r="N223" s="3" t="n">
-        <v>470.23508</v>
-      </c>
-      <c r="O223" t="n">
-        <v>1.47956</v>
-      </c>
-      <c r="R223" t="n">
-        <v>470.23508</v>
-      </c>
-      <c r="S223" t="n">
-        <v>1.47956</v>
-      </c>
-      <c r="U223" t="n">
-        <v>0.8732</v>
+      <c r="N223" s="3" t="n"/>
+      <c r="V223" t="n">
+        <v>13.29</v>
+      </c>
+      <c r="W223" t="n">
+        <v>544</v>
       </c>
       <c r="Y223" t="n">
-        <v>5782.052000000001</v>
+        <v>4285.719999999999</v>
       </c>
       <c r="Z223" t="n">
-        <v>1.115</v>
+        <v>0.73</v>
       </c>
       <c r="AA223" t="n">
-        <v>1.034</v>
+        <v>0.66</v>
       </c>
       <c r="AB223" t="n">
-        <v>-0.0416</v>
+        <v>-0.439</v>
       </c>
       <c r="AC223" t="inlineStr">
         <is>
-          <t>[Fe/H]</t>
-        </is>
-      </c>
-      <c r="AD223" t="n">
-        <v>0.488</v>
+          <t>[M/H]</t>
+        </is>
       </c>
       <c r="AE223" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="AF223" t="n">
-        <v>6.315</v>
-      </c>
-      <c r="AG223" t="n">
-        <v>1.0248</v>
-      </c>
-      <c r="AH223" t="n">
-        <v>1.7</v>
+        <v>4.62</v>
       </c>
       <c r="AJ223" t="n">
-        <v>50.0166232</v>
+        <v>40.1798608</v>
       </c>
       <c r="AK223" t="n">
-        <v>-28.85435349999999</v>
+        <v>1.1996757</v>
       </c>
       <c r="AL223" t="n">
-        <v>35.9864</v>
+        <v>23.9258</v>
       </c>
       <c r="AM223" t="n">
-        <v>7.360000000000001</v>
+        <v>9.51</v>
       </c>
       <c r="AN223" t="n">
-        <v>5.827</v>
+        <v>6.5</v>
       </c>
       <c r="AO223" t="n">
-        <v>7.192829999999999</v>
+        <v>9.033300000000001</v>
       </c>
       <c r="AP223" t="inlineStr">
         <is>
-          <t>5060104351007433472</t>
+          <t>2501948402746099456</t>
         </is>
       </c>
       <c r="AQ223" t="inlineStr">
         <is>
-          <t>5060104351007433472</t>
+          <t>2501948402746099456</t>
         </is>
       </c>
       <c r="AR223" t="inlineStr">
         <is>
-          <t>HD 20782</t>
+          <t>TOI-2443</t>
         </is>
       </c>
       <c r="AS223" s="3" t="n">
-        <v>2.954460693901278</v>
+        <v>2.970022591198855</v>
       </c>
       <c r="AT223" t="n">
-        <v>0.1775835958341748</v>
+        <v>0.1831075263583429</v>
       </c>
     </row>
     <row r="224">
@@ -32755,7 +32755,7 @@
         </is>
       </c>
       <c r="AS256" s="3" t="n">
-        <v>3.205595596606246</v>
+        <v>3.205595596606245</v>
       </c>
       <c r="AT256" t="n">
         <v>0.04792281642443743</v>
@@ -37611,7 +37611,7 @@
         </is>
       </c>
       <c r="AS294" s="3" t="n">
-        <v>3.49539843415675</v>
+        <v>3.495398434156749</v>
       </c>
       <c r="AT294" t="n">
         <v>0.0992497282195282</v>
@@ -39572,7 +39572,7 @@
         </is>
       </c>
       <c r="AS310" s="3" t="n">
-        <v>3.728611559600728</v>
+        <v>3.728611559600727</v>
       </c>
       <c r="AT310" t="n">
         <v>0.03632116839141827</v>
@@ -39700,7 +39700,7 @@
         </is>
       </c>
       <c r="AS311" s="3" t="n">
-        <v>3.728611559600728</v>
+        <v>3.728611559600727</v>
       </c>
       <c r="AT311" t="n">
         <v>0.03632116839141827</v>
@@ -42594,7 +42594,7 @@
         </is>
       </c>
       <c r="AS335" s="3" t="n">
-        <v>3.916525982685398</v>
+        <v>3.9165259826854</v>
       </c>
       <c r="AT335" t="n">
         <v>0.01871453938231641</v>
@@ -49310,7 +49310,7 @@
         </is>
       </c>
       <c r="AS387" s="3" t="n">
-        <v>4.486810940608945</v>
+        <v>4.486811723252697</v>
       </c>
       <c r="AT387" t="n">
         <v>0.1024083661756037</v>
@@ -49428,7 +49428,7 @@
         </is>
       </c>
       <c r="AS388" s="3" t="n">
-        <v>4.532745868878172</v>
+        <v>4.532745868878171</v>
       </c>
       <c r="AT388" t="n">
         <v>0.1633392584099824</v>
@@ -50156,7 +50156,7 @@
         </is>
       </c>
       <c r="AS394" s="3" t="n">
-        <v>5.02924784540017</v>
+        <v>5.029247845400172</v>
       </c>
       <c r="AT394" t="n">
         <v>0.0883007516084407</v>
@@ -50257,7 +50257,7 @@
         </is>
       </c>
       <c r="AS395" s="3" t="n">
-        <v>5.066808676581831</v>
+        <v>5.06680867658183</v>
       </c>
       <c r="AT395" t="n">
         <v>0.02038516501340938</v>
@@ -53352,7 +53352,7 @@
         </is>
       </c>
       <c r="AS419" s="3" t="n">
-        <v>33.76423036948551</v>
+        <v>33.7642303694855</v>
       </c>
       <c r="AT419" t="n">
         <v>0.05424945979923889</v>
